--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,6 +78,27 @@
       <left/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -455,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,55 +603,105 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.402</v>
+        <v>0.434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.781</v>
+        <v>0.68</v>
       </c>
       <c r="G4" t="n">
-        <v>0.802</v>
+        <v>0.675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6695</v>
+        <v>0.5894999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1844785443712448</v>
+        <v>0.1156157428726729</v>
       </c>
       <c r="J4" t="n">
-        <v>21.131</v>
+        <v>20.549</v>
       </c>
       <c r="K4" t="n">
-        <v>15.577</v>
+        <v>18.449</v>
       </c>
       <c r="L4" t="n">
-        <v>12.529</v>
+        <v>15.153</v>
       </c>
       <c r="M4" t="n">
-        <v>11.891</v>
+        <v>15.229</v>
       </c>
       <c r="N4" t="n">
-        <v>15.282</v>
+        <v>17.345</v>
       </c>
       <c r="O4" t="n">
-        <v>4.218045202855623</v>
+        <v>2.631017040360375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6525000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1742077304063552</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21.211</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.755</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.048</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12.968</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.7455</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.867074389423266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -642,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,49 +828,93 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>0.652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.696</v>
+        <v>0.652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.539</v>
+        <v>0.673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6590000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08008953323208549</v>
+        <v>0.01212435565298215</v>
       </c>
       <c r="I4" t="n">
-        <v>15.953</v>
+        <v>14.693</v>
       </c>
       <c r="J4" t="n">
-        <v>14.685</v>
+        <v>15.707</v>
       </c>
       <c r="K4" t="n">
-        <v>17.986</v>
+        <v>15.16</v>
       </c>
       <c r="L4" t="n">
-        <v>16.208</v>
+        <v>15.18666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>1.665208395366778</v>
+        <v>0.5075256972147656</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6576666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00351188458428425</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.646</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.516</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.488</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.21666666666667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4944100861970079</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -612,96 +612,390 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.434</v>
+        <v>0.399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.569</v>
+        <v>0.483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68</v>
+        <v>0.705</v>
       </c>
       <c r="G4" t="n">
-        <v>0.675</v>
+        <v>0.657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5894999999999999</v>
+        <v>0.5609999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1156157428726729</v>
+        <v>0.144083309234623</v>
       </c>
       <c r="J4" t="n">
-        <v>20.549</v>
+        <v>21.182</v>
       </c>
       <c r="K4" t="n">
-        <v>18.449</v>
+        <v>20.192</v>
       </c>
       <c r="L4" t="n">
-        <v>15.153</v>
+        <v>14.543</v>
       </c>
       <c r="M4" t="n">
-        <v>15.229</v>
+        <v>15.642</v>
       </c>
       <c r="N4" t="n">
-        <v>17.345</v>
+        <v>17.88975</v>
       </c>
       <c r="O4" t="n">
-        <v>2.631017040360375</v>
+        <v>3.285948911653984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5894999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1156157428726729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.549</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.449</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.153</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.229</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.345</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.631017040360375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6525000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1742077304063552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21.211</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.755</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13.048</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.968</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.7455</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.867074389423266</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.66925</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1815073460405024</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.009</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.781</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12.503</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.887</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.175153490192506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-6850913319.431</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1013929984.927</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-931687733.544</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1131547884.097</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2482019730.49975</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2913750286.782293</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2260961.023</v>
+      </c>
+      <c r="K8" t="n">
+        <v>894629.607</v>
+      </c>
+      <c r="L8" t="n">
+        <v>817374.3689999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>898473.429</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1217859.607</v>
+      </c>
+      <c r="O8" t="n">
+        <v>696403.6553404377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6525000000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1742077304063552</v>
-      </c>
-      <c r="J5" t="n">
-        <v>21.211</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.755</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13.048</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12.968</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.7455</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.867074389423266</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-3256364943.523</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1720042817.951</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1579695069.37</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2309081872.642</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2216296175.8715</v>
+      </c>
+      <c r="I9" t="n">
+        <v>761988755.6072383</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1558781.973</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1165222.635</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1064320.574</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1283478.019</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1267950.80025</v>
+      </c>
+      <c r="O9" t="n">
+        <v>213574.5073298061</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-6441337529.705</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2561023699.095</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2165858716.442</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3527224563.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3673861127.123</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1931571582.291854</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2192334.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1421824.79</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1246237.708</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1586300.001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1611674.31225</v>
+      </c>
+      <c r="O10" t="n">
+        <v>411257.0779385881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-9143772361.903</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3346823959.717</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2815158532.523</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-4340203720.459</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-4911489643.650499</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2891445281.240028</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2612050.337</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1625383.018</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1420814.087</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1759640.004</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1854471.8615</v>
+      </c>
+      <c r="O11" t="n">
+        <v>523914.430461777</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -713,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,7 +1122,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -837,84 +1131,342 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.652</v>
+        <v>0.62</v>
       </c>
       <c r="E4" t="n">
-        <v>0.652</v>
+        <v>0.439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.673</v>
+        <v>0.348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6590000000000001</v>
+        <v>0.469</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01212435565298215</v>
+        <v>0.1384593803250614</v>
       </c>
       <c r="I4" t="n">
-        <v>14.693</v>
+        <v>15.349</v>
       </c>
       <c r="J4" t="n">
-        <v>15.707</v>
+        <v>19.955</v>
       </c>
       <c r="K4" t="n">
-        <v>15.16</v>
+        <v>21.389</v>
       </c>
       <c r="L4" t="n">
-        <v>15.18666666666667</v>
+        <v>18.89766666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5075256972147656</v>
+        <v>3.155766996046021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6590000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01212435565298215</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.693</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.707</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5075256972147656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6576666666666666</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.00351188458428425</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.646</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.516</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.488</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15.21666666666667</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4944100861970079</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6503333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04972256362390551</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.162</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.427</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16.453</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15.34733333333333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.025636550310749</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-4892818200.616</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2887735226.785</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2563297604.415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3447950343.938667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1261763561.506984</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1742761.319</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1431608.864</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1341443.88</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1505271.354333333</v>
+      </c>
+      <c r="M8" t="n">
+        <v>210555.3218823048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6576666666666666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.00351188458428425</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.646</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15.516</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.488</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15.21666666666667</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4944100861970079</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-1824068284.429</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3386993235.918</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2598404734.782</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2603155418.376334</v>
+      </c>
+      <c r="H9" t="n">
+        <v>781473305.8413984</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1064091.364</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1550432.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1350598.901</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1321707.581666667</v>
+      </c>
+      <c r="M9" t="n">
+        <v>244454.3955989477</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-3399830827.72</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2457728065.41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2274079752.97</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2710546215.366666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>603959132.1321573</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1452737.095</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1320725.636</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1263501.722</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1345654.817666667</v>
+      </c>
+      <c r="M10" t="n">
+        <v>97049.49599322774</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-4001389670.519</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3106157096.922</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2386855425.836</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3164800731.092333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>808863099.4705187</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1576027.517</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1484763.907</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1294452.294</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1451747.906</v>
+      </c>
+      <c r="M11" t="n">
+        <v>143661.7339217334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -808,40 +808,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-6850913319.431</v>
+        <v>-0.535</v>
       </c>
       <c r="E8" t="n">
-        <v>-1013929984.927</v>
+        <v>-0.531</v>
       </c>
       <c r="F8" t="n">
-        <v>-931687733.544</v>
+        <v>-0.444</v>
       </c>
       <c r="G8" t="n">
-        <v>-1131547884.097</v>
+        <v>-0.795</v>
       </c>
       <c r="H8" t="n">
-        <v>-2482019730.49975</v>
+        <v>-0.57625</v>
       </c>
       <c r="I8" t="n">
-        <v>2913750286.782293</v>
+        <v>0.1517572074070948</v>
       </c>
       <c r="J8" t="n">
-        <v>2260961.023</v>
+        <v>33.839</v>
       </c>
       <c r="K8" t="n">
-        <v>894629.607</v>
+        <v>34.764</v>
       </c>
       <c r="L8" t="n">
-        <v>817374.3689999999</v>
+        <v>32.182</v>
       </c>
       <c r="M8" t="n">
-        <v>898473.429</v>
+        <v>35.787</v>
       </c>
       <c r="N8" t="n">
-        <v>1217859.607</v>
+        <v>34.143</v>
       </c>
       <c r="O8" t="n">
-        <v>696403.6553404377</v>
+        <v>1.530393631281398</v>
       </c>
     </row>
     <row r="9">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3256364943.523</v>
+        <v>-0.116</v>
       </c>
       <c r="E9" t="n">
-        <v>-1720042817.951</v>
+        <v>-0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>-1579695069.37</v>
+        <v>-0.137</v>
       </c>
       <c r="G9" t="n">
-        <v>-2309081872.642</v>
+        <v>-0.274</v>
       </c>
       <c r="H9" t="n">
-        <v>-2216296175.8715</v>
+        <v>-0.19425</v>
       </c>
       <c r="I9" t="n">
-        <v>761988755.6072383</v>
+        <v>0.07930689335318422</v>
       </c>
       <c r="J9" t="n">
-        <v>1558781.973</v>
+        <v>28.856</v>
       </c>
       <c r="K9" t="n">
-        <v>1165222.635</v>
+        <v>31.411</v>
       </c>
       <c r="L9" t="n">
-        <v>1064320.574</v>
+        <v>28.558</v>
       </c>
       <c r="M9" t="n">
-        <v>1283478.019</v>
+        <v>30.146</v>
       </c>
       <c r="N9" t="n">
-        <v>1267950.80025</v>
+        <v>29.74275</v>
       </c>
       <c r="O9" t="n">
-        <v>213574.5073298061</v>
+        <v>1.308386633733827</v>
       </c>
     </row>
     <row r="10">
@@ -906,40 +906,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-6441337529.705</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>-2561023699.095</v>
+        <v>-0.167</v>
       </c>
       <c r="F10" t="n">
-        <v>-2165858716.442</v>
+        <v>-0.128</v>
       </c>
       <c r="G10" t="n">
-        <v>-3527224563.25</v>
+        <v>-0.26</v>
       </c>
       <c r="H10" t="n">
-        <v>-3673861127.123</v>
+        <v>-0.16075</v>
       </c>
       <c r="I10" t="n">
-        <v>1931571582.291854</v>
+        <v>0.07360876306527642</v>
       </c>
       <c r="J10" t="n">
-        <v>2192334.75</v>
+        <v>28.493</v>
       </c>
       <c r="K10" t="n">
-        <v>1421824.79</v>
+        <v>30.352</v>
       </c>
       <c r="L10" t="n">
-        <v>1246237.708</v>
+        <v>28.439</v>
       </c>
       <c r="M10" t="n">
-        <v>1586300.001</v>
+        <v>29.987</v>
       </c>
       <c r="N10" t="n">
-        <v>1611674.31225</v>
+        <v>29.31775</v>
       </c>
       <c r="O10" t="n">
-        <v>411257.0779385881</v>
+        <v>0.9949845476187056</v>
       </c>
     </row>
     <row r="11">
@@ -955,40 +955,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-9143772361.903</v>
+        <v>-0.028</v>
       </c>
       <c r="E11" t="n">
-        <v>-3346823959.717</v>
+        <v>-0.098</v>
       </c>
       <c r="F11" t="n">
-        <v>-2815158532.523</v>
+        <v>-0.073</v>
       </c>
       <c r="G11" t="n">
-        <v>-4340203720.459</v>
+        <v>-0.159</v>
       </c>
       <c r="H11" t="n">
-        <v>-4911489643.650499</v>
+        <v>-0.0895</v>
       </c>
       <c r="I11" t="n">
-        <v>2891445281.240028</v>
+        <v>0.05464125425598013</v>
       </c>
       <c r="J11" t="n">
-        <v>2612050.337</v>
+        <v>27.69</v>
       </c>
       <c r="K11" t="n">
-        <v>1625383.018</v>
+        <v>29.438</v>
       </c>
       <c r="L11" t="n">
-        <v>1420814.087</v>
+        <v>27.743</v>
       </c>
       <c r="M11" t="n">
-        <v>1759640.004</v>
+        <v>28.754</v>
       </c>
       <c r="N11" t="n">
-        <v>1854471.8615</v>
+        <v>28.40625</v>
       </c>
       <c r="O11" t="n">
-        <v>523914.430461777</v>
+        <v>0.8442655091853507</v>
       </c>
     </row>
   </sheetData>
@@ -1303,34 +1303,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-4892818200.616</v>
+        <v>-0.769</v>
       </c>
       <c r="E8" t="n">
-        <v>-2887735226.785</v>
+        <v>-69.358</v>
       </c>
       <c r="F8" t="n">
-        <v>-2563297604.415</v>
+        <v>-0.887</v>
       </c>
       <c r="G8" t="n">
-        <v>-3447950343.938667</v>
+        <v>-23.67133333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>1261763561.506984</v>
+        <v>39.56585793753667</v>
       </c>
       <c r="I8" t="n">
-        <v>1742761.319</v>
+        <v>33.137</v>
       </c>
       <c r="J8" t="n">
-        <v>1431608.864</v>
+        <v>223.462</v>
       </c>
       <c r="K8" t="n">
-        <v>1341443.88</v>
+        <v>36.395</v>
       </c>
       <c r="L8" t="n">
-        <v>1505271.354333333</v>
+        <v>97.66466666666666</v>
       </c>
       <c r="M8" t="n">
-        <v>210555.3218823048</v>
+        <v>108.9558646715877</v>
       </c>
     </row>
     <row r="9">
@@ -1346,34 +1346,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1824068284.429</v>
+        <v>-0.271</v>
       </c>
       <c r="E9" t="n">
-        <v>-3386993235.918</v>
+        <v>-0.256</v>
       </c>
       <c r="F9" t="n">
-        <v>-2598404734.782</v>
+        <v>-0.356</v>
       </c>
       <c r="G9" t="n">
-        <v>-2603155418.376334</v>
+        <v>-0.2943333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>781473305.8413984</v>
+        <v>0.05392896562454477</v>
       </c>
       <c r="I9" t="n">
-        <v>1064091.364</v>
+        <v>28.088</v>
       </c>
       <c r="J9" t="n">
-        <v>1550432.48</v>
+        <v>29.862</v>
       </c>
       <c r="K9" t="n">
-        <v>1350598.901</v>
+        <v>30.859</v>
       </c>
       <c r="L9" t="n">
-        <v>1321707.581666667</v>
+        <v>29.603</v>
       </c>
       <c r="M9" t="n">
-        <v>244454.3955989477</v>
+        <v>1.403538741894929</v>
       </c>
     </row>
     <row r="10">
@@ -1389,34 +1389,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3399830827.72</v>
+        <v>-0.382</v>
       </c>
       <c r="E10" t="n">
-        <v>-2457728065.41</v>
+        <v>-0.399</v>
       </c>
       <c r="F10" t="n">
-        <v>-2274079752.97</v>
+        <v>-0.443</v>
       </c>
       <c r="G10" t="n">
-        <v>-2710546215.366666</v>
+        <v>-0.4080000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>603959132.1321573</v>
+        <v>0.03148015247739439</v>
       </c>
       <c r="I10" t="n">
-        <v>1452737.095</v>
+        <v>29.286</v>
       </c>
       <c r="J10" t="n">
-        <v>1320725.636</v>
+        <v>31.508</v>
       </c>
       <c r="K10" t="n">
-        <v>1263501.722</v>
+        <v>31.831</v>
       </c>
       <c r="L10" t="n">
-        <v>1345654.817666667</v>
+        <v>30.875</v>
       </c>
       <c r="M10" t="n">
-        <v>97049.49599322774</v>
+        <v>1.385558732064432</v>
       </c>
     </row>
     <row r="11">
@@ -1432,34 +1432,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-4001389670.519</v>
+        <v>-0.13</v>
       </c>
       <c r="E11" t="n">
-        <v>-3106157096.922</v>
+        <v>-0.143</v>
       </c>
       <c r="F11" t="n">
-        <v>-2386855425.836</v>
+        <v>-0.178</v>
       </c>
       <c r="G11" t="n">
-        <v>-3164800731.092333</v>
+        <v>-0.1503333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>808863099.4705187</v>
+        <v>0.0248260615751539</v>
       </c>
       <c r="I11" t="n">
-        <v>1576027.517</v>
+        <v>26.487</v>
       </c>
       <c r="J11" t="n">
-        <v>1484763.907</v>
+        <v>28.487</v>
       </c>
       <c r="K11" t="n">
-        <v>1294452.294</v>
+        <v>28.752</v>
       </c>
       <c r="L11" t="n">
-        <v>1451747.906</v>
+        <v>27.90866666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>143661.7339217334</v>
+        <v>1.23830865834546</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -710,47 +710,47 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.397</v>
+        <v>-0.535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6860000000000001</v>
+        <v>-0.531</v>
       </c>
       <c r="F6" t="n">
-        <v>0.763</v>
+        <v>-0.444</v>
       </c>
       <c r="G6" t="n">
-        <v>0.764</v>
+        <v>-0.795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6525000000000001</v>
+        <v>-0.57625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1742077304063552</v>
+        <v>0.1517572074070948</v>
       </c>
       <c r="J6" t="n">
-        <v>21.211</v>
+        <v>33.839</v>
       </c>
       <c r="K6" t="n">
-        <v>15.755</v>
+        <v>34.764</v>
       </c>
       <c r="L6" t="n">
-        <v>13.048</v>
+        <v>32.182</v>
       </c>
       <c r="M6" t="n">
-        <v>12.968</v>
+        <v>35.787</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7455</v>
+        <v>34.143</v>
       </c>
       <c r="O6" t="n">
-        <v>3.867074389423266</v>
+        <v>1.530393631281398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -759,47 +759,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.408</v>
+        <v>-0.116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6850000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.782</v>
+        <v>-0.137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.802</v>
+        <v>-0.274</v>
       </c>
       <c r="H7" t="n">
-        <v>0.66925</v>
+        <v>-0.19425</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1815073460405024</v>
+        <v>0.07930689335318422</v>
       </c>
       <c r="J7" t="n">
-        <v>21.009</v>
+        <v>28.856</v>
       </c>
       <c r="K7" t="n">
-        <v>15.781</v>
+        <v>31.411</v>
       </c>
       <c r="L7" t="n">
-        <v>12.503</v>
+        <v>28.558</v>
       </c>
       <c r="M7" t="n">
-        <v>11.887</v>
+        <v>30.146</v>
       </c>
       <c r="N7" t="n">
-        <v>15.295</v>
+        <v>29.74275</v>
       </c>
       <c r="O7" t="n">
-        <v>4.175153490192506</v>
+        <v>1.308386633733827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -808,47 +808,47 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.535</v>
+        <v>-0.001</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.531</v>
+        <v>-0.025</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.444</v>
+        <v>-0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.795</v>
+        <v>-0.076</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.57625</v>
+        <v>-0.03175</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1517572074070948</v>
+        <v>0.03159509455595916</v>
       </c>
       <c r="J8" t="n">
-        <v>33.839</v>
+        <v>27.329</v>
       </c>
       <c r="K8" t="n">
-        <v>34.764</v>
+        <v>28.439</v>
       </c>
       <c r="L8" t="n">
-        <v>32.182</v>
+        <v>27.115</v>
       </c>
       <c r="M8" t="n">
-        <v>35.787</v>
+        <v>27.709</v>
       </c>
       <c r="N8" t="n">
-        <v>34.143</v>
+        <v>27.648</v>
       </c>
       <c r="O8" t="n">
-        <v>1.530393631281398</v>
+        <v>0.581736481006077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -857,145 +857,47 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.116</v>
+        <v>-0.002</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.25</v>
+        <v>-0.001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.137</v>
+        <v>-0.032</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.274</v>
+        <v>-0.002</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.19425</v>
+        <v>-0.009250000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07930689335318422</v>
+        <v>0.01517399090549352</v>
       </c>
       <c r="J9" t="n">
-        <v>28.856</v>
+        <v>27.344</v>
       </c>
       <c r="K9" t="n">
-        <v>31.411</v>
+        <v>28.11</v>
       </c>
       <c r="L9" t="n">
-        <v>28.558</v>
+        <v>27.209</v>
       </c>
       <c r="M9" t="n">
-        <v>30.146</v>
+        <v>26.731</v>
       </c>
       <c r="N9" t="n">
-        <v>29.74275</v>
+        <v>27.3485</v>
       </c>
       <c r="O9" t="n">
-        <v>1.308386633733827</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.08799999999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.167</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.128</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.16075</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07360876306527642</v>
-      </c>
-      <c r="J10" t="n">
-        <v>28.493</v>
-      </c>
-      <c r="K10" t="n">
-        <v>30.352</v>
-      </c>
-      <c r="L10" t="n">
-        <v>28.439</v>
-      </c>
-      <c r="M10" t="n">
-        <v>29.987</v>
-      </c>
-      <c r="N10" t="n">
-        <v>29.31775</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.9949845476187056</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.028</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.098</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.073</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.159</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.0895</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.05464125425598013</v>
-      </c>
-      <c r="J11" t="n">
-        <v>27.69</v>
-      </c>
-      <c r="K11" t="n">
-        <v>29.438</v>
-      </c>
-      <c r="L11" t="n">
-        <v>27.743</v>
-      </c>
-      <c r="M11" t="n">
-        <v>28.754</v>
-      </c>
-      <c r="N11" t="n">
-        <v>28.40625</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.8442655091853507</v>
+        <v>0.5717426577286898</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1007,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,7 +1110,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1217,41 +1119,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.654</v>
+        <v>-0.769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.661</v>
+        <v>-69.358</v>
       </c>
       <c r="F6" t="n">
-        <v>0.658</v>
+        <v>-0.887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6576666666666666</v>
+        <v>-23.67133333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00351188458428425</v>
+        <v>39.56585793753667</v>
       </c>
       <c r="I6" t="n">
-        <v>14.646</v>
+        <v>33.137</v>
       </c>
       <c r="J6" t="n">
-        <v>15.516</v>
+        <v>223.462</v>
       </c>
       <c r="K6" t="n">
-        <v>15.488</v>
+        <v>36.395</v>
       </c>
       <c r="L6" t="n">
-        <v>15.21666666666667</v>
+        <v>97.66466666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4944100861970079</v>
+        <v>108.9558646715877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1260,41 +1162,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>-0.271</v>
       </c>
       <c r="E7" t="n">
-        <v>0.707</v>
+        <v>-0.256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.614</v>
+        <v>-0.356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6503333333333333</v>
+        <v>-0.2943333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04972256362390551</v>
+        <v>0.05392896562454477</v>
       </c>
       <c r="I7" t="n">
-        <v>15.162</v>
+        <v>28.088</v>
       </c>
       <c r="J7" t="n">
-        <v>14.427</v>
+        <v>29.862</v>
       </c>
       <c r="K7" t="n">
-        <v>16.453</v>
+        <v>30.859</v>
       </c>
       <c r="L7" t="n">
-        <v>15.34733333333333</v>
+        <v>29.603</v>
       </c>
       <c r="M7" t="n">
-        <v>1.025636550310749</v>
+        <v>1.403538741894929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1303,41 +1205,41 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.769</v>
+        <v>-0.018</v>
       </c>
       <c r="E8" t="n">
-        <v>-69.358</v>
+        <v>-0.015</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.887</v>
+        <v>-0.053</v>
       </c>
       <c r="G8" t="n">
-        <v>-23.67133333333334</v>
+        <v>-0.02866666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>39.56585793753667</v>
+        <v>0.0211266025033211</v>
       </c>
       <c r="I8" t="n">
-        <v>33.137</v>
+        <v>25.14</v>
       </c>
       <c r="J8" t="n">
-        <v>223.462</v>
+        <v>26.842</v>
       </c>
       <c r="K8" t="n">
-        <v>36.395</v>
+        <v>27.185</v>
       </c>
       <c r="L8" t="n">
-        <v>97.66466666666666</v>
+        <v>26.389</v>
       </c>
       <c r="M8" t="n">
-        <v>108.9558646715877</v>
+        <v>1.095177154619287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1346,127 +1248,41 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.271</v>
+        <v>-0.003</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.256</v>
+        <v>-0.002</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.356</v>
+        <v>-0.061</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2943333333333333</v>
+        <v>-0.022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05392896562454477</v>
+        <v>0.03377869150810907</v>
       </c>
       <c r="I9" t="n">
-        <v>28.088</v>
+        <v>24.951</v>
       </c>
       <c r="J9" t="n">
-        <v>29.862</v>
+        <v>26.665</v>
       </c>
       <c r="K9" t="n">
-        <v>30.859</v>
+        <v>27.288</v>
       </c>
       <c r="L9" t="n">
-        <v>29.603</v>
+        <v>26.30133333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>1.403538741894929</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.382</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.399</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.443</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.4080000000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03148015247739439</v>
-      </c>
-      <c r="I10" t="n">
-        <v>29.286</v>
-      </c>
-      <c r="J10" t="n">
-        <v>31.508</v>
-      </c>
-      <c r="K10" t="n">
-        <v>31.831</v>
-      </c>
-      <c r="L10" t="n">
-        <v>30.875</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.385558732064432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.143</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.178</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.1503333333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0248260615751539</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26.487</v>
-      </c>
-      <c r="J11" t="n">
-        <v>28.487</v>
-      </c>
-      <c r="K11" t="n">
-        <v>28.752</v>
-      </c>
-      <c r="L11" t="n">
-        <v>27.90866666666667</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.23830865834546</v>
+        <v>1.210199294882183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -701,7 +701,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -710,47 +710,47 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.535</v>
+        <v>0.397</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.531</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.444</v>
+        <v>0.763</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.795</v>
+        <v>0.764</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.57625</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1517572074070948</v>
+        <v>0.1742077304063552</v>
       </c>
       <c r="J6" t="n">
-        <v>33.839</v>
+        <v>21.211</v>
       </c>
       <c r="K6" t="n">
-        <v>34.764</v>
+        <v>15.755</v>
       </c>
       <c r="L6" t="n">
-        <v>32.182</v>
+        <v>13.048</v>
       </c>
       <c r="M6" t="n">
-        <v>35.787</v>
+        <v>12.968</v>
       </c>
       <c r="N6" t="n">
-        <v>34.143</v>
+        <v>15.7455</v>
       </c>
       <c r="O6" t="n">
-        <v>1.530393631281398</v>
+        <v>3.867074389423266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -759,47 +759,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.116</v>
+        <v>0.433</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.25</v>
+        <v>0.222</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.137</v>
+        <v>0.743</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.274</v>
+        <v>0.595</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.19425</v>
+        <v>0.49825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07930689335318422</v>
+        <v>0.2234835937304273</v>
       </c>
       <c r="J7" t="n">
-        <v>28.856</v>
+        <v>20.567</v>
       </c>
       <c r="K7" t="n">
-        <v>31.411</v>
+        <v>24.774</v>
       </c>
       <c r="L7" t="n">
-        <v>28.558</v>
+        <v>13.587</v>
       </c>
       <c r="M7" t="n">
-        <v>30.146</v>
+        <v>16.995</v>
       </c>
       <c r="N7" t="n">
-        <v>29.74275</v>
+        <v>18.98075</v>
       </c>
       <c r="O7" t="n">
-        <v>1.308386633733827</v>
+        <v>4.799780437686708</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -808,47 +808,47 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.001</v>
+        <v>0.446</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.025</v>
+        <v>0.665</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.025</v>
+        <v>0.724</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.076</v>
+        <v>0.732</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.03175</v>
+        <v>0.64175</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03159509455595916</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="J8" t="n">
-        <v>27.329</v>
+        <v>20.332</v>
       </c>
       <c r="K8" t="n">
-        <v>28.439</v>
+        <v>16.254</v>
       </c>
       <c r="L8" t="n">
-        <v>27.115</v>
+        <v>14.07</v>
       </c>
       <c r="M8" t="n">
-        <v>27.709</v>
+        <v>13.83</v>
       </c>
       <c r="N8" t="n">
-        <v>27.648</v>
+        <v>16.1215</v>
       </c>
       <c r="O8" t="n">
-        <v>0.581736481006077</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.002</v>
+        <v>0.4</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.032</v>
+        <v>0.781</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.002</v>
+        <v>0.786</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.009250000000000001</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01517399090549352</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="J9" t="n">
-        <v>27.344</v>
+        <v>21.161</v>
       </c>
       <c r="K9" t="n">
-        <v>28.11</v>
+        <v>15.603</v>
       </c>
       <c r="L9" t="n">
-        <v>27.209</v>
+        <v>12.527</v>
       </c>
       <c r="M9" t="n">
-        <v>26.731</v>
+        <v>12.357</v>
       </c>
       <c r="N9" t="n">
-        <v>27.3485</v>
+        <v>15.412</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5717426577286898</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1119,41 +1119,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.769</v>
+        <v>0.654</v>
       </c>
       <c r="E6" t="n">
-        <v>-69.358</v>
+        <v>0.661</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.887</v>
+        <v>0.658</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.67133333333334</v>
+        <v>0.6576666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>39.56585793753667</v>
+        <v>0.00351188458428425</v>
       </c>
       <c r="I6" t="n">
-        <v>33.137</v>
+        <v>14.646</v>
       </c>
       <c r="J6" t="n">
-        <v>223.462</v>
+        <v>15.516</v>
       </c>
       <c r="K6" t="n">
-        <v>36.395</v>
+        <v>15.488</v>
       </c>
       <c r="L6" t="n">
-        <v>97.66466666666666</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>108.9558646715877</v>
+        <v>0.4944100861970079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1162,41 +1162,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.271</v>
+        <v>0.656</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.256</v>
+        <v>0.434</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.356</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2943333333333333</v>
+        <v>0.3923333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05392896562454477</v>
+        <v>0.2867792414616744</v>
       </c>
       <c r="I7" t="n">
-        <v>28.088</v>
+        <v>14.605</v>
       </c>
       <c r="J7" t="n">
-        <v>29.862</v>
+        <v>20.039</v>
       </c>
       <c r="K7" t="n">
-        <v>30.859</v>
+        <v>25.317</v>
       </c>
       <c r="L7" t="n">
-        <v>29.603</v>
+        <v>19.987</v>
       </c>
       <c r="M7" t="n">
-        <v>1.403538741894929</v>
+        <v>5.356189317042481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1205,41 +1205,41 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.018</v>
+        <v>0.652</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.015</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.053</v>
+        <v>0.655</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02866666666666667</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0211266025033211</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="I8" t="n">
-        <v>25.14</v>
+        <v>14.708</v>
       </c>
       <c r="J8" t="n">
-        <v>26.842</v>
+        <v>14.98</v>
       </c>
       <c r="K8" t="n">
-        <v>27.185</v>
+        <v>15.554</v>
       </c>
       <c r="L8" t="n">
-        <v>26.389</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.095177154619287</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1248,34 +1248,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.003</v>
+        <v>0.653</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002</v>
+        <v>0.667</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.061</v>
+        <v>0.638</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.022</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03377869150810907</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="I9" t="n">
-        <v>24.951</v>
+        <v>14.684</v>
       </c>
       <c r="J9" t="n">
-        <v>26.665</v>
+        <v>15.373</v>
       </c>
       <c r="K9" t="n">
-        <v>27.288</v>
+        <v>15.932</v>
       </c>
       <c r="L9" t="n">
-        <v>26.30133333333333</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>1.210199294882183</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_5</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -759,47 +759,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
       <c r="E7" t="n">
-        <v>0.222</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.743</v>
+        <v>0.782</v>
       </c>
       <c r="G7" t="n">
-        <v>0.595</v>
+        <v>0.802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.49825</v>
+        <v>0.66925</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2234835937304273</v>
+        <v>0.1815073460405024</v>
       </c>
       <c r="J7" t="n">
-        <v>20.567</v>
+        <v>21.009</v>
       </c>
       <c r="K7" t="n">
-        <v>24.774</v>
+        <v>15.781</v>
       </c>
       <c r="L7" t="n">
-        <v>13.587</v>
+        <v>12.503</v>
       </c>
       <c r="M7" t="n">
-        <v>16.995</v>
+        <v>11.887</v>
       </c>
       <c r="N7" t="n">
-        <v>18.98075</v>
+        <v>15.295</v>
       </c>
       <c r="O7" t="n">
-        <v>4.799780437686708</v>
+        <v>4.175153490192506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -808,96 +808,782 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.446</v>
+        <v>0.433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.665</v>
+        <v>0.222</v>
       </c>
       <c r="F8" t="n">
-        <v>0.724</v>
+        <v>0.743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.732</v>
+        <v>0.595</v>
       </c>
       <c r="H8" t="n">
-        <v>0.64175</v>
+        <v>0.49825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1338764978129719</v>
+        <v>0.2234835937304273</v>
       </c>
       <c r="J8" t="n">
-        <v>20.332</v>
+        <v>20.567</v>
       </c>
       <c r="K8" t="n">
-        <v>16.254</v>
+        <v>24.774</v>
       </c>
       <c r="L8" t="n">
-        <v>14.07</v>
+        <v>13.587</v>
       </c>
       <c r="M8" t="n">
-        <v>13.83</v>
+        <v>16.995</v>
       </c>
       <c r="N8" t="n">
-        <v>16.1215</v>
+        <v>18.98075</v>
       </c>
       <c r="O8" t="n">
-        <v>3.011394527457337</v>
+        <v>4.799780437686708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.64175</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1338764978129719</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.332</v>
+      </c>
+      <c r="K9" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.1215</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.011394527457337</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.6919999999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>0.781</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.786</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.6647500000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>0.1817055768727715</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>21.161</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>15.603</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>12.527</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>12.357</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>15.412</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>4.112733559730479</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6617500000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1794962859411489</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21.019</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16.263</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12.945</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.709</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15.484</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4.160937875046922</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.555</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.957</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2.049</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.106</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-2.41675</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.48736778123861</v>
+      </c>
+      <c r="J12" t="n">
+        <v>64.38200000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>48.309</v>
+      </c>
+      <c r="L12" t="n">
+        <v>46.76</v>
+      </c>
+      <c r="M12" t="n">
+        <v>38.762</v>
+      </c>
+      <c r="N12" t="n">
+        <v>49.55325</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10.73457508474369</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.594</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.627</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.5610000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.47975</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2300831371482925</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34.49</v>
+      </c>
+      <c r="K13" t="n">
+        <v>35.835</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33.459</v>
+      </c>
+      <c r="M13" t="n">
+        <v>28.485</v>
+      </c>
+      <c r="N13" t="n">
+        <v>33.06725</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.205991305353152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.134</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.127</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.02950000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1304517790858625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.087</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29.831</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26.773</v>
+      </c>
+      <c r="M14" t="n">
+        <v>24.732</v>
+      </c>
+      <c r="N14" t="n">
+        <v>27.60575</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.316444887465848</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.16675</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1376865401313191</v>
+      </c>
+      <c r="J15" t="n">
+        <v>25.557</v>
+      </c>
+      <c r="K15" t="n">
+        <v>23.964</v>
+      </c>
+      <c r="L15" t="n">
+        <v>26.911</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22.686</v>
+      </c>
+      <c r="N15" t="n">
+        <v>24.7795</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.843509424982688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1003626756651429</v>
+      </c>
+      <c r="J16" t="n">
+        <v>23.639</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.153</v>
+      </c>
+      <c r="L16" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="M16" t="n">
+        <v>19.839</v>
+      </c>
+      <c r="N16" t="n">
+        <v>21.04025</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.869943916271287</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.48725</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09028242723070018</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.952</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19.691</v>
+      </c>
+      <c r="L17" t="n">
+        <v>18.141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19.44975</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.83401115500061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.49725</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.087937003966855</v>
+      </c>
+      <c r="J18" t="n">
+        <v>21.725</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18.162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>17.752</v>
+      </c>
+      <c r="N18" t="n">
+        <v>19.25475</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.786074163260493</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1299512729192497</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="L19" t="n">
+        <v>19.754</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18.979</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21.2645</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.433977608771288</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.18425</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.05330025015576068</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25.702</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25.325</v>
+      </c>
+      <c r="L20" t="n">
+        <v>23.269</v>
+      </c>
+      <c r="M20" t="n">
+        <v>24.049</v>
+      </c>
+      <c r="N20" t="n">
+        <v>24.58625</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.127598443595947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.2945</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06504101270224298</v>
+      </c>
+      <c r="J21" t="n">
+        <v>24.326</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23.585</v>
+      </c>
+      <c r="L21" t="n">
+        <v>21.378</v>
+      </c>
+      <c r="M21" t="n">
+        <v>22.133</v>
+      </c>
+      <c r="N21" t="n">
+        <v>22.8555</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.341585256329243</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.33475</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06600694407913964</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23.782</v>
+      </c>
+      <c r="K22" t="n">
+        <v>22.789</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.789</v>
+      </c>
+      <c r="M22" t="n">
+        <v>21.394</v>
+      </c>
+      <c r="N22" t="n">
+        <v>22.1885</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.352734637687673</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.06396353127629315</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.326</v>
+      </c>
+      <c r="K23" t="n">
+        <v>22.386</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20.355</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.996</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21.76575</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.341866951924321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A4:A23"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -909,7 +1595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_5</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1162,41 +1848,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.656</v>
+        <v>0.63</v>
       </c>
       <c r="E7" t="n">
-        <v>0.434</v>
+        <v>0.707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3923333333333334</v>
+        <v>0.6503333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2867792414616744</v>
+        <v>0.04972256362390551</v>
       </c>
       <c r="I7" t="n">
-        <v>14.605</v>
+        <v>15.162</v>
       </c>
       <c r="J7" t="n">
-        <v>20.039</v>
+        <v>14.427</v>
       </c>
       <c r="K7" t="n">
-        <v>25.317</v>
+        <v>16.453</v>
       </c>
       <c r="L7" t="n">
-        <v>19.987</v>
+        <v>15.34733333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>5.356189317042481</v>
+        <v>1.025636550310749</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1205,84 +1891,686 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.652</v>
+        <v>0.656</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.655</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6636666666666667</v>
+        <v>0.3923333333333334</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01767295485574876</v>
+        <v>0.2867792414616744</v>
       </c>
       <c r="I8" t="n">
-        <v>14.708</v>
+        <v>14.605</v>
       </c>
       <c r="J8" t="n">
-        <v>14.98</v>
+        <v>20.039</v>
       </c>
       <c r="K8" t="n">
-        <v>15.554</v>
+        <v>25.317</v>
       </c>
       <c r="L8" t="n">
-        <v>15.08066666666667</v>
+        <v>19.987</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4318904182004196</v>
+        <v>5.356189317042481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6636666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01767295485574876</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.708</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.554</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15.08066666666667</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4318904182004196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_4</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.653</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.667</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>0.638</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.6526666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.01450287327853807</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>14.684</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>15.373</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>15.932</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>15.32966666666667</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>0.6251274536711166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04164532786920205</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.945</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15.623</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17.187</v>
+      </c>
+      <c r="L11" t="n">
+        <v>16.25166666666667</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8258676245823751</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-2.025</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-2.106</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.120333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1032488902280956</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43.335</v>
+      </c>
+      <c r="J12" t="n">
+        <v>46.953</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47.615</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45.96766666666667</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.30385792386018</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.347</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.291</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.2593333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1070716271163063</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.916</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.109</v>
+      </c>
+      <c r="L13" t="n">
+        <v>29.20833333333333</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.294638170460287</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1838939912014528</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23.071</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24.053</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24.41633333333333</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.559082208651401</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1123333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07129048557369583</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22.778</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.679</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26.076</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24.511</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.655405992498518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3503333333333334</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1104098425564195</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20.325</v>
+      </c>
+      <c r="J16" t="n">
+        <v>19.435</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22.962</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20.90733333333333</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.834193646628767</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4476666666666667</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07081195755896977</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18.643</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18.428</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20.841</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19.304</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.335414916795526</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4213333333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.06450064599159712</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.955</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19.091</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21.254</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19.76666666666667</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.289862137336133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4096666666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1026466430689934</v>
+      </c>
+      <c r="I19" t="n">
+        <v>17.461</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20.361</v>
+      </c>
+      <c r="K19" t="n">
+        <v>22.098</v>
+      </c>
+      <c r="L19" t="n">
+        <v>19.97333333333333</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.342681440856468</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.08430895563343198</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23.681</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23.429</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25.572</v>
+      </c>
+      <c r="L20" t="n">
+        <v>24.22733333333333</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.171312227091194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2233333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07106569730420811</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22.102</v>
+      </c>
+      <c r="J21" t="n">
+        <v>22.312</v>
+      </c>
+      <c r="K21" t="n">
+        <v>24.309</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22.90766666666667</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.218124104241162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2386666666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.06772247288259144</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21.654</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22.235</v>
+      </c>
+      <c r="K22" t="n">
+        <v>24.172</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22.687</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.318449468125344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06364746656387826</v>
+      </c>
+      <c r="I23" t="n">
+        <v>21.586</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22.217</v>
+      </c>
+      <c r="K23" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.60766666666666</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.26315253763484</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A4:A23"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLlinear_10</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -612,47 +612,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.399</v>
+        <v>0.491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.483</v>
+        <v>0.654</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705</v>
+        <v>0.751</v>
       </c>
       <c r="G4" t="n">
-        <v>0.657</v>
+        <v>0.788</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5609999999999999</v>
+        <v>0.671</v>
       </c>
       <c r="I4" t="n">
-        <v>0.144083309234623</v>
+        <v>0.1326373501946818</v>
       </c>
       <c r="J4" t="n">
-        <v>21.182</v>
+        <v>19.481</v>
       </c>
       <c r="K4" t="n">
-        <v>20.192</v>
+        <v>16.522</v>
       </c>
       <c r="L4" t="n">
-        <v>14.543</v>
+        <v>13.363</v>
       </c>
       <c r="M4" t="n">
-        <v>15.642</v>
+        <v>12.292</v>
       </c>
       <c r="N4" t="n">
-        <v>17.88975</v>
+        <v>15.4145</v>
       </c>
       <c r="O4" t="n">
-        <v>3.285948911653984</v>
+        <v>3.251750144153146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -661,47 +661,47 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.434</v>
+        <v>0.399</v>
       </c>
       <c r="E5" t="n">
-        <v>0.569</v>
+        <v>0.483</v>
       </c>
       <c r="F5" t="n">
-        <v>0.68</v>
+        <v>0.705</v>
       </c>
       <c r="G5" t="n">
-        <v>0.675</v>
+        <v>0.657</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5894999999999999</v>
+        <v>0.5609999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1156157428726729</v>
+        <v>0.144083309234623</v>
       </c>
       <c r="J5" t="n">
-        <v>20.549</v>
+        <v>21.182</v>
       </c>
       <c r="K5" t="n">
-        <v>18.449</v>
+        <v>20.192</v>
       </c>
       <c r="L5" t="n">
-        <v>15.153</v>
+        <v>14.543</v>
       </c>
       <c r="M5" t="n">
-        <v>15.229</v>
+        <v>15.642</v>
       </c>
       <c r="N5" t="n">
-        <v>17.345</v>
+        <v>17.88975</v>
       </c>
       <c r="O5" t="n">
-        <v>2.631017040360375</v>
+        <v>3.285948911653984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -710,47 +710,47 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.397</v>
+        <v>0.434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="F6" t="n">
-        <v>0.763</v>
+        <v>0.68</v>
       </c>
       <c r="G6" t="n">
-        <v>0.764</v>
+        <v>0.675</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6525000000000001</v>
+        <v>0.5894999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1742077304063552</v>
+        <v>0.1156157428726729</v>
       </c>
       <c r="J6" t="n">
-        <v>21.211</v>
+        <v>20.549</v>
       </c>
       <c r="K6" t="n">
-        <v>15.755</v>
+        <v>18.449</v>
       </c>
       <c r="L6" t="n">
-        <v>13.048</v>
+        <v>15.153</v>
       </c>
       <c r="M6" t="n">
-        <v>12.968</v>
+        <v>15.229</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7455</v>
+        <v>17.345</v>
       </c>
       <c r="O6" t="n">
-        <v>3.867074389423266</v>
+        <v>2.631017040360375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -759,47 +759,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.408</v>
+        <v>0.397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.782</v>
+        <v>0.763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.802</v>
+        <v>0.764</v>
       </c>
       <c r="H7" t="n">
-        <v>0.66925</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1815073460405024</v>
+        <v>0.1742077304063552</v>
       </c>
       <c r="J7" t="n">
-        <v>21.009</v>
+        <v>21.211</v>
       </c>
       <c r="K7" t="n">
-        <v>15.781</v>
+        <v>15.755</v>
       </c>
       <c r="L7" t="n">
-        <v>12.503</v>
+        <v>13.048</v>
       </c>
       <c r="M7" t="n">
-        <v>11.887</v>
+        <v>12.968</v>
       </c>
       <c r="N7" t="n">
-        <v>15.295</v>
+        <v>15.7455</v>
       </c>
       <c r="O7" t="n">
-        <v>4.175153490192506</v>
+        <v>3.867074389423266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_5</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -808,47 +808,47 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.222</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.743</v>
+        <v>0.782</v>
       </c>
       <c r="G8" t="n">
-        <v>0.595</v>
+        <v>0.802</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49825</v>
+        <v>0.66925</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2234835937304273</v>
+        <v>0.1815073460405024</v>
       </c>
       <c r="J8" t="n">
-        <v>20.567</v>
+        <v>21.009</v>
       </c>
       <c r="K8" t="n">
-        <v>24.774</v>
+        <v>15.781</v>
       </c>
       <c r="L8" t="n">
-        <v>13.587</v>
+        <v>12.503</v>
       </c>
       <c r="M8" t="n">
-        <v>16.995</v>
+        <v>11.887</v>
       </c>
       <c r="N8" t="n">
-        <v>18.98075</v>
+        <v>15.295</v>
       </c>
       <c r="O8" t="n">
-        <v>4.799780437686708</v>
+        <v>4.175153490192506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_6</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -857,47 +857,47 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.446</v>
+        <v>0.42</v>
       </c>
       <c r="E9" t="n">
-        <v>0.665</v>
+        <v>0.679</v>
       </c>
       <c r="F9" t="n">
-        <v>0.724</v>
+        <v>0.775</v>
       </c>
       <c r="G9" t="n">
-        <v>0.732</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.64175</v>
+        <v>0.6705000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1338764978129719</v>
+        <v>0.1757355968493578</v>
       </c>
       <c r="J9" t="n">
-        <v>20.332</v>
+        <v>20.804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.254</v>
+        <v>15.927</v>
       </c>
       <c r="L9" t="n">
-        <v>14.07</v>
+        <v>12.689</v>
       </c>
       <c r="M9" t="n">
-        <v>13.83</v>
+        <v>11.689</v>
       </c>
       <c r="N9" t="n">
-        <v>16.1215</v>
+        <v>15.27725</v>
       </c>
       <c r="O9" t="n">
-        <v>3.011394527457337</v>
+        <v>4.10453881899863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_7</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -906,47 +906,47 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.672</v>
       </c>
       <c r="F10" t="n">
-        <v>0.781</v>
+        <v>0.765</v>
       </c>
       <c r="G10" t="n">
-        <v>0.786</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6647500000000001</v>
+        <v>0.6725000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1817055768727715</v>
+        <v>0.1626868156919915</v>
       </c>
       <c r="J10" t="n">
-        <v>21.161</v>
+        <v>20.369</v>
       </c>
       <c r="K10" t="n">
-        <v>15.603</v>
+        <v>16.102</v>
       </c>
       <c r="L10" t="n">
-        <v>12.527</v>
+        <v>12.993</v>
       </c>
       <c r="M10" t="n">
-        <v>12.357</v>
+        <v>11.673</v>
       </c>
       <c r="N10" t="n">
-        <v>15.412</v>
+        <v>15.28425</v>
       </c>
       <c r="O10" t="n">
-        <v>4.112733559730479</v>
+        <v>3.864986017654743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLlinear_8</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -955,47 +955,47 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.408</v>
+        <v>0.464</v>
       </c>
       <c r="E11" t="n">
         <v>0.665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.766</v>
+        <v>0.757</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.802</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6617500000000001</v>
+        <v>0.672</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1794962859411489</v>
+        <v>0.1499310952849119</v>
       </c>
       <c r="J11" t="n">
-        <v>21.019</v>
+        <v>19.997</v>
       </c>
       <c r="K11" t="n">
-        <v>16.263</v>
+        <v>16.256</v>
       </c>
       <c r="L11" t="n">
-        <v>12.945</v>
+        <v>13.208</v>
       </c>
       <c r="M11" t="n">
-        <v>11.709</v>
+        <v>11.881</v>
       </c>
       <c r="N11" t="n">
-        <v>15.484</v>
+        <v>15.3355</v>
       </c>
       <c r="O11" t="n">
-        <v>4.160937875046922</v>
+        <v>3.607248674544077</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLlinear_9</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1004,47 +1004,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-4.555</v>
+        <v>0.479</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.957</v>
+        <v>0.659</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.049</v>
+        <v>0.756</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.106</v>
+        <v>0.795</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.41675</v>
+        <v>0.67225</v>
       </c>
       <c r="I12" t="n">
-        <v>1.48736778123861</v>
+        <v>0.1409524151383485</v>
       </c>
       <c r="J12" t="n">
-        <v>64.38200000000001</v>
+        <v>19.713</v>
       </c>
       <c r="K12" t="n">
-        <v>48.309</v>
+        <v>16.397</v>
       </c>
       <c r="L12" t="n">
-        <v>46.76</v>
+        <v>13.228</v>
       </c>
       <c r="M12" t="n">
-        <v>38.762</v>
+        <v>12.095</v>
       </c>
       <c r="N12" t="n">
-        <v>49.55325</v>
+        <v>15.35825</v>
       </c>
       <c r="O12" t="n">
-        <v>10.73457508474369</v>
+        <v>3.426835992087551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLpolynomial_10</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1053,47 +1053,47 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.594</v>
+        <v>0.511</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.627</v>
+        <v>0.597</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5610000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.137</v>
+        <v>0.728</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.47975</v>
+        <v>0.62875</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2300831371482925</v>
+        <v>0.09530433708214264</v>
       </c>
       <c r="J13" t="n">
-        <v>34.49</v>
+        <v>19.11</v>
       </c>
       <c r="K13" t="n">
-        <v>35.835</v>
+        <v>17.828</v>
       </c>
       <c r="L13" t="n">
-        <v>33.459</v>
+        <v>15.163</v>
       </c>
       <c r="M13" t="n">
-        <v>28.485</v>
+        <v>13.939</v>
       </c>
       <c r="N13" t="n">
-        <v>33.06725</v>
+        <v>16.51</v>
       </c>
       <c r="O13" t="n">
-        <v>3.205991305353152</v>
+        <v>2.37497887709905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1102,47 +1102,47 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.134</v>
+        <v>0.433</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.127</v>
+        <v>0.222</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.143</v>
+        <v>0.595</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.02950000000000001</v>
+        <v>0.49825</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1304517790858625</v>
+        <v>0.2234835937304273</v>
       </c>
       <c r="J14" t="n">
-        <v>29.087</v>
+        <v>20.567</v>
       </c>
       <c r="K14" t="n">
-        <v>29.831</v>
+        <v>24.774</v>
       </c>
       <c r="L14" t="n">
-        <v>26.773</v>
+        <v>13.587</v>
       </c>
       <c r="M14" t="n">
-        <v>24.732</v>
+        <v>16.995</v>
       </c>
       <c r="N14" t="n">
-        <v>27.60575</v>
+        <v>18.98075</v>
       </c>
       <c r="O14" t="n">
-        <v>2.316444887465848</v>
+        <v>4.799780437686708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1151,47 +1151,47 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.125</v>
+        <v>0.446</v>
       </c>
       <c r="E15" t="n">
-        <v>0.273</v>
+        <v>0.665</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01</v>
+        <v>0.724</v>
       </c>
       <c r="G15" t="n">
-        <v>0.279</v>
+        <v>0.732</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16675</v>
+        <v>0.64175</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1376865401313191</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="J15" t="n">
-        <v>25.557</v>
+        <v>20.332</v>
       </c>
       <c r="K15" t="n">
-        <v>23.964</v>
+        <v>16.254</v>
       </c>
       <c r="L15" t="n">
-        <v>26.911</v>
+        <v>14.07</v>
       </c>
       <c r="M15" t="n">
-        <v>22.686</v>
+        <v>13.83</v>
       </c>
       <c r="N15" t="n">
-        <v>24.7795</v>
+        <v>16.1215</v>
       </c>
       <c r="O15" t="n">
-        <v>1.843509424982688</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -1200,47 +1200,47 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.251</v>
+        <v>0.4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.433</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.468</v>
+        <v>0.781</v>
       </c>
       <c r="G16" t="n">
-        <v>0.448</v>
+        <v>0.786</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1003626756651429</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="J16" t="n">
-        <v>23.639</v>
+        <v>21.161</v>
       </c>
       <c r="K16" t="n">
-        <v>21.153</v>
+        <v>15.603</v>
       </c>
       <c r="L16" t="n">
-        <v>19.53</v>
+        <v>12.527</v>
       </c>
       <c r="M16" t="n">
-        <v>19.839</v>
+        <v>12.357</v>
       </c>
       <c r="N16" t="n">
-        <v>21.04025</v>
+        <v>15.412</v>
       </c>
       <c r="O16" t="n">
-        <v>1.869943916271287</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLpolynomial_5</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -1249,47 +1249,47 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.354</v>
+        <v>0.408</v>
       </c>
       <c r="E17" t="n">
-        <v>0.509</v>
+        <v>0.665</v>
       </c>
       <c r="F17" t="n">
-        <v>0.541</v>
+        <v>0.766</v>
       </c>
       <c r="G17" t="n">
-        <v>0.545</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.48725</v>
+        <v>0.6617500000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09028242723070018</v>
+        <v>0.1794962859411489</v>
       </c>
       <c r="J17" t="n">
-        <v>21.952</v>
+        <v>21.019</v>
       </c>
       <c r="K17" t="n">
-        <v>19.691</v>
+        <v>16.263</v>
       </c>
       <c r="L17" t="n">
-        <v>18.141</v>
+        <v>12.945</v>
       </c>
       <c r="M17" t="n">
-        <v>18.015</v>
+        <v>11.709</v>
       </c>
       <c r="N17" t="n">
-        <v>19.44975</v>
+        <v>15.484</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83401115500061</v>
+        <v>4.160937875046922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLpolynomial_6</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -1298,47 +1298,47 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.367</v>
+        <v>0.442</v>
       </c>
       <c r="E18" t="n">
-        <v>0.524</v>
+        <v>0.648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.54</v>
+        <v>0.747</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.797</v>
       </c>
       <c r="H18" t="n">
-        <v>0.49725</v>
+        <v>0.6585000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.087937003966855</v>
+        <v>0.1570530695868969</v>
       </c>
       <c r="J18" t="n">
-        <v>21.725</v>
+        <v>20.411</v>
       </c>
       <c r="K18" t="n">
-        <v>19.38</v>
+        <v>16.666</v>
       </c>
       <c r="L18" t="n">
-        <v>18.162</v>
+        <v>13.457</v>
       </c>
       <c r="M18" t="n">
-        <v>17.752</v>
+        <v>12.032</v>
       </c>
       <c r="N18" t="n">
-        <v>19.25475</v>
+        <v>15.6415</v>
       </c>
       <c r="O18" t="n">
-        <v>1.786074163260493</v>
+        <v>3.723719511456254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLpolynomial_7</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1347,47 +1347,47 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.202</v>
+        <v>0.466</v>
       </c>
       <c r="E19" t="n">
-        <v>0.391</v>
+        <v>0.634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.456</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>0.495</v>
+        <v>0.779</v>
       </c>
       <c r="H19" t="n">
-        <v>0.386</v>
+        <v>0.65225</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1299512729192497</v>
+        <v>0.1380009057941287</v>
       </c>
       <c r="J19" t="n">
-        <v>24.4</v>
+        <v>19.963</v>
       </c>
       <c r="K19" t="n">
-        <v>21.925</v>
+        <v>17.008</v>
       </c>
       <c r="L19" t="n">
-        <v>19.754</v>
+        <v>13.909</v>
       </c>
       <c r="M19" t="n">
-        <v>18.979</v>
+        <v>12.556</v>
       </c>
       <c r="N19" t="n">
-        <v>21.2645</v>
+        <v>15.859</v>
       </c>
       <c r="O19" t="n">
-        <v>2.433977608771288</v>
+        <v>3.31035375753106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_2</t>
+          <t>WLpolynomial_8</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -1396,47 +1396,47 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.115</v>
+        <v>0.487</v>
       </c>
       <c r="E20" t="n">
-        <v>0.188</v>
+        <v>0.621</v>
       </c>
       <c r="F20" t="n">
-        <v>0.245</v>
+        <v>0.713</v>
       </c>
       <c r="G20" t="n">
-        <v>0.189</v>
+        <v>0.761</v>
       </c>
       <c r="H20" t="n">
-        <v>0.18425</v>
+        <v>0.6455000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05330025015576068</v>
+        <v>0.1205805401657608</v>
       </c>
       <c r="J20" t="n">
-        <v>25.702</v>
+        <v>19.569</v>
       </c>
       <c r="K20" t="n">
-        <v>25.325</v>
+        <v>17.298</v>
       </c>
       <c r="L20" t="n">
-        <v>23.269</v>
+        <v>14.341</v>
       </c>
       <c r="M20" t="n">
-        <v>24.049</v>
+        <v>13.055</v>
       </c>
       <c r="N20" t="n">
-        <v>24.58625</v>
+        <v>16.06575</v>
       </c>
       <c r="O20" t="n">
-        <v>1.127598443595947</v>
+        <v>2.934313022952164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_3</t>
+          <t>WLpolynomial_9</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -1445,47 +1445,47 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.207</v>
+        <v>0.501</v>
       </c>
       <c r="E21" t="n">
-        <v>0.295</v>
+        <v>0.609</v>
       </c>
       <c r="F21" t="n">
-        <v>0.363</v>
+        <v>0.696</v>
       </c>
       <c r="G21" t="n">
-        <v>0.313</v>
+        <v>0.744</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2945</v>
+        <v>0.6375</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06504101270224298</v>
+        <v>0.1067848303833461</v>
       </c>
       <c r="J21" t="n">
-        <v>24.326</v>
+        <v>19.296</v>
       </c>
       <c r="K21" t="n">
-        <v>23.585</v>
+        <v>17.562</v>
       </c>
       <c r="L21" t="n">
-        <v>21.378</v>
+        <v>14.758</v>
       </c>
       <c r="M21" t="n">
-        <v>22.133</v>
+        <v>13.512</v>
       </c>
       <c r="N21" t="n">
-        <v>22.8555</v>
+        <v>16.282</v>
       </c>
       <c r="O21" t="n">
-        <v>1.341585256329243</v>
+        <v>2.627931505956729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_4</t>
+          <t>WLrbf_10</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1494,47 +1494,47 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.242</v>
+        <v>-0.012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.342</v>
+        <v>0.01</v>
       </c>
       <c r="F22" t="n">
-        <v>0.397</v>
+        <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>0.358</v>
+        <v>-0.01</v>
       </c>
       <c r="H22" t="n">
-        <v>0.33475</v>
+        <v>-0.0005</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06600694407913964</v>
+        <v>0.01215181742237212</v>
       </c>
       <c r="J22" t="n">
-        <v>23.782</v>
+        <v>27.484</v>
       </c>
       <c r="K22" t="n">
-        <v>22.789</v>
+        <v>27.957</v>
       </c>
       <c r="L22" t="n">
-        <v>20.789</v>
+        <v>26.649</v>
       </c>
       <c r="M22" t="n">
-        <v>21.394</v>
+        <v>26.849</v>
       </c>
       <c r="N22" t="n">
-        <v>22.1885</v>
+        <v>27.23475</v>
       </c>
       <c r="O22" t="n">
-        <v>1.352734637687673</v>
+        <v>0.598797893004532</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_5</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1543,47 +1543,831 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.271</v>
+        <v>0.162</v>
       </c>
       <c r="E23" t="n">
-        <v>0.365</v>
+        <v>0.137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.422</v>
+        <v>0.146</v>
       </c>
       <c r="G23" t="n">
-        <v>0.382</v>
+        <v>0.104</v>
       </c>
       <c r="H23" t="n">
-        <v>0.36</v>
+        <v>0.13725</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06396353127629315</v>
+        <v>0.02445914961727002</v>
       </c>
       <c r="J23" t="n">
-        <v>23.326</v>
+        <v>25.004</v>
       </c>
       <c r="K23" t="n">
-        <v>22.386</v>
+        <v>26.102</v>
       </c>
       <c r="L23" t="n">
-        <v>20.355</v>
+        <v>24.744</v>
       </c>
       <c r="M23" t="n">
-        <v>20.996</v>
+        <v>25.278</v>
       </c>
       <c r="N23" t="n">
-        <v>21.76575</v>
+        <v>25.282</v>
       </c>
       <c r="O23" t="n">
-        <v>1.341866951924321</v>
+        <v>0.5885417005899696</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1322724461102916</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.935</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28.454</v>
+      </c>
+      <c r="L24" t="n">
+        <v>27.515</v>
+      </c>
+      <c r="M24" t="n">
+        <v>25.252</v>
+      </c>
+      <c r="N24" t="n">
+        <v>26.289</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.066154721537895</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.13325</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08371529131526689</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24.595</v>
+      </c>
+      <c r="K25" t="n">
+        <v>25.945</v>
+      </c>
+      <c r="L25" t="n">
+        <v>26.634</v>
+      </c>
+      <c r="M25" t="n">
+        <v>24.098</v>
+      </c>
+      <c r="N25" t="n">
+        <v>25.318</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.174182552530342</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.15525</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.009810708435174299</v>
+      </c>
+      <c r="J26" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24.589</v>
+      </c>
+      <c r="M26" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="N26" t="n">
+        <v>25.02375</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.619047857600687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_6</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03080043289739069</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.412</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26.288</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24.956</v>
+      </c>
+      <c r="M27" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>25.769</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.6989468267805972</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_7</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05875</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.02995969514753669</v>
+      </c>
+      <c r="J28" t="n">
+        <v>27.002</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26.906</v>
+      </c>
+      <c r="L28" t="n">
+        <v>25.625</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26.102</v>
+      </c>
+      <c r="N28" t="n">
+        <v>26.40875</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.660192585538492</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_8</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02825</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.02309942279221135</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27.261</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27.407</v>
+      </c>
+      <c r="L29" t="n">
+        <v>26.134</v>
+      </c>
+      <c r="M29" t="n">
+        <v>26.536</v>
+      </c>
+      <c r="N29" t="n">
+        <v>26.8345</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.6026223250649332</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_9</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01675310916417208</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27.382</v>
+      </c>
+      <c r="K30" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>26.467</v>
+      </c>
+      <c r="M30" t="n">
+        <v>26.783</v>
+      </c>
+      <c r="N30" t="n">
+        <v>27.0955</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.5782505224093336</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_10</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6082500000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.11794172289737</v>
+      </c>
+      <c r="J31" t="n">
+        <v>19.828</v>
+      </c>
+      <c r="K31" t="n">
+        <v>18.572</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15.888</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13.375</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16.91575</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.876197996777458</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1003626756651429</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23.639</v>
+      </c>
+      <c r="K32" t="n">
+        <v>21.153</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="M32" t="n">
+        <v>19.839</v>
+      </c>
+      <c r="N32" t="n">
+        <v>21.04025</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.869943916271287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.48725</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.09028242723070018</v>
+      </c>
+      <c r="J33" t="n">
+        <v>21.952</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19.691</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18.141</v>
+      </c>
+      <c r="M33" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="N33" t="n">
+        <v>19.44975</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.83401115500061</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.49725</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.087937003966855</v>
+      </c>
+      <c r="J34" t="n">
+        <v>21.725</v>
+      </c>
+      <c r="K34" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18.162</v>
+      </c>
+      <c r="M34" t="n">
+        <v>17.752</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19.25475</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.786074163260493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1299512729192497</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>21.925</v>
+      </c>
+      <c r="L35" t="n">
+        <v>19.754</v>
+      </c>
+      <c r="M35" t="n">
+        <v>18.979</v>
+      </c>
+      <c r="N35" t="n">
+        <v>21.2645</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.433977608771288</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_6</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5902499999999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1365561545055123</v>
+      </c>
+      <c r="J36" t="n">
+        <v>21.006</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18.581</v>
+      </c>
+      <c r="L36" t="n">
+        <v>15.212</v>
+      </c>
+      <c r="M36" t="n">
+        <v>14.325</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17.281</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.086763245429318</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_7</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1312732519086301</v>
+      </c>
+      <c r="J37" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="K37" t="n">
+        <v>17.616</v>
+      </c>
+      <c r="L37" t="n">
+        <v>14.796</v>
+      </c>
+      <c r="M37" t="n">
+        <v>14.138</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16.79375</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.966399880326319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_8</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.61875</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1258765930054777</v>
+      </c>
+      <c r="J38" t="n">
+        <v>20.372</v>
+      </c>
+      <c r="K38" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="L38" t="n">
+        <v>14.808</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13.995</v>
+      </c>
+      <c r="N38" t="n">
+        <v>16.66625</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.886740765985058</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_9</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.449</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.02049999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.532996873036481</v>
+      </c>
+      <c r="J39" t="n">
+        <v>25.296</v>
+      </c>
+      <c r="K39" t="n">
+        <v>32.441</v>
+      </c>
+      <c r="L39" t="n">
+        <v>32.229</v>
+      </c>
+      <c r="M39" t="n">
+        <v>14.083</v>
+      </c>
+      <c r="N39" t="n">
+        <v>26.01225</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8.617749643420066</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A4:A39"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1595,7 +2379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,7 +2494,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLlinear_10</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1719,41 +2503,41 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.439</v>
+        <v>0.574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.348</v>
+        <v>0.522</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469</v>
+        <v>0.5273333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1384593803250614</v>
+        <v>0.04424176006143214</v>
       </c>
       <c r="I4" t="n">
-        <v>15.349</v>
+        <v>17.858</v>
       </c>
       <c r="J4" t="n">
-        <v>19.955</v>
+        <v>17.381</v>
       </c>
       <c r="K4" t="n">
-        <v>21.389</v>
+        <v>18.319</v>
       </c>
       <c r="L4" t="n">
-        <v>18.89766666666667</v>
+        <v>17.85266666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>3.155766996046021</v>
+        <v>0.4690227428743011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1762,41 +2546,41 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.652</v>
+        <v>0.62</v>
       </c>
       <c r="E5" t="n">
-        <v>0.652</v>
+        <v>0.439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.673</v>
+        <v>0.348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6590000000000001</v>
+        <v>0.469</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01212435565298215</v>
+        <v>0.1384593803250614</v>
       </c>
       <c r="I5" t="n">
-        <v>14.693</v>
+        <v>15.349</v>
       </c>
       <c r="J5" t="n">
-        <v>15.707</v>
+        <v>19.955</v>
       </c>
       <c r="K5" t="n">
-        <v>15.16</v>
+        <v>21.389</v>
       </c>
       <c r="L5" t="n">
-        <v>15.18666666666667</v>
+        <v>18.89766666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5075256972147656</v>
+        <v>3.155766996046021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1805,41 +2589,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.654</v>
+        <v>0.652</v>
       </c>
       <c r="E6" t="n">
-        <v>0.661</v>
+        <v>0.652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.658</v>
+        <v>0.673</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6576666666666666</v>
+        <v>0.6590000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00351188458428425</v>
+        <v>0.01212435565298215</v>
       </c>
       <c r="I6" t="n">
-        <v>14.646</v>
+        <v>14.693</v>
       </c>
       <c r="J6" t="n">
-        <v>15.516</v>
+        <v>15.707</v>
       </c>
       <c r="K6" t="n">
-        <v>15.488</v>
+        <v>15.16</v>
       </c>
       <c r="L6" t="n">
-        <v>15.21666666666667</v>
+        <v>15.18666666666667</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4944100861970079</v>
+        <v>0.5075256972147656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1848,41 +2632,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>0.654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.707</v>
+        <v>0.661</v>
       </c>
       <c r="F7" t="n">
-        <v>0.614</v>
+        <v>0.658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6503333333333333</v>
+        <v>0.6576666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04972256362390551</v>
+        <v>0.00351188458428425</v>
       </c>
       <c r="I7" t="n">
-        <v>15.162</v>
+        <v>14.646</v>
       </c>
       <c r="J7" t="n">
-        <v>14.427</v>
+        <v>15.516</v>
       </c>
       <c r="K7" t="n">
-        <v>16.453</v>
+        <v>15.488</v>
       </c>
       <c r="L7" t="n">
-        <v>15.34733333333333</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>1.025636550310749</v>
+        <v>0.4944100861970079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_5</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1891,41 +2675,41 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.656</v>
+        <v>0.63</v>
       </c>
       <c r="E8" t="n">
-        <v>0.434</v>
+        <v>0.707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3923333333333334</v>
+        <v>0.6503333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2867792414616744</v>
+        <v>0.04972256362390551</v>
       </c>
       <c r="I8" t="n">
-        <v>14.605</v>
+        <v>15.162</v>
       </c>
       <c r="J8" t="n">
-        <v>20.039</v>
+        <v>14.427</v>
       </c>
       <c r="K8" t="n">
-        <v>25.317</v>
+        <v>16.453</v>
       </c>
       <c r="L8" t="n">
-        <v>19.987</v>
+        <v>15.34733333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>5.356189317042481</v>
+        <v>1.025636550310749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_6</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1934,41 +2718,41 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.652</v>
+        <v>0.591</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.655</v>
+        <v>0.588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6636666666666667</v>
+        <v>0.6236666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01767295485574876</v>
+        <v>0.05919740985324723</v>
       </c>
       <c r="I9" t="n">
-        <v>14.708</v>
+        <v>15.935</v>
       </c>
       <c r="J9" t="n">
-        <v>14.98</v>
+        <v>14.787</v>
       </c>
       <c r="K9" t="n">
-        <v>15.554</v>
+        <v>17.002</v>
       </c>
       <c r="L9" t="n">
-        <v>15.08066666666667</v>
+        <v>15.908</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4318904182004196</v>
+        <v>1.107746812227414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_7</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1977,41 +2761,41 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.653</v>
+        <v>0.555</v>
       </c>
       <c r="E10" t="n">
         <v>0.667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.638</v>
+        <v>0.572</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6526666666666667</v>
+        <v>0.598</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01450287327853807</v>
+        <v>0.06035726965329033</v>
       </c>
       <c r="I10" t="n">
-        <v>14.684</v>
+        <v>16.621</v>
       </c>
       <c r="J10" t="n">
-        <v>15.373</v>
+        <v>15.382</v>
       </c>
       <c r="K10" t="n">
-        <v>15.932</v>
+        <v>17.339</v>
       </c>
       <c r="L10" t="n">
-        <v>15.32966666666667</v>
+        <v>16.44733333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6251274536711166</v>
+        <v>0.9899910774008684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLlinear_8</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -2020,41 +2804,41 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.59</v>
+        <v>0.527</v>
       </c>
       <c r="E11" t="n">
-        <v>0.656</v>
+        <v>0.631</v>
       </c>
       <c r="F11" t="n">
-        <v>0.579</v>
+        <v>0.552</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.57</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04164532786920205</v>
+        <v>0.05428627819255984</v>
       </c>
       <c r="I11" t="n">
-        <v>15.945</v>
+        <v>17.136</v>
       </c>
       <c r="J11" t="n">
-        <v>15.623</v>
+        <v>16.173</v>
       </c>
       <c r="K11" t="n">
-        <v>17.187</v>
+        <v>17.734</v>
       </c>
       <c r="L11" t="n">
-        <v>16.25166666666667</v>
+        <v>17.01433333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8258676245823751</v>
+        <v>0.7875800488415994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLlinear_9</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -2063,41 +2847,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-2.025</v>
+        <v>0.505</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.106</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.23</v>
+        <v>0.536</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.120333333333333</v>
+        <v>0.547</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1032488902280956</v>
+        <v>0.04844584605515728</v>
       </c>
       <c r="I12" t="n">
-        <v>43.335</v>
+        <v>17.535</v>
       </c>
       <c r="J12" t="n">
-        <v>46.953</v>
+        <v>16.839</v>
       </c>
       <c r="K12" t="n">
-        <v>47.615</v>
+        <v>18.055</v>
       </c>
       <c r="L12" t="n">
-        <v>45.96766666666667</v>
+        <v>17.47633333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>2.30385792386018</v>
+        <v>0.6101191140534232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLpolynomial_10</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -2106,41 +2890,41 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.14</v>
+        <v>0.411</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.347</v>
+        <v>0.424</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.291</v>
+        <v>0.419</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2593333333333333</v>
+        <v>0.418</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1070716271163063</v>
+        <v>0.006557438524302007</v>
       </c>
       <c r="I13" t="n">
-        <v>26.6</v>
+        <v>19.122</v>
       </c>
       <c r="J13" t="n">
-        <v>30.916</v>
+        <v>20.222</v>
       </c>
       <c r="K13" t="n">
-        <v>30.109</v>
+        <v>20.187</v>
       </c>
       <c r="L13" t="n">
-        <v>29.20833333333333</v>
+        <v>19.84366666666667</v>
       </c>
       <c r="M13" t="n">
-        <v>2.294638170460287</v>
+        <v>0.6252266255793448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -2149,41 +2933,41 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.099</v>
+        <v>0.656</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25</v>
+        <v>0.434</v>
       </c>
       <c r="F14" t="n">
-        <v>0.176</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.109</v>
+        <v>0.3923333333333334</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1838939912014528</v>
+        <v>0.2867792414616744</v>
       </c>
       <c r="I14" t="n">
-        <v>26.125</v>
+        <v>14.605</v>
       </c>
       <c r="J14" t="n">
-        <v>23.071</v>
+        <v>20.039</v>
       </c>
       <c r="K14" t="n">
-        <v>24.053</v>
+        <v>25.317</v>
       </c>
       <c r="L14" t="n">
-        <v>24.41633333333333</v>
+        <v>19.987</v>
       </c>
       <c r="M14" t="n">
-        <v>1.559082208651401</v>
+        <v>5.356189317042481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2192,41 +2976,41 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.164</v>
+        <v>0.652</v>
       </c>
       <c r="E15" t="n">
-        <v>0.142</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.031</v>
+        <v>0.655</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1123333333333333</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07129048557369583</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="I15" t="n">
-        <v>22.778</v>
+        <v>14.708</v>
       </c>
       <c r="J15" t="n">
-        <v>24.679</v>
+        <v>14.98</v>
       </c>
       <c r="K15" t="n">
-        <v>26.076</v>
+        <v>15.554</v>
       </c>
       <c r="L15" t="n">
-        <v>24.511</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>1.655405992498518</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2235,41 +3019,41 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.334</v>
+        <v>0.653</v>
       </c>
       <c r="E16" t="n">
-        <v>0.468</v>
+        <v>0.667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.249</v>
+        <v>0.638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3503333333333334</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1104098425564195</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="I16" t="n">
-        <v>20.325</v>
+        <v>14.684</v>
       </c>
       <c r="J16" t="n">
-        <v>19.435</v>
+        <v>15.373</v>
       </c>
       <c r="K16" t="n">
-        <v>22.962</v>
+        <v>15.932</v>
       </c>
       <c r="L16" t="n">
-        <v>20.90733333333333</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>1.834193646628767</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLpolynomial_5</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2278,41 +3062,41 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="E17" t="n">
-        <v>0.522</v>
+        <v>0.656</v>
       </c>
       <c r="F17" t="n">
-        <v>0.381</v>
+        <v>0.579</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4476666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07081195755896977</v>
+        <v>0.04164532786920205</v>
       </c>
       <c r="I17" t="n">
-        <v>18.643</v>
+        <v>15.945</v>
       </c>
       <c r="J17" t="n">
-        <v>18.428</v>
+        <v>15.623</v>
       </c>
       <c r="K17" t="n">
-        <v>20.841</v>
+        <v>17.187</v>
       </c>
       <c r="L17" t="n">
-        <v>19.304</v>
+        <v>16.25166666666667</v>
       </c>
       <c r="M17" t="n">
-        <v>1.335414916795526</v>
+        <v>0.8258676245823751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLpolynomial_6</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2321,41 +3105,41 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.421</v>
+        <v>0.534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.486</v>
+        <v>0.609</v>
       </c>
       <c r="F18" t="n">
-        <v>0.357</v>
+        <v>0.538</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4213333333333333</v>
+        <v>0.5603333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06450064599159712</v>
+        <v>0.04219399641339193</v>
       </c>
       <c r="I18" t="n">
-        <v>18.955</v>
+        <v>17.011</v>
       </c>
       <c r="J18" t="n">
-        <v>19.091</v>
+        <v>16.663</v>
       </c>
       <c r="K18" t="n">
-        <v>21.254</v>
+        <v>18.015</v>
       </c>
       <c r="L18" t="n">
-        <v>19.76666666666667</v>
+        <v>17.22966666666666</v>
       </c>
       <c r="M18" t="n">
-        <v>1.289862137336133</v>
+        <v>0.7020237412889494</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLpolynomial_7</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -2364,41 +3148,41 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.509</v>
+        <v>0.499</v>
       </c>
       <c r="E19" t="n">
-        <v>0.416</v>
+        <v>0.548</v>
       </c>
       <c r="F19" t="n">
-        <v>0.304</v>
+        <v>0.503</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4096666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1026466430689934</v>
+        <v>0.02720906711619005</v>
       </c>
       <c r="I19" t="n">
-        <v>17.461</v>
+        <v>17.64</v>
       </c>
       <c r="J19" t="n">
-        <v>20.361</v>
+        <v>17.903</v>
       </c>
       <c r="K19" t="n">
-        <v>22.098</v>
+        <v>18.682</v>
       </c>
       <c r="L19" t="n">
-        <v>19.97333333333333</v>
+        <v>18.075</v>
       </c>
       <c r="M19" t="n">
-        <v>2.342681440856468</v>
+        <v>0.5418754469432981</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_2</t>
+          <t>WLpolynomial_8</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2407,41 +3191,41 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.097</v>
+        <v>0.464</v>
       </c>
       <c r="E20" t="n">
-        <v>0.227</v>
+        <v>0.499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.473</v>
       </c>
       <c r="G20" t="n">
-        <v>0.131</v>
+        <v>0.4786666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08430895563343198</v>
+        <v>0.01817507450695411</v>
       </c>
       <c r="I20" t="n">
-        <v>23.681</v>
+        <v>18.235</v>
       </c>
       <c r="J20" t="n">
-        <v>23.429</v>
+        <v>18.86</v>
       </c>
       <c r="K20" t="n">
-        <v>25.572</v>
+        <v>19.243</v>
       </c>
       <c r="L20" t="n">
-        <v>24.22733333333333</v>
+        <v>18.77933333333333</v>
       </c>
       <c r="M20" t="n">
-        <v>1.171312227091194</v>
+        <v>0.5088185662231017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_3</t>
+          <t>WLpolynomial_9</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -2450,41 +3234,41 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.213</v>
+        <v>0.436</v>
       </c>
       <c r="E21" t="n">
-        <v>0.299</v>
+        <v>0.458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.158</v>
+        <v>0.445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2233333333333333</v>
+        <v>0.4463333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07106569730420811</v>
+        <v>0.01106044001535805</v>
       </c>
       <c r="I21" t="n">
-        <v>22.102</v>
+        <v>18.715</v>
       </c>
       <c r="J21" t="n">
-        <v>22.312</v>
+        <v>19.609</v>
       </c>
       <c r="K21" t="n">
-        <v>24.309</v>
+        <v>19.736</v>
       </c>
       <c r="L21" t="n">
-        <v>22.90766666666667</v>
+        <v>19.35333333333334</v>
       </c>
       <c r="M21" t="n">
-        <v>1.218124104241162</v>
+        <v>0.5564479610290024</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_4</t>
+          <t>WLrbf_10</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2493,41 +3277,41 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.245</v>
+        <v>-0.004</v>
       </c>
       <c r="E22" t="n">
-        <v>0.303</v>
+        <v>0.004</v>
       </c>
       <c r="F22" t="n">
-        <v>0.168</v>
+        <v>-0.005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2386666666666667</v>
+        <v>-0.001666666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06772247288259144</v>
+        <v>0.004932882862316247</v>
       </c>
       <c r="I22" t="n">
-        <v>21.654</v>
+        <v>24.963</v>
       </c>
       <c r="J22" t="n">
-        <v>22.235</v>
+        <v>26.586</v>
       </c>
       <c r="K22" t="n">
-        <v>24.172</v>
+        <v>26.563</v>
       </c>
       <c r="L22" t="n">
-        <v>22.687</v>
+        <v>26.03733333333333</v>
       </c>
       <c r="M22" t="n">
-        <v>1.318449468125344</v>
+        <v>0.9304710276700349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_5</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -2536,41 +3320,729 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04303486958270002</v>
+      </c>
+      <c r="I23" t="n">
+        <v>22.922</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.223</v>
+      </c>
+      <c r="K23" t="n">
+        <v>23.699</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23.28133333333333</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3917707663077145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1996666666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04416257842714048</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22.004</v>
+      </c>
+      <c r="J24" t="n">
+        <v>23.383</v>
+      </c>
+      <c r="K24" t="n">
+        <v>24.444</v>
+      </c>
+      <c r="L24" t="n">
+        <v>23.277</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.223448813804647</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1753333333333333</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05451910979953115</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23.407</v>
+      </c>
+      <c r="J25" t="n">
+        <v>23.456</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23.939</v>
+      </c>
+      <c r="L25" t="n">
+        <v>23.60066666666667</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2940277764656486</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.08061637550770935</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.329</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24.095</v>
+      </c>
+      <c r="K26" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="L26" t="n">
+        <v>24.09466666666667</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2345001776829468</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_6</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1036666666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08947252837230729</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24.904</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24.633</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24.207</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24.58133333333333</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3513606883721242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_7</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05758472019555187</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25.405</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.064</v>
+      </c>
+      <c r="L28" t="n">
+        <v>25.133</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2449020212248163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_8</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24.911</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26.048</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.882</v>
+      </c>
+      <c r="L29" t="n">
+        <v>25.61366666666667</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6141614879926387</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_9</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.007666666666666666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.009504384952922171</v>
+      </c>
+      <c r="I30" t="n">
+        <v>24.937</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26.417</v>
+      </c>
+      <c r="K30" t="n">
+        <v>26.383</v>
+      </c>
+      <c r="L30" t="n">
+        <v>25.91233333333333</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8448345005581464</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_10</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4163333333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0285715476187996</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.542</v>
+      </c>
+      <c r="J31" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20.707</v>
+      </c>
+      <c r="L31" t="n">
+        <v>19.883</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.17144056614068</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.249</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.178</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.06364746656387826</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21.586</v>
-      </c>
-      <c r="J23" t="n">
-        <v>22.217</v>
-      </c>
-      <c r="K23" t="n">
-        <v>24.02</v>
-      </c>
-      <c r="L23" t="n">
-        <v>22.60766666666666</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.26315253763484</v>
+      <c r="G32" t="n">
+        <v>0.3503333333333334</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1104098425564195</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20.325</v>
+      </c>
+      <c r="J32" t="n">
+        <v>19.435</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22.962</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20.90733333333333</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.834193646628767</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4476666666666667</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07081195755896977</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18.643</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.428</v>
+      </c>
+      <c r="K33" t="n">
+        <v>20.841</v>
+      </c>
+      <c r="L33" t="n">
+        <v>19.304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.335414916795526</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.4213333333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.06450064599159712</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18.955</v>
+      </c>
+      <c r="J34" t="n">
+        <v>19.091</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21.254</v>
+      </c>
+      <c r="L34" t="n">
+        <v>19.76666666666667</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.289862137336133</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.4096666666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1026466430689934</v>
+      </c>
+      <c r="I35" t="n">
+        <v>17.461</v>
+      </c>
+      <c r="J35" t="n">
+        <v>20.361</v>
+      </c>
+      <c r="K35" t="n">
+        <v>22.098</v>
+      </c>
+      <c r="L35" t="n">
+        <v>19.97333333333333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.342681440856468</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_6</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02291287847477922</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17.212</v>
+      </c>
+      <c r="J36" t="n">
+        <v>17.815</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18.593</v>
+      </c>
+      <c r="L36" t="n">
+        <v>17.87333333333333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6923455303050157</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_7</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5196666666666666</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04082074635933708</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17.545</v>
+      </c>
+      <c r="J37" t="n">
+        <v>17.547</v>
+      </c>
+      <c r="K37" t="n">
+        <v>18.937</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18.00966666666667</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8030948470344791</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_8</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.04073082370883264</v>
+      </c>
+      <c r="I38" t="n">
+        <v>17.933</v>
+      </c>
+      <c r="J38" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="K38" t="n">
+        <v>19.127</v>
+      </c>
+      <c r="L38" t="n">
+        <v>18.30333333333333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7145224512451179</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_9</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.958</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.705</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.4349999999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6983115350615369</v>
+      </c>
+      <c r="I39" t="n">
+        <v>19.959</v>
+      </c>
+      <c r="J39" t="n">
+        <v>37.274</v>
+      </c>
+      <c r="K39" t="n">
+        <v>34.595</v>
+      </c>
+      <c r="L39" t="n">
+        <v>30.60933333333334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9.320217826495975</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A4:A39"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,40 +612,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.399</v>
+        <v>0.434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.483</v>
+        <v>0.569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705</v>
+        <v>0.68</v>
       </c>
       <c r="G4" t="n">
-        <v>0.657</v>
+        <v>0.675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5609999999999999</v>
+        <v>0.5894999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.144083309234623</v>
+        <v>0.1156157428726729</v>
       </c>
       <c r="J4" t="n">
-        <v>21.182</v>
+        <v>20.549</v>
       </c>
       <c r="K4" t="n">
-        <v>20.192</v>
+        <v>18.449</v>
       </c>
       <c r="L4" t="n">
-        <v>14.543</v>
+        <v>15.153</v>
       </c>
       <c r="M4" t="n">
-        <v>15.642</v>
+        <v>15.229</v>
       </c>
       <c r="N4" t="n">
-        <v>17.88975</v>
+        <v>17.345</v>
       </c>
       <c r="O4" t="n">
-        <v>3.285948911653984</v>
+        <v>2.631017040360375</v>
       </c>
     </row>
     <row r="5">
@@ -661,40 +661,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.434</v>
+        <v>0.397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.569</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.68</v>
+        <v>0.763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.675</v>
+        <v>0.764</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5894999999999999</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1156157428726729</v>
+        <v>0.1742077304063552</v>
       </c>
       <c r="J5" t="n">
-        <v>20.549</v>
+        <v>21.211</v>
       </c>
       <c r="K5" t="n">
-        <v>18.449</v>
+        <v>15.755</v>
       </c>
       <c r="L5" t="n">
-        <v>15.153</v>
+        <v>13.048</v>
       </c>
       <c r="M5" t="n">
-        <v>15.229</v>
+        <v>12.968</v>
       </c>
       <c r="N5" t="n">
-        <v>17.345</v>
+        <v>15.7455</v>
       </c>
       <c r="O5" t="n">
-        <v>2.631017040360375</v>
+        <v>3.867074389423266</v>
       </c>
     </row>
     <row r="6">
@@ -710,40 +710,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.397</v>
+        <v>0.408</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.763</v>
+        <v>0.782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.764</v>
+        <v>0.802</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6525000000000001</v>
+        <v>0.66925</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1742077304063552</v>
+        <v>0.1815073460405024</v>
       </c>
       <c r="J6" t="n">
-        <v>21.211</v>
+        <v>21.009</v>
       </c>
       <c r="K6" t="n">
-        <v>15.755</v>
+        <v>15.781</v>
       </c>
       <c r="L6" t="n">
-        <v>13.048</v>
+        <v>12.503</v>
       </c>
       <c r="M6" t="n">
-        <v>12.968</v>
+        <v>11.887</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7455</v>
+        <v>15.295</v>
       </c>
       <c r="O6" t="n">
-        <v>3.867074389423266</v>
+        <v>4.175153490192506</v>
       </c>
     </row>
     <row r="7">
@@ -759,40 +759,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.408</v>
+        <v>0.42</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="F7" t="n">
-        <v>0.782</v>
+        <v>0.775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.802</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.66925</v>
+        <v>0.6705000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1815073460405024</v>
+        <v>0.1757355968493578</v>
       </c>
       <c r="J7" t="n">
-        <v>21.009</v>
+        <v>20.804</v>
       </c>
       <c r="K7" t="n">
-        <v>15.781</v>
+        <v>15.927</v>
       </c>
       <c r="L7" t="n">
-        <v>12.503</v>
+        <v>12.689</v>
       </c>
       <c r="M7" t="n">
-        <v>11.887</v>
+        <v>11.689</v>
       </c>
       <c r="N7" t="n">
-        <v>15.295</v>
+        <v>15.27725</v>
       </c>
       <c r="O7" t="n">
-        <v>4.175153490192506</v>
+        <v>4.10453881899863</v>
       </c>
     </row>
     <row r="8">
@@ -808,40 +808,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.433</v>
+        <v>0.449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.222</v>
+        <v>0.676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.743</v>
+        <v>0.759</v>
       </c>
       <c r="G8" t="n">
-        <v>0.595</v>
+        <v>0.729</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49825</v>
+        <v>0.65325</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2234835937304273</v>
+        <v>0.1404240601416533</v>
       </c>
       <c r="J8" t="n">
-        <v>20.567</v>
+        <v>20.284</v>
       </c>
       <c r="K8" t="n">
-        <v>24.774</v>
+        <v>15.991</v>
       </c>
       <c r="L8" t="n">
-        <v>13.587</v>
+        <v>13.152</v>
       </c>
       <c r="M8" t="n">
-        <v>16.995</v>
+        <v>13.911</v>
       </c>
       <c r="N8" t="n">
-        <v>18.98075</v>
+        <v>15.8345</v>
       </c>
       <c r="O8" t="n">
-        <v>4.799780437686708</v>
+        <v>3.199906300711528</v>
       </c>
     </row>
     <row r="9">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.446</v>
+        <v>0.406</v>
       </c>
       <c r="E9" t="n">
-        <v>0.665</v>
+        <v>0.676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.724</v>
+        <v>0.766</v>
       </c>
       <c r="G9" t="n">
-        <v>0.732</v>
+        <v>0.794</v>
       </c>
       <c r="H9" t="n">
-        <v>0.64175</v>
+        <v>0.6605000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1338764978129719</v>
+        <v>0.1769773996870787</v>
       </c>
       <c r="J9" t="n">
-        <v>20.332</v>
+        <v>21.056</v>
       </c>
       <c r="K9" t="n">
-        <v>16.254</v>
+        <v>15.985</v>
       </c>
       <c r="L9" t="n">
-        <v>14.07</v>
+        <v>12.956</v>
       </c>
       <c r="M9" t="n">
-        <v>13.83</v>
+        <v>12.127</v>
       </c>
       <c r="N9" t="n">
-        <v>16.1215</v>
+        <v>15.531</v>
       </c>
       <c r="O9" t="n">
-        <v>3.011394527457337</v>
+        <v>4.039372145932253</v>
       </c>
     </row>
     <row r="10">
@@ -906,40 +906,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>0.429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.781</v>
+        <v>0.734</v>
       </c>
       <c r="G10" t="n">
         <v>0.786</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6647500000000001</v>
+        <v>0.64625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1817055768727715</v>
+        <v>0.1576205887566723</v>
       </c>
       <c r="J10" t="n">
-        <v>21.161</v>
+        <v>20.636</v>
       </c>
       <c r="K10" t="n">
-        <v>15.603</v>
+        <v>16.944</v>
       </c>
       <c r="L10" t="n">
-        <v>12.527</v>
+        <v>13.822</v>
       </c>
       <c r="M10" t="n">
-        <v>12.357</v>
+        <v>12.342</v>
       </c>
       <c r="N10" t="n">
-        <v>15.412</v>
+        <v>15.936</v>
       </c>
       <c r="O10" t="n">
-        <v>4.112733559730479</v>
+        <v>3.673866990878503</v>
       </c>
     </row>
     <row r="11">
@@ -955,439 +955,47 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.408</v>
+        <v>0.451</v>
       </c>
       <c r="E11" t="n">
-        <v>0.665</v>
+        <v>0.608</v>
       </c>
       <c r="F11" t="n">
-        <v>0.766</v>
+        <v>0.698</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.756</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6617500000000001</v>
+        <v>0.62825</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1794962859411489</v>
+        <v>0.132932000160483</v>
       </c>
       <c r="J11" t="n">
-        <v>21.019</v>
+        <v>20.233</v>
       </c>
       <c r="K11" t="n">
-        <v>16.263</v>
+        <v>17.589</v>
       </c>
       <c r="L11" t="n">
-        <v>12.945</v>
+        <v>14.724</v>
       </c>
       <c r="M11" t="n">
-        <v>11.709</v>
+        <v>13.181</v>
       </c>
       <c r="N11" t="n">
-        <v>15.484</v>
+        <v>16.43175</v>
       </c>
       <c r="O11" t="n">
-        <v>4.160937875046922</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_2</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.13725</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.02445914961727002</v>
-      </c>
-      <c r="J12" t="n">
-        <v>25.004</v>
-      </c>
-      <c r="K12" t="n">
-        <v>26.102</v>
-      </c>
-      <c r="L12" t="n">
-        <v>24.744</v>
-      </c>
-      <c r="M12" t="n">
-        <v>25.278</v>
-      </c>
-      <c r="N12" t="n">
-        <v>25.282</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.5885417005899696</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_3</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.056</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1322724461102916</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23.935</v>
-      </c>
-      <c r="K13" t="n">
-        <v>28.454</v>
-      </c>
-      <c r="L13" t="n">
-        <v>27.515</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.252</v>
-      </c>
-      <c r="N13" t="n">
-        <v>26.289</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.066154721537895</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_4</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.13325</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.08371529131526689</v>
-      </c>
-      <c r="J14" t="n">
-        <v>24.595</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25.945</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26.634</v>
-      </c>
-      <c r="M14" t="n">
-        <v>24.098</v>
-      </c>
-      <c r="N14" t="n">
-        <v>25.318</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.174182552530342</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_5</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.15525</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009810708435174299</v>
-      </c>
-      <c r="J15" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>24.589</v>
-      </c>
-      <c r="M15" t="n">
-        <v>24.436</v>
-      </c>
-      <c r="N15" t="n">
-        <v>25.02375</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.619047857600687</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.113</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.04575</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.04861669809163651</v>
-      </c>
-      <c r="J16" t="n">
-        <v>27.329</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.408</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27.396</v>
-      </c>
-      <c r="M16" t="n">
-        <v>28.174</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27.82675</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.5452017210782323</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.113</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.04575</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.04861669809163651</v>
-      </c>
-      <c r="J17" t="n">
-        <v>27.329</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28.408</v>
-      </c>
-      <c r="L17" t="n">
-        <v>27.396</v>
-      </c>
-      <c r="M17" t="n">
-        <v>28.174</v>
-      </c>
-      <c r="N17" t="n">
-        <v>27.82675</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.5452017210782323</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.113</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.04575</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.04861669809163651</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27.329</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.408</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.396</v>
-      </c>
-      <c r="M18" t="n">
-        <v>28.174</v>
-      </c>
-      <c r="N18" t="n">
-        <v>27.82675</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.5452017210782323</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.047</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.113</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.04575</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.04861669809163651</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27.329</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28.408</v>
-      </c>
-      <c r="L19" t="n">
-        <v>27.396</v>
-      </c>
-      <c r="M19" t="n">
-        <v>28.174</v>
-      </c>
-      <c r="N19" t="n">
-        <v>27.82675</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.5452017210782323</v>
+        <v>3.123700516481481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1399,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,34 +1131,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.439</v>
+        <v>0.652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.348</v>
+        <v>0.673</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469</v>
+        <v>0.6590000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1384593803250614</v>
+        <v>0.01212435565298215</v>
       </c>
       <c r="I4" t="n">
-        <v>15.349</v>
+        <v>14.693</v>
       </c>
       <c r="J4" t="n">
-        <v>19.955</v>
+        <v>15.707</v>
       </c>
       <c r="K4" t="n">
-        <v>21.389</v>
+        <v>15.16</v>
       </c>
       <c r="L4" t="n">
-        <v>18.89766666666667</v>
+        <v>15.18666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>3.155766996046021</v>
+        <v>0.5075256972147656</v>
       </c>
     </row>
     <row r="5">
@@ -1566,34 +1174,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.652</v>
+        <v>0.661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.673</v>
+        <v>0.658</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6590000000000001</v>
+        <v>0.6576666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01212435565298215</v>
+        <v>0.00351188458428425</v>
       </c>
       <c r="I5" t="n">
-        <v>14.693</v>
+        <v>14.646</v>
       </c>
       <c r="J5" t="n">
-        <v>15.707</v>
+        <v>15.516</v>
       </c>
       <c r="K5" t="n">
-        <v>15.16</v>
+        <v>15.488</v>
       </c>
       <c r="L5" t="n">
-        <v>15.18666666666667</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5075256972147656</v>
+        <v>0.4944100861970079</v>
       </c>
     </row>
     <row r="6">
@@ -1609,34 +1217,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.654</v>
+        <v>0.63</v>
       </c>
       <c r="E6" t="n">
-        <v>0.661</v>
+        <v>0.707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.658</v>
+        <v>0.614</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6576666666666666</v>
+        <v>0.6503333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00351188458428425</v>
+        <v>0.04972256362390551</v>
       </c>
       <c r="I6" t="n">
-        <v>14.646</v>
+        <v>15.162</v>
       </c>
       <c r="J6" t="n">
-        <v>15.516</v>
+        <v>14.427</v>
       </c>
       <c r="K6" t="n">
-        <v>15.488</v>
+        <v>16.453</v>
       </c>
       <c r="L6" t="n">
-        <v>15.21666666666667</v>
+        <v>15.34733333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4944100861970079</v>
+        <v>1.025636550310749</v>
       </c>
     </row>
     <row r="7">
@@ -1652,34 +1260,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.63</v>
+        <v>0.591</v>
       </c>
       <c r="E7" t="n">
-        <v>0.707</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.614</v>
+        <v>0.588</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6503333333333333</v>
+        <v>0.6236666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04972256362390551</v>
+        <v>0.05919740985324723</v>
       </c>
       <c r="I7" t="n">
-        <v>15.162</v>
+        <v>15.935</v>
       </c>
       <c r="J7" t="n">
-        <v>14.427</v>
+        <v>14.787</v>
       </c>
       <c r="K7" t="n">
-        <v>16.453</v>
+        <v>17.002</v>
       </c>
       <c r="L7" t="n">
-        <v>15.34733333333333</v>
+        <v>15.908</v>
       </c>
       <c r="M7" t="n">
-        <v>1.025636550310749</v>
+        <v>1.107746812227414</v>
       </c>
     </row>
     <row r="8">
@@ -1695,34 +1303,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.656</v>
+        <v>0.665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.434</v>
+        <v>0.707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3923333333333334</v>
+        <v>0.6796666666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2867792414616744</v>
+        <v>0.02369247419188911</v>
       </c>
       <c r="I8" t="n">
-        <v>14.605</v>
+        <v>14.424</v>
       </c>
       <c r="J8" t="n">
-        <v>20.039</v>
+        <v>14.419</v>
       </c>
       <c r="K8" t="n">
-        <v>25.317</v>
+        <v>15.282</v>
       </c>
       <c r="L8" t="n">
-        <v>19.987</v>
+        <v>14.70833333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>5.356189317042481</v>
+        <v>0.4968161967300717</v>
       </c>
     </row>
     <row r="9">
@@ -1738,34 +1346,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.652</v>
+        <v>0.617</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.655</v>
+        <v>0.599</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6636666666666667</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01767295485574876</v>
+        <v>0.03078960863668133</v>
       </c>
       <c r="I9" t="n">
-        <v>14.708</v>
+        <v>15.417</v>
       </c>
       <c r="J9" t="n">
-        <v>14.98</v>
+        <v>15.554</v>
       </c>
       <c r="K9" t="n">
-        <v>15.554</v>
+        <v>16.778</v>
       </c>
       <c r="L9" t="n">
-        <v>15.08066666666667</v>
+        <v>15.91633333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4318904182004196</v>
+        <v>0.7493626180517228</v>
       </c>
     </row>
     <row r="10">
@@ -1781,34 +1389,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.653</v>
+        <v>0.544</v>
       </c>
       <c r="E10" t="n">
-        <v>0.667</v>
+        <v>0.58</v>
       </c>
       <c r="F10" t="n">
-        <v>0.638</v>
+        <v>0.524</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6526666666666667</v>
+        <v>0.5493333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01450287327853807</v>
+        <v>0.02837839553839032</v>
       </c>
       <c r="I10" t="n">
-        <v>14.684</v>
+        <v>16.821</v>
       </c>
       <c r="J10" t="n">
-        <v>15.373</v>
+        <v>17.275</v>
       </c>
       <c r="K10" t="n">
-        <v>15.932</v>
+        <v>18.279</v>
       </c>
       <c r="L10" t="n">
-        <v>15.32966666666667</v>
+        <v>17.45833333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6251274536711166</v>
+        <v>0.7460893601528791</v>
       </c>
     </row>
     <row r="11">
@@ -1824,385 +1432,41 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.59</v>
+        <v>0.474</v>
       </c>
       <c r="E11" t="n">
-        <v>0.656</v>
+        <v>0.493</v>
       </c>
       <c r="F11" t="n">
-        <v>0.579</v>
+        <v>0.463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.4766666666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04164532786920205</v>
+        <v>0.01517673658377627</v>
       </c>
       <c r="I11" t="n">
-        <v>15.945</v>
+        <v>18.062</v>
       </c>
       <c r="J11" t="n">
-        <v>15.623</v>
+        <v>18.964</v>
       </c>
       <c r="K11" t="n">
-        <v>17.187</v>
+        <v>19.421</v>
       </c>
       <c r="L11" t="n">
-        <v>16.25166666666667</v>
+        <v>18.81566666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8258676245823751</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_2</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.04303486958270002</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22.922</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23.223</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23.699</v>
-      </c>
-      <c r="L12" t="n">
-        <v>23.28133333333333</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3917707663077145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_3</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1996666666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.04416257842714048</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22.004</v>
-      </c>
-      <c r="J13" t="n">
-        <v>23.383</v>
-      </c>
-      <c r="K13" t="n">
-        <v>24.444</v>
-      </c>
-      <c r="L13" t="n">
-        <v>23.277</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.223448813804647</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_4</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1753333333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.05451910979953115</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23.407</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23.456</v>
-      </c>
-      <c r="K14" t="n">
-        <v>23.939</v>
-      </c>
-      <c r="L14" t="n">
-        <v>23.60066666666667</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.2940277764656486</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>WLrbf_5</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.08061637550770935</v>
-      </c>
-      <c r="I15" t="n">
-        <v>24.329</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24.095</v>
-      </c>
-      <c r="K15" t="n">
-        <v>23.86</v>
-      </c>
-      <c r="L15" t="n">
-        <v>24.09466666666667</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2345001776829468</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.109</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.04853864439804639</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25.196</v>
-      </c>
-      <c r="J16" t="n">
-        <v>27.002</v>
-      </c>
-      <c r="K16" t="n">
-        <v>27.907</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.70166666666667</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.380228362747749</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.109</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.04853864439804639</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25.196</v>
-      </c>
-      <c r="J17" t="n">
-        <v>27.002</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27.907</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26.70166666666667</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.380228362747749</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.109</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.04853864439804639</v>
-      </c>
-      <c r="I18" t="n">
-        <v>25.196</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27.002</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.907</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.70166666666667</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.380228362747749</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.109</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.053</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.04853864439804639</v>
-      </c>
-      <c r="I19" t="n">
-        <v>25.196</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27.002</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.907</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26.70166666666667</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.380228362747749</v>
+        <v>0.6915362125972376</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A19"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,40 +808,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.449</v>
+        <v>0.384</v>
       </c>
       <c r="E8" t="n">
-        <v>0.676</v>
+        <v>0.659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="G8" t="n">
-        <v>0.729</v>
+        <v>0.739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.65325</v>
+        <v>0.6355000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1404240601416533</v>
+        <v>0.1732214382421144</v>
       </c>
       <c r="J8" t="n">
-        <v>20.284</v>
+        <v>21.448</v>
       </c>
       <c r="K8" t="n">
-        <v>15.991</v>
+        <v>16.4</v>
       </c>
       <c r="L8" t="n">
-        <v>13.152</v>
+        <v>13.123</v>
       </c>
       <c r="M8" t="n">
-        <v>13.911</v>
+        <v>13.645</v>
       </c>
       <c r="N8" t="n">
-        <v>15.8345</v>
+        <v>16.154</v>
       </c>
       <c r="O8" t="n">
-        <v>3.199906300711528</v>
+        <v>3.810905141826546</v>
       </c>
     </row>
     <row r="9">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.406</v>
+        <v>0.424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.676</v>
+        <v>0.624</v>
       </c>
       <c r="F9" t="n">
-        <v>0.766</v>
+        <v>0.704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.794</v>
+        <v>0.764</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6605000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1769773996870787</v>
+        <v>0.1482115605027714</v>
       </c>
       <c r="J9" t="n">
-        <v>21.056</v>
+        <v>20.734</v>
       </c>
       <c r="K9" t="n">
-        <v>15.985</v>
+        <v>17.221</v>
       </c>
       <c r="L9" t="n">
-        <v>12.956</v>
+        <v>14.563</v>
       </c>
       <c r="M9" t="n">
-        <v>12.127</v>
+        <v>12.98</v>
       </c>
       <c r="N9" t="n">
-        <v>15.531</v>
+        <v>16.3745</v>
       </c>
       <c r="O9" t="n">
-        <v>4.039372145932253</v>
+        <v>3.392440861680569</v>
       </c>
     </row>
     <row r="10">
@@ -906,40 +906,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.429</v>
+        <v>0.433</v>
       </c>
       <c r="E10" t="n">
-        <v>0.636</v>
+        <v>0.556</v>
       </c>
       <c r="F10" t="n">
-        <v>0.734</v>
+        <v>0.616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.786</v>
+        <v>0.696</v>
       </c>
       <c r="H10" t="n">
-        <v>0.64625</v>
+        <v>0.57525</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1576205887566723</v>
+        <v>0.1108253129930162</v>
       </c>
       <c r="J10" t="n">
-        <v>20.636</v>
+        <v>20.572</v>
       </c>
       <c r="K10" t="n">
-        <v>16.944</v>
+        <v>18.723</v>
       </c>
       <c r="L10" t="n">
-        <v>13.822</v>
+        <v>16.592</v>
       </c>
       <c r="M10" t="n">
-        <v>12.342</v>
+        <v>14.72</v>
       </c>
       <c r="N10" t="n">
-        <v>15.936</v>
+        <v>17.65175</v>
       </c>
       <c r="O10" t="n">
-        <v>3.673866990878503</v>
+        <v>2.542548901529067</v>
       </c>
     </row>
     <row r="11">
@@ -955,47 +955,831 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.451</v>
+        <v>0.433</v>
       </c>
       <c r="E11" t="n">
-        <v>0.608</v>
+        <v>0.497</v>
       </c>
       <c r="F11" t="n">
-        <v>0.698</v>
+        <v>0.523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.756</v>
+        <v>0.602</v>
       </c>
       <c r="H11" t="n">
-        <v>0.62825</v>
+        <v>0.5137499999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.132932000160483</v>
+        <v>0.06993985511375708</v>
       </c>
       <c r="J11" t="n">
-        <v>20.233</v>
+        <v>20.562</v>
       </c>
       <c r="K11" t="n">
-        <v>17.589</v>
+        <v>19.93</v>
       </c>
       <c r="L11" t="n">
-        <v>14.724</v>
+        <v>18.497</v>
       </c>
       <c r="M11" t="n">
-        <v>13.181</v>
+        <v>16.844</v>
       </c>
       <c r="N11" t="n">
-        <v>16.43175</v>
+        <v>18.95825</v>
       </c>
       <c r="O11" t="n">
-        <v>3.123700516481481</v>
+        <v>1.653190526426602</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3515</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1040464639796407</v>
+      </c>
+      <c r="J12" t="n">
+        <v>24.481</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.988</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20.777</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.286</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21.883</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.873879576351337</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.106201067163502</v>
+      </c>
+      <c r="J13" t="n">
+        <v>24.635</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.217</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20.833</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.353</v>
+      </c>
+      <c r="N13" t="n">
+        <v>22.0095</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.920455761878762</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.40325</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1054367899106695</v>
+      </c>
+      <c r="J14" t="n">
+        <v>23.687</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.222</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19.722</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19.299</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20.9825</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.982818952905182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4702499999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.100748449119577</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19.984</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18.646</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17.934</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19.7585</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.997459970395735</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5467500000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1203394504447038</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.564</v>
+      </c>
+      <c r="K16" t="n">
+        <v>18.911</v>
+      </c>
+      <c r="L16" t="n">
+        <v>16.498</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15.966</v>
+      </c>
+      <c r="N16" t="n">
+        <v>18.23475</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.562859519495102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1592210203878035</v>
+      </c>
+      <c r="J17" t="n">
+        <v>21.113</v>
+      </c>
+      <c r="K17" t="n">
+        <v>16.911</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14.056</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13.216</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.324</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.562891054560421</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6635</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1686940030548409</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20.808</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.822</v>
+      </c>
+      <c r="L18" t="n">
+        <v>13.173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.144</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.48675</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.871068360285052</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6667500000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1765453199606266</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20.931</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.748</v>
+      </c>
+      <c r="L19" t="n">
+        <v>13.159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11.688</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15.3815</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.062541117740635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1176435293588219</v>
+      </c>
+      <c r="J20" t="n">
+        <v>21.785</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19.211</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17.031</v>
+      </c>
+      <c r="M20" t="n">
+        <v>16.291</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18.5795</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.470432283359871</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.57025</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1216233941312279</v>
+      </c>
+      <c r="J21" t="n">
+        <v>21.229</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.239</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16.026</v>
+      </c>
+      <c r="M21" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17.746</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.609104188541858</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6587499999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1669578290068084</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20.845</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13.316</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12.335</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15.6165</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.808880719231482</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1637090915821924</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.485</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.736</v>
+      </c>
+      <c r="L23" t="n">
+        <v>13.194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11.731</v>
+      </c>
+      <c r="N23" t="n">
+        <v>15.2865</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.840424846289795</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.53925</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1168200182617117</v>
+      </c>
+      <c r="J24" t="n">
+        <v>21.479</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.487</v>
+      </c>
+      <c r="L24" t="n">
+        <v>16.448</v>
+      </c>
+      <c r="M24" t="n">
+        <v>16.185</v>
+      </c>
+      <c r="N24" t="n">
+        <v>18.39975</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.541544068081449</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1577064784126934</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.916</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16.527</v>
+      </c>
+      <c r="L25" t="n">
+        <v>13.531</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13.332</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16.0765</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.541918547905922</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6579999999999999</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1649707044700159</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.823</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.944</v>
+      </c>
+      <c r="L26" t="n">
+        <v>13.152</v>
+      </c>
+      <c r="M26" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15.63975</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.748157269468114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.6677500000000001</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1580366518670062</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20.425</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.881</v>
+      </c>
+      <c r="L27" t="n">
+        <v>13.164</v>
+      </c>
+      <c r="M27" t="n">
+        <v>12.221</v>
+      </c>
+      <c r="N27" t="n">
+        <v>15.42275</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3.678117849752325</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A27"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1007,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,31 +2090,31 @@
         <v>0.665</v>
       </c>
       <c r="E8" t="n">
-        <v>0.707</v>
+        <v>0.711</v>
       </c>
       <c r="F8" t="n">
-        <v>0.667</v>
+        <v>0.633</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6796666666666668</v>
+        <v>0.6696666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02369247419188911</v>
+        <v>0.03920884254008694</v>
       </c>
       <c r="I8" t="n">
-        <v>14.424</v>
+        <v>14.41</v>
       </c>
       <c r="J8" t="n">
-        <v>14.419</v>
+        <v>14.31</v>
       </c>
       <c r="K8" t="n">
-        <v>15.282</v>
+        <v>16.061</v>
       </c>
       <c r="L8" t="n">
-        <v>14.70833333333333</v>
+        <v>14.927</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4968161967300717</v>
+        <v>0.9833448021930047</v>
       </c>
     </row>
     <row r="9">
@@ -1346,34 +2130,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.617</v>
+        <v>0.526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.659</v>
+        <v>0.527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.599</v>
+        <v>0.499</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.5173333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03078960863668133</v>
+        <v>0.01588500340992515</v>
       </c>
       <c r="I9" t="n">
-        <v>15.417</v>
+        <v>17.151</v>
       </c>
       <c r="J9" t="n">
-        <v>15.554</v>
+        <v>18.318</v>
       </c>
       <c r="K9" t="n">
-        <v>16.778</v>
+        <v>18.758</v>
       </c>
       <c r="L9" t="n">
-        <v>15.91633333333333</v>
+        <v>18.07566666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7493626180517228</v>
+        <v>0.8304554975032276</v>
       </c>
     </row>
     <row r="10">
@@ -1389,34 +2173,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.544</v>
+        <v>0.398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58</v>
+        <v>0.376</v>
       </c>
       <c r="F10" t="n">
-        <v>0.524</v>
+        <v>0.368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5493333333333333</v>
+        <v>0.3806666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02837839553839032</v>
+        <v>0.01553490693030807</v>
       </c>
       <c r="I10" t="n">
-        <v>16.821</v>
+        <v>19.332</v>
       </c>
       <c r="J10" t="n">
-        <v>17.275</v>
+        <v>21.051</v>
       </c>
       <c r="K10" t="n">
-        <v>18.279</v>
+        <v>21.056</v>
       </c>
       <c r="L10" t="n">
-        <v>17.45833333333333</v>
+        <v>20.47966666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7460893601528791</v>
+        <v>0.9939116325576093</v>
       </c>
     </row>
     <row r="11">
@@ -1432,41 +2216,729 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2736666666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01677299416721215</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20.953</v>
+      </c>
+      <c r="J11" t="n">
+        <v>22.841</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.746</v>
+      </c>
+      <c r="L11" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.063674292253038</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3526666666666667</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05310681061157158</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.365</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20.415</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.958</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20.91266666666667</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9056303513759535</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3423333333333334</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02150193789716017</v>
+      </c>
+      <c r="I13" t="n">
+        <v>19.873</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21.612</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="L13" t="n">
+        <v>21.10833333333333</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.075886766036896</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3783333333333334</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.02596792893808312</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19.288</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20.903</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.364</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20.51833333333333</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.090146931992809</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4326666666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.03666515148384544</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.306</v>
+      </c>
+      <c r="J15" t="n">
+        <v>19.806</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.678</v>
+      </c>
+      <c r="L15" t="n">
+        <v>19.59666666666667</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.199775534561917</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5630000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0338082830087539</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.799</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="K16" t="n">
+        <v>17.924</v>
+      </c>
+      <c r="L16" t="n">
+        <v>17.17766666666666</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6463670267992742</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.474</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4766666666666666</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01517673658377627</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.062</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18.964</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19.421</v>
-      </c>
-      <c r="L11" t="n">
-        <v>18.81566666666667</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6915362125972376</v>
+      <c r="G17" t="n">
+        <v>0.5523333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.08168435182660957</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15.017</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17.944</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19.207</v>
+      </c>
+      <c r="L17" t="n">
+        <v>17.38933333333333</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.149364169547202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6393333333333334</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.02739221300540237</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15.083</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.329</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16.443</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15.61833333333333</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7246967181748061</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6336666666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05507570547286101</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.677</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16.818</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15.705</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.073027958629225</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5453333333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03521836642056714</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17.137</v>
+      </c>
+      <c r="K20" t="n">
+        <v>18.263</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17.52233333333334</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.641611512781164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5353333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07503554713156514</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.494</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17.733</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.084429658203893</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02260530911091465</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.697</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15.813</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16.524</v>
+      </c>
+      <c r="L22" t="n">
+        <v>15.678</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9209511387690454</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04864497233356527</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.524</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14.854</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16.783</v>
+      </c>
+      <c r="L23" t="n">
+        <v>15.72033333333333</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9793724180991292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.03278719262151003</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="J24" t="n">
+        <v>16</v>
+      </c>
+      <c r="K24" t="n">
+        <v>16.768</v>
+      </c>
+      <c r="L24" t="n">
+        <v>16.34066666666667</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.3912663202133983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6396666666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01792577287966502</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.723</v>
+      </c>
+      <c r="J25" t="n">
+        <v>16.451</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.704</v>
+      </c>
+      <c r="L25" t="n">
+        <v>15.626</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8666366020426323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6433333333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04164532786920198</v>
+      </c>
+      <c r="I26" t="n">
+        <v>15.248</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>16.467</v>
+      </c>
+      <c r="L26" t="n">
+        <v>15.505</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8627044685174631</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05542562584220413</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.992</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K27" t="n">
+        <v>17.008</v>
+      </c>
+      <c r="L27" t="n">
+        <v>15.99333333333333</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.014000657461982</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A27"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -808,40 +808,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.384</v>
+        <v>0.446</v>
       </c>
       <c r="E8" t="n">
-        <v>0.659</v>
+        <v>0.665</v>
       </c>
       <c r="F8" t="n">
-        <v>0.76</v>
+        <v>0.724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.739</v>
+        <v>0.732</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6355000000000001</v>
+        <v>0.64175</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1732214382421144</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="J8" t="n">
-        <v>21.448</v>
+        <v>20.332</v>
       </c>
       <c r="K8" t="n">
-        <v>16.4</v>
+        <v>16.254</v>
       </c>
       <c r="L8" t="n">
-        <v>13.123</v>
+        <v>14.07</v>
       </c>
       <c r="M8" t="n">
-        <v>13.645</v>
+        <v>13.83</v>
       </c>
       <c r="N8" t="n">
-        <v>16.154</v>
+        <v>16.1215</v>
       </c>
       <c r="O8" t="n">
-        <v>3.810905141826546</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="9">
@@ -857,40 +857,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.424</v>
+        <v>0.4</v>
       </c>
       <c r="E9" t="n">
-        <v>0.624</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.704</v>
+        <v>0.781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.764</v>
+        <v>0.786</v>
       </c>
       <c r="H9" t="n">
-        <v>0.629</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1482115605027714</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="J9" t="n">
-        <v>20.734</v>
+        <v>21.161</v>
       </c>
       <c r="K9" t="n">
-        <v>17.221</v>
+        <v>15.603</v>
       </c>
       <c r="L9" t="n">
-        <v>14.563</v>
+        <v>12.527</v>
       </c>
       <c r="M9" t="n">
-        <v>12.98</v>
+        <v>12.357</v>
       </c>
       <c r="N9" t="n">
-        <v>16.3745</v>
+        <v>15.412</v>
       </c>
       <c r="O9" t="n">
-        <v>3.392440861680569</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
     <row r="10">
@@ -906,40 +906,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.556</v>
+        <v>0.665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.616</v>
+        <v>0.766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.696</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.57525</v>
+        <v>0.6617500000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1108253129930162</v>
+        <v>0.1794962859411489</v>
       </c>
       <c r="J10" t="n">
-        <v>20.572</v>
+        <v>21.019</v>
       </c>
       <c r="K10" t="n">
-        <v>18.723</v>
+        <v>16.263</v>
       </c>
       <c r="L10" t="n">
-        <v>16.592</v>
+        <v>12.945</v>
       </c>
       <c r="M10" t="n">
-        <v>14.72</v>
+        <v>11.709</v>
       </c>
       <c r="N10" t="n">
-        <v>17.65175</v>
+        <v>15.484</v>
       </c>
       <c r="O10" t="n">
-        <v>2.542548901529067</v>
+        <v>4.160937875046922</v>
       </c>
     </row>
     <row r="11">
@@ -955,40 +955,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="E11" t="n">
-        <v>0.497</v>
+        <v>0.648</v>
       </c>
       <c r="F11" t="n">
-        <v>0.523</v>
+        <v>0.747</v>
       </c>
       <c r="G11" t="n">
-        <v>0.602</v>
+        <v>0.797</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5137499999999999</v>
+        <v>0.6585000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06993985511375708</v>
+        <v>0.1570530695868969</v>
       </c>
       <c r="J11" t="n">
-        <v>20.562</v>
+        <v>20.411</v>
       </c>
       <c r="K11" t="n">
-        <v>19.93</v>
+        <v>16.666</v>
       </c>
       <c r="L11" t="n">
-        <v>18.497</v>
+        <v>13.457</v>
       </c>
       <c r="M11" t="n">
-        <v>16.844</v>
+        <v>12.032</v>
       </c>
       <c r="N11" t="n">
-        <v>18.95825</v>
+        <v>15.6415</v>
       </c>
       <c r="O11" t="n">
-        <v>1.653190526426602</v>
+        <v>3.723719511456254</v>
       </c>
     </row>
     <row r="12">
@@ -2087,34 +2087,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.665</v>
+        <v>0.652</v>
       </c>
       <c r="E8" t="n">
-        <v>0.711</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6696666666666666</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03920884254008694</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="I8" t="n">
-        <v>14.41</v>
+        <v>14.708</v>
       </c>
       <c r="J8" t="n">
-        <v>14.31</v>
+        <v>14.98</v>
       </c>
       <c r="K8" t="n">
-        <v>16.061</v>
+        <v>15.554</v>
       </c>
       <c r="L8" t="n">
-        <v>14.927</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9833448021930047</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="9">
@@ -2130,34 +2130,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.526</v>
+        <v>0.653</v>
       </c>
       <c r="E9" t="n">
-        <v>0.527</v>
+        <v>0.667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.499</v>
+        <v>0.638</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5173333333333333</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01588500340992515</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="I9" t="n">
-        <v>17.151</v>
+        <v>14.684</v>
       </c>
       <c r="J9" t="n">
-        <v>18.318</v>
+        <v>15.373</v>
       </c>
       <c r="K9" t="n">
-        <v>18.758</v>
+        <v>15.932</v>
       </c>
       <c r="L9" t="n">
-        <v>18.07566666666667</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8304554975032276</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
     <row r="10">
@@ -2173,34 +2173,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.398</v>
+        <v>0.59</v>
       </c>
       <c r="E10" t="n">
-        <v>0.376</v>
+        <v>0.656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.368</v>
+        <v>0.579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3806666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01553490693030807</v>
+        <v>0.04164532786920205</v>
       </c>
       <c r="I10" t="n">
-        <v>19.332</v>
+        <v>15.945</v>
       </c>
       <c r="J10" t="n">
-        <v>21.051</v>
+        <v>15.623</v>
       </c>
       <c r="K10" t="n">
-        <v>21.056</v>
+        <v>17.187</v>
       </c>
       <c r="L10" t="n">
-        <v>20.47966666666667</v>
+        <v>16.25166666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9939116325576093</v>
+        <v>0.8258676245823751</v>
       </c>
     </row>
     <row r="11">
@@ -2216,34 +2216,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.293</v>
+        <v>0.534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.265</v>
+        <v>0.609</v>
       </c>
       <c r="F11" t="n">
-        <v>0.263</v>
+        <v>0.538</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2736666666666667</v>
+        <v>0.5603333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01677299416721215</v>
+        <v>0.04219399641339193</v>
       </c>
       <c r="I11" t="n">
-        <v>20.953</v>
+        <v>17.011</v>
       </c>
       <c r="J11" t="n">
-        <v>22.841</v>
+        <v>16.663</v>
       </c>
       <c r="K11" t="n">
-        <v>22.746</v>
+        <v>18.015</v>
       </c>
       <c r="L11" t="n">
-        <v>22.18</v>
+        <v>17.22966666666666</v>
       </c>
       <c r="M11" t="n">
-        <v>1.063674292253038</v>
+        <v>0.7020237412889494</v>
       </c>
     </row>
     <row r="12">

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLcauchy_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -612,47 +612,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.434</v>
+        <v>-0.016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.569</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68</v>
+        <v>-0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.675</v>
+        <v>-0.015</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5894999999999999</v>
+        <v>-0.008</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1156157428726729</v>
+        <v>0.008679477710861024</v>
       </c>
       <c r="J4" t="n">
-        <v>20.549</v>
+        <v>27.527</v>
       </c>
       <c r="K4" t="n">
-        <v>18.449</v>
+        <v>28.095</v>
       </c>
       <c r="L4" t="n">
-        <v>15.153</v>
+        <v>26.792</v>
       </c>
       <c r="M4" t="n">
-        <v>15.229</v>
+        <v>26.916</v>
       </c>
       <c r="N4" t="n">
-        <v>17.345</v>
+        <v>27.3325</v>
       </c>
       <c r="O4" t="n">
-        <v>2.631017040360375</v>
+        <v>0.6013454359462057</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLcauchy_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -661,47 +661,47 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.397</v>
+        <v>-0.016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6860000000000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.763</v>
+        <v>-0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.764</v>
+        <v>-0.016</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6525000000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1742077304063552</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J5" t="n">
-        <v>21.211</v>
+        <v>27.528</v>
       </c>
       <c r="K5" t="n">
-        <v>15.755</v>
+        <v>28.096</v>
       </c>
       <c r="L5" t="n">
-        <v>13.048</v>
+        <v>26.792</v>
       </c>
       <c r="M5" t="n">
-        <v>12.968</v>
+        <v>26.916</v>
       </c>
       <c r="N5" t="n">
-        <v>15.7455</v>
+        <v>27.333</v>
       </c>
       <c r="O5" t="n">
-        <v>3.867074389423266</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLcauchy_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -710,47 +710,47 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.408</v>
+        <v>-0.016</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6850000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.782</v>
+        <v>-0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.802</v>
+        <v>-0.016</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66925</v>
+        <v>-0.00825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1815073460405024</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J6" t="n">
-        <v>21.009</v>
+        <v>27.528</v>
       </c>
       <c r="K6" t="n">
-        <v>15.781</v>
+        <v>28.096</v>
       </c>
       <c r="L6" t="n">
-        <v>12.503</v>
+        <v>26.792</v>
       </c>
       <c r="M6" t="n">
-        <v>11.887</v>
+        <v>26.916</v>
       </c>
       <c r="N6" t="n">
-        <v>15.295</v>
+        <v>27.333</v>
       </c>
       <c r="O6" t="n">
-        <v>4.175153490192506</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLcauchy_5</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -759,47 +759,47 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.42</v>
+        <v>-0.016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.679</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.775</v>
+        <v>-0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8080000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6705000000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1757355968493578</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J7" t="n">
-        <v>20.804</v>
+        <v>27.528</v>
       </c>
       <c r="K7" t="n">
-        <v>15.927</v>
+        <v>28.096</v>
       </c>
       <c r="L7" t="n">
-        <v>12.689</v>
+        <v>26.792</v>
       </c>
       <c r="M7" t="n">
-        <v>11.689</v>
+        <v>26.916</v>
       </c>
       <c r="N7" t="n">
-        <v>15.27725</v>
+        <v>27.333</v>
       </c>
       <c r="O7" t="n">
-        <v>4.10453881899863</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLcauchy_6</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -808,47 +808,47 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.446</v>
+        <v>-0.016</v>
       </c>
       <c r="E8" t="n">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.724</v>
+        <v>-0.001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.732</v>
+        <v>-0.016</v>
       </c>
       <c r="H8" t="n">
-        <v>0.64175</v>
+        <v>-0.00825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1338764978129719</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J8" t="n">
-        <v>20.332</v>
+        <v>27.528</v>
       </c>
       <c r="K8" t="n">
-        <v>16.254</v>
+        <v>28.096</v>
       </c>
       <c r="L8" t="n">
-        <v>14.07</v>
+        <v>26.792</v>
       </c>
       <c r="M8" t="n">
-        <v>13.83</v>
+        <v>26.916</v>
       </c>
       <c r="N8" t="n">
-        <v>16.1215</v>
+        <v>27.333</v>
       </c>
       <c r="O8" t="n">
-        <v>3.011394527457337</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLexponential_2</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -857,47 +857,47 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4</v>
+        <v>-0.016</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.781</v>
+        <v>-0.001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.786</v>
+        <v>-0.016</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6647500000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1817055768727715</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J9" t="n">
-        <v>21.161</v>
+        <v>27.528</v>
       </c>
       <c r="K9" t="n">
-        <v>15.603</v>
+        <v>28.096</v>
       </c>
       <c r="L9" t="n">
-        <v>12.527</v>
+        <v>26.792</v>
       </c>
       <c r="M9" t="n">
-        <v>12.357</v>
+        <v>26.916</v>
       </c>
       <c r="N9" t="n">
-        <v>15.412</v>
+        <v>27.333</v>
       </c>
       <c r="O9" t="n">
-        <v>4.112733559730479</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLexponential_3</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -906,47 +906,47 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.408</v>
+        <v>-0.016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.766</v>
+        <v>-0.001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8080000000000001</v>
+        <v>-0.016</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6617500000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1794962859411489</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J10" t="n">
-        <v>21.019</v>
+        <v>27.528</v>
       </c>
       <c r="K10" t="n">
-        <v>16.263</v>
+        <v>28.096</v>
       </c>
       <c r="L10" t="n">
-        <v>12.945</v>
+        <v>26.792</v>
       </c>
       <c r="M10" t="n">
-        <v>11.709</v>
+        <v>26.916</v>
       </c>
       <c r="N10" t="n">
-        <v>15.484</v>
+        <v>27.333</v>
       </c>
       <c r="O10" t="n">
-        <v>4.160937875046922</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLexponential_4</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -955,47 +955,47 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.442</v>
+        <v>-0.016</v>
       </c>
       <c r="E11" t="n">
-        <v>0.648</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.747</v>
+        <v>-0.001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.797</v>
+        <v>-0.016</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6585000000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1570530695868969</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J11" t="n">
-        <v>20.411</v>
+        <v>27.528</v>
       </c>
       <c r="K11" t="n">
-        <v>16.666</v>
+        <v>28.096</v>
       </c>
       <c r="L11" t="n">
-        <v>13.457</v>
+        <v>26.792</v>
       </c>
       <c r="M11" t="n">
-        <v>12.032</v>
+        <v>26.916</v>
       </c>
       <c r="N11" t="n">
-        <v>15.6415</v>
+        <v>27.333</v>
       </c>
       <c r="O11" t="n">
-        <v>3.723719511456254</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLexponential_5</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1004,47 +1004,47 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.197</v>
+        <v>-0.016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.388</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.398</v>
+        <v>-0.001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.423</v>
+        <v>-0.016</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3515</v>
+        <v>-0.00825</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1040464639796407</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J12" t="n">
-        <v>24.481</v>
+        <v>27.528</v>
       </c>
       <c r="K12" t="n">
-        <v>21.988</v>
+        <v>28.096</v>
       </c>
       <c r="L12" t="n">
-        <v>20.777</v>
+        <v>26.792</v>
       </c>
       <c r="M12" t="n">
-        <v>20.286</v>
+        <v>26.916</v>
       </c>
       <c r="N12" t="n">
-        <v>21.883</v>
+        <v>27.333</v>
       </c>
       <c r="O12" t="n">
-        <v>1.873879576351337</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLexponential_6</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1053,47 +1053,47 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.187</v>
+        <v>-0.016</v>
       </c>
       <c r="E13" t="n">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.395</v>
+        <v>-0.001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.419</v>
+        <v>-0.016</v>
       </c>
       <c r="H13" t="n">
-        <v>0.344</v>
+        <v>-0.00825</v>
       </c>
       <c r="I13" t="n">
-        <v>0.106201067163502</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J13" t="n">
-        <v>24.635</v>
+        <v>27.528</v>
       </c>
       <c r="K13" t="n">
-        <v>22.217</v>
+        <v>28.096</v>
       </c>
       <c r="L13" t="n">
-        <v>20.833</v>
+        <v>26.792</v>
       </c>
       <c r="M13" t="n">
-        <v>20.353</v>
+        <v>26.916</v>
       </c>
       <c r="N13" t="n">
-        <v>22.0095</v>
+        <v>27.333</v>
       </c>
       <c r="O13" t="n">
-        <v>1.920455761878762</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_4</t>
+          <t>WLgaussian_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1102,47 +1102,47 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.248</v>
+        <v>-0.016</v>
       </c>
       <c r="E14" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.458</v>
+        <v>-0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.478</v>
+        <v>-0.016</v>
       </c>
       <c r="H14" t="n">
-        <v>0.40325</v>
+        <v>-0.00825</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1054367899106695</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J14" t="n">
-        <v>23.687</v>
+        <v>27.528</v>
       </c>
       <c r="K14" t="n">
-        <v>21.222</v>
+        <v>28.096</v>
       </c>
       <c r="L14" t="n">
-        <v>19.722</v>
+        <v>26.792</v>
       </c>
       <c r="M14" t="n">
-        <v>19.299</v>
+        <v>26.916</v>
       </c>
       <c r="N14" t="n">
-        <v>20.9825</v>
+        <v>27.333</v>
       </c>
       <c r="O14" t="n">
-        <v>1.982818952905182</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_5</t>
+          <t>WLgaussian_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1151,47 +1151,47 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.323</v>
+        <v>-0.016</v>
       </c>
       <c r="E15" t="n">
-        <v>0.494</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.515</v>
+        <v>-0.001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.549</v>
+        <v>-0.016</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4702499999999999</v>
+        <v>-0.00825</v>
       </c>
       <c r="I15" t="n">
-        <v>0.100748449119577</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J15" t="n">
-        <v>22.47</v>
+        <v>27.528</v>
       </c>
       <c r="K15" t="n">
-        <v>19.984</v>
+        <v>28.096</v>
       </c>
       <c r="L15" t="n">
-        <v>18.646</v>
+        <v>26.792</v>
       </c>
       <c r="M15" t="n">
-        <v>17.934</v>
+        <v>26.916</v>
       </c>
       <c r="N15" t="n">
-        <v>19.7585</v>
+        <v>27.333</v>
       </c>
       <c r="O15" t="n">
-        <v>1.997459970395735</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLgaussian_4</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -1200,47 +1200,47 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.377</v>
+        <v>-0.016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.547</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.62</v>
+        <v>-0.001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.643</v>
+        <v>-0.016</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5467500000000001</v>
+        <v>-0.00825</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1203394504447038</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J16" t="n">
-        <v>21.564</v>
+        <v>27.528</v>
       </c>
       <c r="K16" t="n">
-        <v>18.911</v>
+        <v>28.096</v>
       </c>
       <c r="L16" t="n">
-        <v>16.498</v>
+        <v>26.792</v>
       </c>
       <c r="M16" t="n">
-        <v>15.966</v>
+        <v>26.916</v>
       </c>
       <c r="N16" t="n">
-        <v>18.23475</v>
+        <v>27.333</v>
       </c>
       <c r="O16" t="n">
-        <v>2.562859519495102</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLgaussian_5</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -1249,47 +1249,47 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.403</v>
+        <v>-0.016</v>
       </c>
       <c r="E17" t="n">
-        <v>0.638</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.724</v>
+        <v>-0.001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.755</v>
+        <v>-0.016</v>
       </c>
       <c r="H17" t="n">
-        <v>0.63</v>
+        <v>-0.00825</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1592210203878035</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J17" t="n">
-        <v>21.113</v>
+        <v>27.528</v>
       </c>
       <c r="K17" t="n">
-        <v>16.911</v>
+        <v>28.096</v>
       </c>
       <c r="L17" t="n">
-        <v>14.056</v>
+        <v>26.792</v>
       </c>
       <c r="M17" t="n">
-        <v>13.216</v>
+        <v>26.916</v>
       </c>
       <c r="N17" t="n">
-        <v>16.324</v>
+        <v>27.333</v>
       </c>
       <c r="O17" t="n">
-        <v>3.562891054560421</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLgaussian_6</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -1298,47 +1298,47 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.42</v>
+        <v>-0.016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6830000000000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.758</v>
+        <v>-0.001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.793</v>
+        <v>-0.016</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6635</v>
+        <v>-0.00825</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1686940030548409</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J18" t="n">
-        <v>20.808</v>
+        <v>27.528</v>
       </c>
       <c r="K18" t="n">
-        <v>15.822</v>
+        <v>28.096</v>
       </c>
       <c r="L18" t="n">
-        <v>13.173</v>
+        <v>26.792</v>
       </c>
       <c r="M18" t="n">
-        <v>12.144</v>
+        <v>26.916</v>
       </c>
       <c r="N18" t="n">
-        <v>15.48675</v>
+        <v>27.333</v>
       </c>
       <c r="O18" t="n">
-        <v>3.871068360285052</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLinversemultiquadratic_2</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1347,47 +1347,47 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.413</v>
+        <v>0.244</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.759</v>
+        <v>0.438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.461</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6667500000000001</v>
+        <v>0.39125</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1765453199606266</v>
+        <v>0.09946314225212607</v>
       </c>
       <c r="J19" t="n">
-        <v>20.931</v>
+        <v>23.757</v>
       </c>
       <c r="K19" t="n">
-        <v>15.748</v>
+        <v>21.369</v>
       </c>
       <c r="L19" t="n">
-        <v>13.159</v>
+        <v>20.075</v>
       </c>
       <c r="M19" t="n">
-        <v>11.688</v>
+        <v>19.616</v>
       </c>
       <c r="N19" t="n">
-        <v>15.3815</v>
+        <v>21.20425</v>
       </c>
       <c r="O19" t="n">
-        <v>4.062541117740635</v>
+        <v>1.856647404149031</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLinversemultiquadratic_3</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -1396,47 +1396,47 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.364</v>
+        <v>0.302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.532</v>
+        <v>0.462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.596</v>
+        <v>0.48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.628</v>
+        <v>0.495</v>
       </c>
       <c r="H20" t="n">
-        <v>0.53</v>
+        <v>0.43475</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1176435293588219</v>
+        <v>0.08952234357968965</v>
       </c>
       <c r="J20" t="n">
-        <v>21.785</v>
+        <v>22.829</v>
       </c>
       <c r="K20" t="n">
-        <v>19.211</v>
+        <v>20.617</v>
       </c>
       <c r="L20" t="n">
-        <v>17.031</v>
+        <v>19.302</v>
       </c>
       <c r="M20" t="n">
-        <v>16.291</v>
+        <v>18.973</v>
       </c>
       <c r="N20" t="n">
-        <v>18.5795</v>
+        <v>20.43025</v>
       </c>
       <c r="O20" t="n">
-        <v>2.470432283359871</v>
+        <v>1.749800250504802</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLinversemultiquadratic_4</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -1445,47 +1445,47 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.396</v>
+        <v>0.355</v>
       </c>
       <c r="E21" t="n">
-        <v>0.579</v>
+        <v>0.496</v>
       </c>
       <c r="F21" t="n">
-        <v>0.642</v>
+        <v>0.428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.664</v>
+        <v>0.43</v>
       </c>
       <c r="H21" t="n">
-        <v>0.57025</v>
+        <v>0.42725</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1216233941312279</v>
+        <v>0.05760425331518498</v>
       </c>
       <c r="J21" t="n">
-        <v>21.229</v>
+        <v>21.932</v>
       </c>
       <c r="K21" t="n">
-        <v>18.239</v>
+        <v>19.951</v>
       </c>
       <c r="L21" t="n">
-        <v>16.026</v>
+        <v>20.247</v>
       </c>
       <c r="M21" t="n">
-        <v>15.49</v>
+        <v>20.166</v>
       </c>
       <c r="N21" t="n">
-        <v>17.746</v>
+        <v>20.574</v>
       </c>
       <c r="O21" t="n">
-        <v>2.609104188541858</v>
+        <v>0.913908456393016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLinversemultiquadratic_5</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -1494,47 +1494,47 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.418</v>
+        <v>0.39</v>
       </c>
       <c r="E22" t="n">
-        <v>0.677</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.753</v>
+        <v>0.765</v>
       </c>
       <c r="G22" t="n">
-        <v>0.787</v>
+        <v>0.771</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6587499999999999</v>
+        <v>0.6525</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1669578290068084</v>
+        <v>0.1794407980365669</v>
       </c>
       <c r="J22" t="n">
-        <v>20.845</v>
+        <v>21.336</v>
       </c>
       <c r="K22" t="n">
-        <v>15.97</v>
+        <v>15.805</v>
       </c>
       <c r="L22" t="n">
-        <v>13.316</v>
+        <v>12.993</v>
       </c>
       <c r="M22" t="n">
-        <v>12.335</v>
+        <v>12.795</v>
       </c>
       <c r="N22" t="n">
-        <v>15.6165</v>
+        <v>15.73225</v>
       </c>
       <c r="O22" t="n">
-        <v>3.808880719231482</v>
+        <v>3.980713284073595</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLinversemultiquadratic_6</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1543,47 +1543,47 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.438</v>
+        <v>0.417</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.757</v>
+        <v>0.766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H23" t="n">
-        <v>0.672</v>
+        <v>0.668</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1637090915821924</v>
+        <v>0.1749990476164561</v>
       </c>
       <c r="J23" t="n">
-        <v>20.485</v>
+        <v>20.852</v>
       </c>
       <c r="K23" t="n">
-        <v>15.736</v>
+        <v>15.811</v>
       </c>
       <c r="L23" t="n">
-        <v>13.194</v>
+        <v>12.953</v>
       </c>
       <c r="M23" t="n">
-        <v>11.731</v>
+        <v>11.753</v>
       </c>
       <c r="N23" t="n">
-        <v>15.2865</v>
+        <v>15.34225</v>
       </c>
       <c r="O23" t="n">
-        <v>3.840424846289795</v>
+        <v>4.048386623088265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_2</t>
+          <t>WLlaplacian_2</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1592,47 +1592,47 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.382</v>
+        <v>-0.016</v>
       </c>
       <c r="E24" t="n">
-        <v>0.519</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.623</v>
+        <v>-0.001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.633</v>
+        <v>-0.016</v>
       </c>
       <c r="H24" t="n">
-        <v>0.53925</v>
+        <v>-0.00825</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1168200182617117</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J24" t="n">
-        <v>21.479</v>
+        <v>27.528</v>
       </c>
       <c r="K24" t="n">
-        <v>19.487</v>
+        <v>28.096</v>
       </c>
       <c r="L24" t="n">
-        <v>16.448</v>
+        <v>26.792</v>
       </c>
       <c r="M24" t="n">
-        <v>16.185</v>
+        <v>26.916</v>
       </c>
       <c r="N24" t="n">
-        <v>18.39975</v>
+        <v>27.333</v>
       </c>
       <c r="O24" t="n">
-        <v>2.541544068081449</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_3</t>
+          <t>WLlaplacian_3</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -1641,47 +1641,47 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.414</v>
+        <v>-0.016</v>
       </c>
       <c r="E25" t="n">
-        <v>0.654</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.745</v>
+        <v>-0.001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.751</v>
+        <v>-0.016</v>
       </c>
       <c r="H25" t="n">
-        <v>0.641</v>
+        <v>-0.00825</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1577064784126934</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J25" t="n">
-        <v>20.916</v>
+        <v>27.528</v>
       </c>
       <c r="K25" t="n">
-        <v>16.527</v>
+        <v>28.096</v>
       </c>
       <c r="L25" t="n">
-        <v>13.531</v>
+        <v>26.792</v>
       </c>
       <c r="M25" t="n">
-        <v>13.332</v>
+        <v>26.916</v>
       </c>
       <c r="N25" t="n">
-        <v>16.0765</v>
+        <v>27.333</v>
       </c>
       <c r="O25" t="n">
-        <v>3.541918547905922</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_4</t>
+          <t>WLlaplacian_4</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1690,96 +1690,2350 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.419</v>
+        <v>-0.016</v>
       </c>
       <c r="E26" t="n">
-        <v>0.678</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.759</v>
+        <v>-0.001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.776</v>
+        <v>-0.016</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6579999999999999</v>
+        <v>-0.00825</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1649707044700159</v>
+        <v>0.00895823643358446</v>
       </c>
       <c r="J26" t="n">
-        <v>20.823</v>
+        <v>27.528</v>
       </c>
       <c r="K26" t="n">
-        <v>15.944</v>
+        <v>28.096</v>
       </c>
       <c r="L26" t="n">
-        <v>13.152</v>
+        <v>26.792</v>
       </c>
       <c r="M26" t="n">
-        <v>12.64</v>
+        <v>26.916</v>
       </c>
       <c r="N26" t="n">
-        <v>15.63975</v>
+        <v>27.333</v>
       </c>
       <c r="O26" t="n">
-        <v>3.748157269468114</v>
+        <v>0.6018759562124624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
+          <t>WLlaplacian_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.00825</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.00895823643358446</v>
+      </c>
+      <c r="J27" t="n">
+        <v>27.528</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.096</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26.792</v>
+      </c>
+      <c r="M27" t="n">
+        <v>26.916</v>
+      </c>
+      <c r="N27" t="n">
+        <v>27.333</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.6018759562124624</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>WLlaplacian_6</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.00825</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.00895823643358446</v>
+      </c>
+      <c r="J28" t="n">
+        <v>27.528</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28.096</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26.792</v>
+      </c>
+      <c r="M28" t="n">
+        <v>26.916</v>
+      </c>
+      <c r="N28" t="n">
+        <v>27.333</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.6018759562124624</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5894999999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1156157428726729</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20.549</v>
+      </c>
+      <c r="K29" t="n">
+        <v>18.449</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15.153</v>
+      </c>
+      <c r="M29" t="n">
+        <v>15.229</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17.345</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.631017040360375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6525000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1742077304063552</v>
+      </c>
+      <c r="J30" t="n">
+        <v>21.211</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.755</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13.048</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12.968</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15.7455</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.867074389423266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.66925</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1815073460405024</v>
+      </c>
+      <c r="J31" t="n">
+        <v>21.009</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.781</v>
+      </c>
+      <c r="L31" t="n">
+        <v>12.503</v>
+      </c>
+      <c r="M31" t="n">
+        <v>11.887</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4.175153490192506</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6705000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1757355968493578</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20.804</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.927</v>
+      </c>
+      <c r="L32" t="n">
+        <v>12.689</v>
+      </c>
+      <c r="M32" t="n">
+        <v>11.689</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15.27725</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4.10453881899863</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_6</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.6725000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1626868156919915</v>
+      </c>
+      <c r="J33" t="n">
+        <v>20.369</v>
+      </c>
+      <c r="K33" t="n">
+        <v>16.102</v>
+      </c>
+      <c r="L33" t="n">
+        <v>12.993</v>
+      </c>
+      <c r="M33" t="n">
+        <v>11.673</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15.28425</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3.864986017654743</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_2</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.05075</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04909429702114085</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27.371</v>
+      </c>
+      <c r="K34" t="n">
+        <v>28.491</v>
+      </c>
+      <c r="L34" t="n">
+        <v>27.476</v>
+      </c>
+      <c r="M34" t="n">
+        <v>28.242</v>
+      </c>
+      <c r="N34" t="n">
+        <v>27.895</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.5555063756009774</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_3</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.08299999999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05353503525729669</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27.675</v>
+      </c>
+      <c r="K35" t="n">
+        <v>28.964</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27.956</v>
+      </c>
+      <c r="M35" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="N35" t="n">
+        <v>28.31875</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.6035590968027343</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_4</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.172</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.06326663154196427</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28.779</v>
+      </c>
+      <c r="K36" t="n">
+        <v>30.412</v>
+      </c>
+      <c r="L36" t="n">
+        <v>29.462</v>
+      </c>
+      <c r="M36" t="n">
+        <v>29.977</v>
+      </c>
+      <c r="N36" t="n">
+        <v>29.6575</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7026931525685065</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_5</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.378</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.483</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.552</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.578</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.49775</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.08933224501824635</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32.068</v>
+      </c>
+      <c r="K37" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="L37" t="n">
+        <v>33.363</v>
+      </c>
+      <c r="M37" t="n">
+        <v>33.552</v>
+      </c>
+      <c r="N37" t="n">
+        <v>33.29825</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8969178241808642</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_6</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.525</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-2.267</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.961</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.867</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1.905</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3055181391232497</v>
+      </c>
+      <c r="J38" t="n">
+        <v>43.404</v>
+      </c>
+      <c r="K38" t="n">
+        <v>50.781</v>
+      </c>
+      <c r="L38" t="n">
+        <v>46.082</v>
+      </c>
+      <c r="M38" t="n">
+        <v>45.224</v>
+      </c>
+      <c r="N38" t="n">
+        <v>46.37275</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.143793183931368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_2</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-169.175</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-164.628</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-179.676</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-169.962</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-170.86025</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.329963368772365</v>
+      </c>
+      <c r="J39" t="n">
+        <v>356.342</v>
+      </c>
+      <c r="K39" t="n">
+        <v>361.581</v>
+      </c>
+      <c r="L39" t="n">
+        <v>359.945</v>
+      </c>
+      <c r="M39" t="n">
+        <v>349.236</v>
+      </c>
+      <c r="N39" t="n">
+        <v>356.776</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.482412546802132</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_3</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-417.064</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-406.597</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-428.584</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-418.722</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-417.74175</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.003334063001336</v>
+      </c>
+      <c r="J40" t="n">
+        <v>558.522</v>
+      </c>
+      <c r="K40" t="n">
+        <v>567.224</v>
+      </c>
+      <c r="L40" t="n">
+        <v>555.022</v>
+      </c>
+      <c r="M40" t="n">
+        <v>547.205</v>
+      </c>
+      <c r="N40" t="n">
+        <v>556.99325</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8.300622200574287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_4</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-705.731</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-691.111</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-738.0890000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-745.054</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-719.99625</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25.7752689138898</v>
+      </c>
+      <c r="J41" t="n">
+        <v>726.183</v>
+      </c>
+      <c r="K41" t="n">
+        <v>739.141</v>
+      </c>
+      <c r="L41" t="n">
+        <v>728.005</v>
+      </c>
+      <c r="M41" t="n">
+        <v>729.548</v>
+      </c>
+      <c r="N41" t="n">
+        <v>730.7192500000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.780496424760289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_5</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-1089.807</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1069.848</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1152.271</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1231.197</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1135.78075</v>
+      </c>
+      <c r="I42" t="n">
+        <v>72.65650308300003</v>
+      </c>
+      <c r="J42" t="n">
+        <v>902.179</v>
+      </c>
+      <c r="K42" t="n">
+        <v>919.397</v>
+      </c>
+      <c r="L42" t="n">
+        <v>909.393</v>
+      </c>
+      <c r="M42" t="n">
+        <v>937.581</v>
+      </c>
+      <c r="N42" t="n">
+        <v>917.1375</v>
+      </c>
+      <c r="O42" t="n">
+        <v>15.34900686255196</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_6</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-1577.458</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1565.581</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1679.063</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1766.5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1647.1505</v>
+      </c>
+      <c r="I43" t="n">
+        <v>94.46928723664641</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1085.264</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1112.028</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1097.611</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1122.919</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1104.4555</v>
+      </c>
+      <c r="O43" t="n">
+        <v>16.46617179755722</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.64175</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1338764978129719</v>
+      </c>
+      <c r="J44" t="n">
+        <v>20.332</v>
+      </c>
+      <c r="K44" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="L44" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16.1215</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.011394527457337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6647500000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.1817055768727715</v>
+      </c>
+      <c r="J45" t="n">
+        <v>21.161</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.603</v>
+      </c>
+      <c r="L45" t="n">
+        <v>12.527</v>
+      </c>
+      <c r="M45" t="n">
+        <v>12.357</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.412</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.112733559730479</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.6617500000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1794962859411489</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21.019</v>
+      </c>
+      <c r="K46" t="n">
+        <v>16.263</v>
+      </c>
+      <c r="L46" t="n">
+        <v>12.945</v>
+      </c>
+      <c r="M46" t="n">
+        <v>11.709</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15.484</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4.160937875046922</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.6585000000000001</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.1570530695868969</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20.411</v>
+      </c>
+      <c r="K47" t="n">
+        <v>16.666</v>
+      </c>
+      <c r="L47" t="n">
+        <v>13.457</v>
+      </c>
+      <c r="M47" t="n">
+        <v>12.032</v>
+      </c>
+      <c r="N47" t="n">
+        <v>15.6415</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3.723719511456254</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_6</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.65225</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1380009057941287</v>
+      </c>
+      <c r="J48" t="n">
+        <v>19.963</v>
+      </c>
+      <c r="K48" t="n">
+        <v>17.008</v>
+      </c>
+      <c r="L48" t="n">
+        <v>13.909</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12.556</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15.859</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.31035375753106</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_2</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.056</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.122</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.05425</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04939888662712957</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27.405</v>
+      </c>
+      <c r="K49" t="n">
+        <v>28.547</v>
+      </c>
+      <c r="L49" t="n">
+        <v>27.523</v>
+      </c>
+      <c r="M49" t="n">
+        <v>28.298</v>
+      </c>
+      <c r="N49" t="n">
+        <v>27.94325</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.5647078153051064</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_3</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.129</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.161</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.143</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.06186005711819757</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28.216</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.852</v>
+      </c>
+      <c r="L50" t="n">
+        <v>28.854</v>
+      </c>
+      <c r="M50" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="N50" t="n">
+        <v>29.0905</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.7124406408022121</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_4</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.527</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.745</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.784</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.7115</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1246073834088494</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.758</v>
+      </c>
+      <c r="K51" t="n">
+        <v>37.109</v>
+      </c>
+      <c r="L51" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="M51" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="N51" t="n">
+        <v>35.59425</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.381932553829358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_5</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-5.662</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-9.420999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-7.697</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-6.245</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-7.25625</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.677762671933469</v>
+      </c>
+      <c r="J52" t="n">
+        <v>70.50700000000001</v>
+      </c>
+      <c r="K52" t="n">
+        <v>90.69799999999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>78.973</v>
+      </c>
+      <c r="M52" t="n">
+        <v>71.893</v>
+      </c>
+      <c r="N52" t="n">
+        <v>78.01775000000001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9.230839086995283</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_6</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-30.07</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-33.896</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-40.252</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-33.193</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-34.35275</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.269923447791542</v>
+      </c>
+      <c r="J53" t="n">
+        <v>152.261</v>
+      </c>
+      <c r="K53" t="n">
+        <v>165.969</v>
+      </c>
+      <c r="L53" t="n">
+        <v>171.993</v>
+      </c>
+      <c r="M53" t="n">
+        <v>156.185</v>
+      </c>
+      <c r="N53" t="n">
+        <v>161.602</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9.011876238238811</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.3515</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1040464639796407</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24.481</v>
+      </c>
+      <c r="K54" t="n">
+        <v>21.988</v>
+      </c>
+      <c r="L54" t="n">
+        <v>20.777</v>
+      </c>
+      <c r="M54" t="n">
+        <v>20.286</v>
+      </c>
+      <c r="N54" t="n">
+        <v>21.883</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.873879576351337</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.106201067163502</v>
+      </c>
+      <c r="J55" t="n">
+        <v>24.635</v>
+      </c>
+      <c r="K55" t="n">
+        <v>22.217</v>
+      </c>
+      <c r="L55" t="n">
+        <v>20.833</v>
+      </c>
+      <c r="M55" t="n">
+        <v>20.353</v>
+      </c>
+      <c r="N55" t="n">
+        <v>22.0095</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.920455761878762</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.40325</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.1054367899106695</v>
+      </c>
+      <c r="J56" t="n">
+        <v>23.687</v>
+      </c>
+      <c r="K56" t="n">
+        <v>21.222</v>
+      </c>
+      <c r="L56" t="n">
+        <v>19.722</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19.299</v>
+      </c>
+      <c r="N56" t="n">
+        <v>20.9825</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.982818952905182</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.4702499999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.100748449119577</v>
+      </c>
+      <c r="J57" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="K57" t="n">
+        <v>19.984</v>
+      </c>
+      <c r="L57" t="n">
+        <v>18.646</v>
+      </c>
+      <c r="M57" t="n">
+        <v>17.934</v>
+      </c>
+      <c r="N57" t="n">
+        <v>19.7585</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.997459970395735</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_6</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.52025</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1018246040994022</v>
+      </c>
+      <c r="J58" t="n">
+        <v>21.647</v>
+      </c>
+      <c r="K58" t="n">
+        <v>19.125</v>
+      </c>
+      <c r="L58" t="n">
+        <v>17.438</v>
+      </c>
+      <c r="M58" t="n">
+        <v>16.969</v>
+      </c>
+      <c r="N58" t="n">
+        <v>18.79475</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.114909671041925</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5467500000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1203394504447038</v>
+      </c>
+      <c r="J59" t="n">
+        <v>21.564</v>
+      </c>
+      <c r="K59" t="n">
+        <v>18.911</v>
+      </c>
+      <c r="L59" t="n">
+        <v>16.498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>15.966</v>
+      </c>
+      <c r="N59" t="n">
+        <v>18.23475</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.562859519495102</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1592210203878035</v>
+      </c>
+      <c r="J60" t="n">
+        <v>21.113</v>
+      </c>
+      <c r="K60" t="n">
+        <v>16.911</v>
+      </c>
+      <c r="L60" t="n">
+        <v>14.056</v>
+      </c>
+      <c r="M60" t="n">
+        <v>13.216</v>
+      </c>
+      <c r="N60" t="n">
+        <v>16.324</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3.562891054560421</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6635</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1686940030548409</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20.808</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15.822</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13.173</v>
+      </c>
+      <c r="M61" t="n">
+        <v>12.144</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15.48675</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3.871068360285052</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.6667500000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.1765453199606266</v>
+      </c>
+      <c r="J62" t="n">
+        <v>20.931</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15.748</v>
+      </c>
+      <c r="L62" t="n">
+        <v>13.159</v>
+      </c>
+      <c r="M62" t="n">
+        <v>11.688</v>
+      </c>
+      <c r="N62" t="n">
+        <v>15.3815</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.062541117740635</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_6</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.6735</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.1691084464675454</v>
+      </c>
+      <c r="J63" t="n">
+        <v>20.542</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15.937</v>
+      </c>
+      <c r="L63" t="n">
+        <v>12.812</v>
+      </c>
+      <c r="M63" t="n">
+        <v>11.619</v>
+      </c>
+      <c r="N63" t="n">
+        <v>15.2275</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.983432899731922</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1176435293588219</v>
+      </c>
+      <c r="J64" t="n">
+        <v>21.785</v>
+      </c>
+      <c r="K64" t="n">
+        <v>19.211</v>
+      </c>
+      <c r="L64" t="n">
+        <v>17.031</v>
+      </c>
+      <c r="M64" t="n">
+        <v>16.291</v>
+      </c>
+      <c r="N64" t="n">
+        <v>18.5795</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2.470432283359871</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.57025</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1216233941312279</v>
+      </c>
+      <c r="J65" t="n">
+        <v>21.229</v>
+      </c>
+      <c r="K65" t="n">
+        <v>18.239</v>
+      </c>
+      <c r="L65" t="n">
+        <v>16.026</v>
+      </c>
+      <c r="M65" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="N65" t="n">
+        <v>17.746</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2.609104188541858</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.6587499999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1669578290068084</v>
+      </c>
+      <c r="J66" t="n">
+        <v>20.845</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13.316</v>
+      </c>
+      <c r="M66" t="n">
+        <v>12.335</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15.6165</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3.808880719231482</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1637090915821924</v>
+      </c>
+      <c r="J67" t="n">
+        <v>20.485</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15.736</v>
+      </c>
+      <c r="L67" t="n">
+        <v>13.194</v>
+      </c>
+      <c r="M67" t="n">
+        <v>11.731</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15.2865</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3.840424846289795</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_6</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.66925</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.168006696295118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>20.622</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.837</v>
+      </c>
+      <c r="L68" t="n">
+        <v>13.285</v>
+      </c>
+      <c r="M68" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="N68" t="n">
+        <v>15.3385</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3.927783471628751</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.53925</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1168200182617117</v>
+      </c>
+      <c r="J69" t="n">
+        <v>21.479</v>
+      </c>
+      <c r="K69" t="n">
+        <v>19.487</v>
+      </c>
+      <c r="L69" t="n">
+        <v>16.448</v>
+      </c>
+      <c r="M69" t="n">
+        <v>16.185</v>
+      </c>
+      <c r="N69" t="n">
+        <v>18.39975</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2.541544068081449</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.1577064784126934</v>
+      </c>
+      <c r="J70" t="n">
+        <v>20.916</v>
+      </c>
+      <c r="K70" t="n">
+        <v>16.527</v>
+      </c>
+      <c r="L70" t="n">
+        <v>13.531</v>
+      </c>
+      <c r="M70" t="n">
+        <v>13.332</v>
+      </c>
+      <c r="N70" t="n">
+        <v>16.0765</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3.541918547905922</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.6579999999999999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1649707044700159</v>
+      </c>
+      <c r="J71" t="n">
+        <v>20.823</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15.944</v>
+      </c>
+      <c r="L71" t="n">
+        <v>13.152</v>
+      </c>
+      <c r="M71" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="N71" t="n">
+        <v>15.63975</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.748157269468114</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
           <t>WLsigmoidlogistic_5</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>0.441</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E72" t="n">
         <v>0.681</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F72" t="n">
         <v>0.758</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G72" t="n">
         <v>0.791</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H72" t="n">
         <v>0.6677500000000001</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I72" t="n">
         <v>0.1580366518670062</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J72" t="n">
         <v>20.425</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K72" t="n">
         <v>15.881</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L72" t="n">
         <v>13.164</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M72" t="n">
         <v>12.221</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N72" t="n">
         <v>15.42275</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O72" t="n">
         <v>3.678117849752325</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_6</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.6717500000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.150588567516484</v>
+      </c>
+      <c r="J73" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15.957</v>
+      </c>
+      <c r="L73" t="n">
+        <v>13.143</v>
+      </c>
+      <c r="M73" t="n">
+        <v>12.151</v>
+      </c>
+      <c r="N73" t="n">
+        <v>15.34025</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3.565114245481249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A4:A73"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1791,7 +4045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1906,7 +4160,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLcauchy_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1915,41 +4169,41 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.652</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.673</v>
+        <v>-0.012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6590000000000001</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01212435565298215</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I4" t="n">
-        <v>14.693</v>
+        <v>25.025</v>
       </c>
       <c r="J4" t="n">
-        <v>15.707</v>
+        <v>26.643</v>
       </c>
       <c r="K4" t="n">
-        <v>15.16</v>
+        <v>26.651</v>
       </c>
       <c r="L4" t="n">
-        <v>15.18666666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5075256972147656</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLcauchy_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1958,41 +4212,41 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.654</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.661</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.658</v>
+        <v>-0.012</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6576666666666666</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00351188458428425</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I5" t="n">
-        <v>14.646</v>
+        <v>25.025</v>
       </c>
       <c r="J5" t="n">
-        <v>15.516</v>
+        <v>26.643</v>
       </c>
       <c r="K5" t="n">
-        <v>15.488</v>
+        <v>26.651</v>
       </c>
       <c r="L5" t="n">
-        <v>15.21666666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4944100861970079</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLcauchy_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -2001,41 +4255,41 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.63</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.614</v>
+        <v>-0.012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6503333333333333</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04972256362390551</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I6" t="n">
-        <v>15.162</v>
+        <v>25.025</v>
       </c>
       <c r="J6" t="n">
-        <v>14.427</v>
+        <v>26.643</v>
       </c>
       <c r="K6" t="n">
-        <v>16.453</v>
+        <v>26.651</v>
       </c>
       <c r="L6" t="n">
-        <v>15.34733333333333</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>1.025636550310749</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLcauchy_5</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -2044,41 +4298,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.591</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.588</v>
+        <v>-0.012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6236666666666666</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05919740985324723</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I7" t="n">
-        <v>15.935</v>
+        <v>25.025</v>
       </c>
       <c r="J7" t="n">
-        <v>14.787</v>
+        <v>26.643</v>
       </c>
       <c r="K7" t="n">
-        <v>17.002</v>
+        <v>26.651</v>
       </c>
       <c r="L7" t="n">
-        <v>15.908</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>1.107746812227414</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLcauchy_6</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -2087,41 +4341,41 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.652</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6840000000000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.655</v>
+        <v>-0.012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6636666666666667</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01767295485574876</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I8" t="n">
-        <v>14.708</v>
+        <v>25.025</v>
       </c>
       <c r="J8" t="n">
-        <v>14.98</v>
+        <v>26.643</v>
       </c>
       <c r="K8" t="n">
-        <v>15.554</v>
+        <v>26.651</v>
       </c>
       <c r="L8" t="n">
-        <v>15.08066666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4318904182004196</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLexponential_2</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -2130,41 +4384,41 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.653</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.638</v>
+        <v>-0.012</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6526666666666667</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01450287327853807</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I9" t="n">
-        <v>14.684</v>
+        <v>25.025</v>
       </c>
       <c r="J9" t="n">
-        <v>15.373</v>
+        <v>26.643</v>
       </c>
       <c r="K9" t="n">
-        <v>15.932</v>
+        <v>26.651</v>
       </c>
       <c r="L9" t="n">
-        <v>15.32966666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6251274536711166</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLexponential_3</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -2173,41 +4427,41 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.59</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.656</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.579</v>
+        <v>-0.012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6083333333333333</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04164532786920205</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I10" t="n">
-        <v>15.945</v>
+        <v>25.025</v>
       </c>
       <c r="J10" t="n">
-        <v>15.623</v>
+        <v>26.643</v>
       </c>
       <c r="K10" t="n">
-        <v>17.187</v>
+        <v>26.651</v>
       </c>
       <c r="L10" t="n">
-        <v>16.25166666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8258676245823751</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLexponential_4</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -2216,41 +4470,41 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.534</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.609</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.538</v>
+        <v>-0.012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5603333333333333</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04219399641339193</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I11" t="n">
-        <v>17.011</v>
+        <v>25.025</v>
       </c>
       <c r="J11" t="n">
-        <v>16.663</v>
+        <v>26.643</v>
       </c>
       <c r="K11" t="n">
-        <v>18.015</v>
+        <v>26.651</v>
       </c>
       <c r="L11" t="n">
-        <v>17.22966666666666</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7020237412889494</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLexponential_5</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -2259,41 +4513,41 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.332</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.413</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.313</v>
+        <v>-0.012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3526666666666667</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05310681061157158</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I12" t="n">
-        <v>20.365</v>
+        <v>25.025</v>
       </c>
       <c r="J12" t="n">
-        <v>20.415</v>
+        <v>26.643</v>
       </c>
       <c r="K12" t="n">
-        <v>21.958</v>
+        <v>26.651</v>
       </c>
       <c r="L12" t="n">
-        <v>20.91266666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9056303513759535</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLexponential_6</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -2302,41 +4556,41 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.364</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.342</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.321</v>
+        <v>-0.012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3423333333333334</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02150193789716017</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I13" t="n">
-        <v>19.873</v>
+        <v>25.025</v>
       </c>
       <c r="J13" t="n">
-        <v>21.612</v>
+        <v>26.643</v>
       </c>
       <c r="K13" t="n">
-        <v>21.84</v>
+        <v>26.651</v>
       </c>
       <c r="L13" t="n">
-        <v>21.10833333333333</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M13" t="n">
-        <v>1.075886766036896</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_4</t>
+          <t>WLgaussian_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -2345,41 +4599,41 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.401</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.35</v>
+        <v>-0.012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3783333333333334</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02596792893808312</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I14" t="n">
-        <v>19.288</v>
+        <v>25.025</v>
       </c>
       <c r="J14" t="n">
-        <v>20.903</v>
+        <v>26.643</v>
       </c>
       <c r="K14" t="n">
-        <v>21.364</v>
+        <v>26.651</v>
       </c>
       <c r="L14" t="n">
-        <v>20.51833333333333</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>1.090146931992809</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_5</t>
+          <t>WLgaussian_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2388,41 +4642,41 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.46</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.391</v>
+        <v>-0.012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4326666666666667</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03666515148384544</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I15" t="n">
-        <v>18.306</v>
+        <v>25.025</v>
       </c>
       <c r="J15" t="n">
-        <v>19.806</v>
+        <v>26.643</v>
       </c>
       <c r="K15" t="n">
-        <v>20.678</v>
+        <v>26.651</v>
       </c>
       <c r="L15" t="n">
-        <v>19.59666666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M15" t="n">
-        <v>1.199775534561917</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLgaussian_4</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2431,41 +4685,41 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.545</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.602</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.542</v>
+        <v>-0.012</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5630000000000001</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0338082830087539</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I16" t="n">
-        <v>16.799</v>
+        <v>25.025</v>
       </c>
       <c r="J16" t="n">
-        <v>16.81</v>
+        <v>26.643</v>
       </c>
       <c r="K16" t="n">
-        <v>17.924</v>
+        <v>26.651</v>
       </c>
       <c r="L16" t="n">
-        <v>17.17766666666666</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6463670267992742</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLgaussian_5</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2474,41 +4728,41 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.637</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.546</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.474</v>
+        <v>-0.012</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5523333333333333</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08168435182660957</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I17" t="n">
-        <v>15.017</v>
+        <v>25.025</v>
       </c>
       <c r="J17" t="n">
-        <v>17.944</v>
+        <v>26.643</v>
       </c>
       <c r="K17" t="n">
-        <v>19.207</v>
+        <v>26.651</v>
       </c>
       <c r="L17" t="n">
-        <v>17.38933333333333</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>2.149364169547202</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLgaussian_6</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2517,41 +4771,41 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.634</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.615</v>
+        <v>-0.012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6393333333333334</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02739221300540237</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I18" t="n">
-        <v>15.083</v>
+        <v>25.025</v>
       </c>
       <c r="J18" t="n">
-        <v>15.329</v>
+        <v>26.643</v>
       </c>
       <c r="K18" t="n">
-        <v>16.443</v>
+        <v>26.651</v>
       </c>
       <c r="L18" t="n">
-        <v>15.61833333333333</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7246967181748061</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLinversemultiquadratic_2</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -2560,41 +4814,41 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.607</v>
+        <v>0.378</v>
       </c>
       <c r="E19" t="n">
-        <v>0.697</v>
+        <v>0.468</v>
       </c>
       <c r="F19" t="n">
-        <v>0.597</v>
+        <v>0.329</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6336666666666667</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05507570547286101</v>
+        <v>0.07050059101407118</v>
       </c>
       <c r="I19" t="n">
-        <v>15.62</v>
+        <v>19.649</v>
       </c>
       <c r="J19" t="n">
-        <v>14.677</v>
+        <v>19.439</v>
       </c>
       <c r="K19" t="n">
-        <v>16.818</v>
+        <v>21.701</v>
       </c>
       <c r="L19" t="n">
-        <v>15.705</v>
+        <v>20.263</v>
       </c>
       <c r="M19" t="n">
-        <v>1.073027958629225</v>
+        <v>1.249763177566054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLinversemultiquadratic_3</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2603,41 +4857,41 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.525</v>
+        <v>-0.011</v>
       </c>
       <c r="E20" t="n">
-        <v>0.586</v>
+        <v>0.453</v>
       </c>
       <c r="F20" t="n">
-        <v>0.525</v>
+        <v>0.335</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5453333333333333</v>
+        <v>0.259</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03521836642056714</v>
+        <v>0.2411555514600483</v>
       </c>
       <c r="I20" t="n">
-        <v>17.167</v>
+        <v>25.052</v>
       </c>
       <c r="J20" t="n">
-        <v>17.137</v>
+        <v>19.696</v>
       </c>
       <c r="K20" t="n">
-        <v>18.263</v>
+        <v>21.612</v>
       </c>
       <c r="L20" t="n">
-        <v>17.52233333333334</v>
+        <v>22.12</v>
       </c>
       <c r="M20" t="n">
-        <v>0.641611512781164</v>
+        <v>2.713896092336624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLinversemultiquadratic_4</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -2646,41 +4900,41 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.619</v>
+        <v>0.463</v>
       </c>
       <c r="E21" t="n">
-        <v>0.474</v>
+        <v>0.286</v>
       </c>
       <c r="F21" t="n">
-        <v>0.513</v>
+        <v>0.339</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5353333333333333</v>
+        <v>0.3626666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07503554713156514</v>
+        <v>0.09084235429211056</v>
       </c>
       <c r="I21" t="n">
-        <v>15.375</v>
+        <v>18.257</v>
       </c>
       <c r="J21" t="n">
-        <v>19.33</v>
+        <v>22.51</v>
       </c>
       <c r="K21" t="n">
-        <v>18.494</v>
+        <v>21.545</v>
       </c>
       <c r="L21" t="n">
-        <v>17.733</v>
+        <v>20.77066666666667</v>
       </c>
       <c r="M21" t="n">
-        <v>2.084429658203893</v>
+        <v>2.229730103248672</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLinversemultiquadratic_5</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2689,41 +4943,41 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.652</v>
+        <v>0.649</v>
       </c>
       <c r="E22" t="n">
-        <v>0.648</v>
+        <v>0.68</v>
       </c>
       <c r="F22" t="n">
-        <v>0.611</v>
+        <v>0.601</v>
       </c>
       <c r="G22" t="n">
-        <v>0.637</v>
+        <v>0.6433333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02260530911091465</v>
+        <v>0.03980368492154132</v>
       </c>
       <c r="I22" t="n">
-        <v>14.697</v>
+        <v>14.764</v>
       </c>
       <c r="J22" t="n">
-        <v>15.813</v>
+        <v>15.076</v>
       </c>
       <c r="K22" t="n">
-        <v>16.524</v>
+        <v>16.745</v>
       </c>
       <c r="L22" t="n">
-        <v>15.678</v>
+        <v>15.52833333333333</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9209511387690454</v>
+        <v>1.065149911201862</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLinversemultiquadratic_6</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -2732,41 +4986,41 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.612</v>
+        <v>0.576</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.599</v>
+        <v>0.597</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6243333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04864497233356527</v>
+        <v>0.06636515149785566</v>
       </c>
       <c r="I23" t="n">
-        <v>15.524</v>
+        <v>16.232</v>
       </c>
       <c r="J23" t="n">
-        <v>14.854</v>
+        <v>14.596</v>
       </c>
       <c r="K23" t="n">
-        <v>16.783</v>
+        <v>16.825</v>
       </c>
       <c r="L23" t="n">
-        <v>15.72033333333333</v>
+        <v>15.88433333333333</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9793724180991292</v>
+        <v>1.154454127860147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_2</t>
+          <t>WLlaplacian_2</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -2775,41 +5029,41 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.574</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.599</v>
+        <v>-0.012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.604</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03278719262151003</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I24" t="n">
-        <v>16.254</v>
+        <v>25.025</v>
       </c>
       <c r="J24" t="n">
-        <v>16</v>
+        <v>26.643</v>
       </c>
       <c r="K24" t="n">
-        <v>16.768</v>
+        <v>26.651</v>
       </c>
       <c r="L24" t="n">
-        <v>16.34066666666667</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3912663202133983</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_3</t>
+          <t>WLlaplacian_3</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -2818,41 +5072,41 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.651</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.649</v>
+        <v>-0.012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6396666666666667</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01792577287966502</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I25" t="n">
-        <v>14.723</v>
+        <v>25.025</v>
       </c>
       <c r="J25" t="n">
-        <v>16.451</v>
+        <v>26.643</v>
       </c>
       <c r="K25" t="n">
-        <v>15.704</v>
+        <v>26.651</v>
       </c>
       <c r="L25" t="n">
-        <v>15.626</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8666366020426323</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_4</t>
+          <t>WLlaplacian_4</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -2861,84 +5115,2062 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.625</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6909999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.614</v>
+        <v>-0.012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6433333333333333</v>
+        <v>-0.006999999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04164532786920198</v>
+        <v>0.006244997998398399</v>
       </c>
       <c r="I26" t="n">
-        <v>15.248</v>
+        <v>25.025</v>
       </c>
       <c r="J26" t="n">
-        <v>14.8</v>
+        <v>26.643</v>
       </c>
       <c r="K26" t="n">
-        <v>16.467</v>
+        <v>26.651</v>
       </c>
       <c r="L26" t="n">
-        <v>15.505</v>
+        <v>26.10633333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8627044685174631</v>
+        <v>0.9364706793772751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
+          <t>WLlaplacian_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.006999999999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.006244997998398399</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25.025</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.643</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26.651</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26.10633333333333</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9364706793772751</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>WLlaplacian_6</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.006999999999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.006244997998398399</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25.025</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.643</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26.651</v>
+      </c>
+      <c r="L28" t="n">
+        <v>26.10633333333333</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9364706793772751</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6590000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01212435565298215</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.693</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.707</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5075256972147656</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6576666666666666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00351188458428425</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.646</v>
+      </c>
+      <c r="J30" t="n">
+        <v>15.516</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.488</v>
+      </c>
+      <c r="L30" t="n">
+        <v>15.21666666666667</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.4944100861970079</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6503333333333333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04972256362390551</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.162</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14.427</v>
+      </c>
+      <c r="K31" t="n">
+        <v>16.453</v>
+      </c>
+      <c r="L31" t="n">
+        <v>15.34733333333333</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.025636550310749</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6236666666666666</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.05919740985324723</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.935</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.787</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17.002</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15.908</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.107746812227414</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_6</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.06035726965329033</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16.621</v>
+      </c>
+      <c r="J33" t="n">
+        <v>15.382</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17.339</v>
+      </c>
+      <c r="L33" t="n">
+        <v>16.44733333333333</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9899910774008684</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_2</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04948737212663449</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27.065</v>
+      </c>
+      <c r="K34" t="n">
+        <v>27.965</v>
+      </c>
+      <c r="L34" t="n">
+        <v>26.75333333333333</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.393882467546433</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_3</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.139</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.08366666666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04842864166310401</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25.519</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27.469</v>
+      </c>
+      <c r="K35" t="n">
+        <v>28.283</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27.09033333333333</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.420375067837132</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_4</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.124</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.227</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05372460640463859</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28.558</v>
+      </c>
+      <c r="K36" t="n">
+        <v>29.347</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28.10833333333333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.514424753275425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_5</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.401</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.485</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.4136666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0659191423892433</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29.006</v>
+      </c>
+      <c r="J37" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32.283</v>
+      </c>
+      <c r="L37" t="n">
+        <v>30.93966666666667</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.716406808811167</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLlog_6</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.218</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1.439</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.585</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.414</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1847728335010317</v>
+      </c>
+      <c r="I38" t="n">
+        <v>37.105</v>
+      </c>
+      <c r="J38" t="n">
+        <v>41.607</v>
+      </c>
+      <c r="K38" t="n">
+        <v>42.596</v>
+      </c>
+      <c r="L38" t="n">
+        <v>40.436</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.926807304897267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_2</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-159.216</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-171.979</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-156.502</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-162.5656666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.264356135436891</v>
+      </c>
+      <c r="I39" t="n">
+        <v>315.364</v>
+      </c>
+      <c r="J39" t="n">
+        <v>350.383</v>
+      </c>
+      <c r="K39" t="n">
+        <v>332.518</v>
+      </c>
+      <c r="L39" t="n">
+        <v>332.7549999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>17.51070292706721</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_3</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-409.151</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-434.023</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-388.551</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-410.575</v>
+      </c>
+      <c r="H40" t="n">
+        <v>22.76942089733511</v>
+      </c>
+      <c r="I40" t="n">
+        <v>504.58</v>
+      </c>
+      <c r="J40" t="n">
+        <v>555.651</v>
+      </c>
+      <c r="K40" t="n">
+        <v>522.944</v>
+      </c>
+      <c r="L40" t="n">
+        <v>527.7249999999999</v>
+      </c>
+      <c r="M40" t="n">
+        <v>25.86900135297069</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_4</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-689.355</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-742.357</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-669.325</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-700.3456666666667</v>
+      </c>
+      <c r="H41" t="n">
+        <v>37.73611428503643</v>
+      </c>
+      <c r="I41" t="n">
+        <v>654.628</v>
+      </c>
+      <c r="J41" t="n">
+        <v>726.348</v>
+      </c>
+      <c r="K41" t="n">
+        <v>685.987</v>
+      </c>
+      <c r="L41" t="n">
+        <v>688.9876666666668</v>
+      </c>
+      <c r="M41" t="n">
+        <v>35.95403454875864</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_5</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-1055.191</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-1148.153</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1047.066</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1083.47</v>
+      </c>
+      <c r="H42" t="n">
+        <v>56.16423927197803</v>
+      </c>
+      <c r="I42" t="n">
+        <v>809.71</v>
+      </c>
+      <c r="J42" t="n">
+        <v>903.097</v>
+      </c>
+      <c r="K42" t="n">
+        <v>857.763</v>
+      </c>
+      <c r="L42" t="n">
+        <v>856.8566666666667</v>
+      </c>
+      <c r="M42" t="n">
+        <v>46.70009659875803</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>WLmultiquadratic_6</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-1500.206</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1661.644</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1527.05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1562.966666666666</v>
+      </c>
+      <c r="H43" t="n">
+        <v>86.50469449303513</v>
+      </c>
+      <c r="I43" t="n">
+        <v>965.336</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1086.289</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1035.718</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1029.114333333333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>60.74630328121484</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6636666666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01767295485574876</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14.708</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.554</v>
+      </c>
+      <c r="L44" t="n">
+        <v>15.08066666666667</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4318904182004196</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6526666666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.01450287327853807</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14.684</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.373</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.932</v>
+      </c>
+      <c r="L45" t="n">
+        <v>15.32966666666667</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6251274536711166</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.04164532786920205</v>
+      </c>
+      <c r="I46" t="n">
+        <v>15.945</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15.623</v>
+      </c>
+      <c r="K46" t="n">
+        <v>17.187</v>
+      </c>
+      <c r="L46" t="n">
+        <v>16.25166666666667</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8258676245823751</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5603333333333333</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04219399641339193</v>
+      </c>
+      <c r="I47" t="n">
+        <v>17.011</v>
+      </c>
+      <c r="J47" t="n">
+        <v>16.663</v>
+      </c>
+      <c r="K47" t="n">
+        <v>18.015</v>
+      </c>
+      <c r="L47" t="n">
+        <v>17.22966666666666</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7020237412889494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_6</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02720906711619005</v>
+      </c>
+      <c r="I48" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17.903</v>
+      </c>
+      <c r="K48" t="n">
+        <v>18.682</v>
+      </c>
+      <c r="L48" t="n">
+        <v>18.075</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5418754469432981</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_2</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.117</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.04956813492557493</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25.254</v>
+      </c>
+      <c r="J49" t="n">
+        <v>27.122</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27.998</v>
+      </c>
+      <c r="L49" t="n">
+        <v>26.79133333333334</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.401566742375593</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_3</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.091</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.187</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.1256666666666667</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.05326662494783514</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.023</v>
+      </c>
+      <c r="J50" t="n">
+        <v>27.934</v>
+      </c>
+      <c r="K50" t="n">
+        <v>28.869</v>
+      </c>
+      <c r="L50" t="n">
+        <v>27.60866666666666</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.450624118554953</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_4</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.504</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.587</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.666</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.5856666666666667</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.08100823003456709</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30.557</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.558</v>
+      </c>
+      <c r="K51" t="n">
+        <v>34.195</v>
+      </c>
+      <c r="L51" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.942799269096013</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_5</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-8.584</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-10.926</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-6.318</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-8.609333333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.304104453650775</v>
+      </c>
+      <c r="I52" t="n">
+        <v>77.133</v>
+      </c>
+      <c r="J52" t="n">
+        <v>92</v>
+      </c>
+      <c r="K52" t="n">
+        <v>71.676</v>
+      </c>
+      <c r="L52" t="n">
+        <v>80.26966666666665</v>
+      </c>
+      <c r="M52" t="n">
+        <v>10.51880470078865</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WLpower_6</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-30.318</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-38.241</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-34.311</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-34.29</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.961541745330976</v>
+      </c>
+      <c r="I53" t="n">
+        <v>139.429</v>
+      </c>
+      <c r="J53" t="n">
+        <v>166.885</v>
+      </c>
+      <c r="K53" t="n">
+        <v>157.444</v>
+      </c>
+      <c r="L53" t="n">
+        <v>154.586</v>
+      </c>
+      <c r="M53" t="n">
+        <v>13.94934073711012</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3526666666666667</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.05310681061157158</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20.365</v>
+      </c>
+      <c r="J54" t="n">
+        <v>20.415</v>
+      </c>
+      <c r="K54" t="n">
+        <v>21.958</v>
+      </c>
+      <c r="L54" t="n">
+        <v>20.91266666666667</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.9056303513759535</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3423333333333334</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02150193789716017</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19.873</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21.612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="L55" t="n">
+        <v>21.10833333333333</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.075886766036896</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_4</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3783333333333334</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02596792893808312</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19.288</v>
+      </c>
+      <c r="J56" t="n">
+        <v>20.903</v>
+      </c>
+      <c r="K56" t="n">
+        <v>21.364</v>
+      </c>
+      <c r="L56" t="n">
+        <v>20.51833333333333</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.090146931992809</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_5</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4326666666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.03666515148384544</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18.306</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19.806</v>
+      </c>
+      <c r="K57" t="n">
+        <v>20.678</v>
+      </c>
+      <c r="L57" t="n">
+        <v>19.59666666666667</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.199775534561917</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_6</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.04400000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="J58" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="K58" t="n">
+        <v>20.152</v>
+      </c>
+      <c r="L58" t="n">
+        <v>19.014</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.008716015536583</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_2</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5630000000000001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0338082830087539</v>
+      </c>
+      <c r="I59" t="n">
+        <v>16.799</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="K59" t="n">
+        <v>17.924</v>
+      </c>
+      <c r="L59" t="n">
+        <v>17.17766666666666</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6463670267992742</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_3</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.5523333333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.08168435182660957</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15.017</v>
+      </c>
+      <c r="J60" t="n">
+        <v>17.944</v>
+      </c>
+      <c r="K60" t="n">
+        <v>19.207</v>
+      </c>
+      <c r="L60" t="n">
+        <v>17.38933333333333</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2.149364169547202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_4</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6393333333333334</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.02739221300540237</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15.083</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15.329</v>
+      </c>
+      <c r="K61" t="n">
+        <v>16.443</v>
+      </c>
+      <c r="L61" t="n">
+        <v>15.61833333333333</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7246967181748061</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_5</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6336666666666667</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.05507570547286101</v>
+      </c>
+      <c r="I62" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="J62" t="n">
+        <v>14.677</v>
+      </c>
+      <c r="K62" t="n">
+        <v>16.818</v>
+      </c>
+      <c r="L62" t="n">
+        <v>15.705</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.073027958629225</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidarctangent_6</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.06248199740725322</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15.941</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14.525</v>
+      </c>
+      <c r="K63" t="n">
+        <v>16.775</v>
+      </c>
+      <c r="L63" t="n">
+        <v>15.747</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.137476153596197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_2</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.5453333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.03521836642056714</v>
+      </c>
+      <c r="I64" t="n">
+        <v>17.167</v>
+      </c>
+      <c r="J64" t="n">
+        <v>17.137</v>
+      </c>
+      <c r="K64" t="n">
+        <v>18.263</v>
+      </c>
+      <c r="L64" t="n">
+        <v>17.52233333333334</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.641611512781164</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_3</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.5353333333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.07503554713156514</v>
+      </c>
+      <c r="I65" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="K65" t="n">
+        <v>18.494</v>
+      </c>
+      <c r="L65" t="n">
+        <v>17.733</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.084429658203893</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_4</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.02260530911091465</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.697</v>
+      </c>
+      <c r="J66" t="n">
+        <v>15.813</v>
+      </c>
+      <c r="K66" t="n">
+        <v>16.524</v>
+      </c>
+      <c r="L66" t="n">
+        <v>15.678</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.9209511387690454</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_5</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.04864497233356527</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15.524</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14.854</v>
+      </c>
+      <c r="K67" t="n">
+        <v>16.783</v>
+      </c>
+      <c r="L67" t="n">
+        <v>15.72033333333333</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.9793724180991292</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidhyperbolictangent_6</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.05771481612203229</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14.843</v>
+      </c>
+      <c r="K68" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>15.90433333333333</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.134480644759237</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_2</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.03278719262151003</v>
+      </c>
+      <c r="I69" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="J69" t="n">
+        <v>16</v>
+      </c>
+      <c r="K69" t="n">
+        <v>16.768</v>
+      </c>
+      <c r="L69" t="n">
+        <v>16.34066666666667</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.3912663202133983</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_3</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6396666666666667</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01792577287966502</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14.723</v>
+      </c>
+      <c r="J70" t="n">
+        <v>16.451</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.704</v>
+      </c>
+      <c r="L70" t="n">
+        <v>15.626</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.8666366020426323</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_4</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.6433333333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.04164532786920198</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.248</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>16.467</v>
+      </c>
+      <c r="L71" t="n">
+        <v>15.505</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8627044685174631</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
           <t>WLsigmoidlogistic_5</t>
         </is>
       </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>0.588</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E72" t="n">
         <v>0.6840000000000001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F72" t="n">
         <v>0.588</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G72" t="n">
         <v>0.62</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H72" t="n">
         <v>0.05542562584220413</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I72" t="n">
         <v>15.992</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J72" t="n">
         <v>14.98</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K72" t="n">
         <v>17.008</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L72" t="n">
         <v>15.99333333333333</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M72" t="n">
         <v>1.014000657461982</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_6</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.5923333333333334</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.05300314456080256</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16.621</v>
+      </c>
+      <c r="J73" t="n">
+        <v>15.682</v>
+      </c>
+      <c r="K73" t="n">
+        <v>17.391</v>
+      </c>
+      <c r="L73" t="n">
+        <v>16.56466666666667</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8558915429733673</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A4:A73"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,7 +2073,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>WLlog_2</t>
+          <t>WLmultiquadratic_2</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -2082,47 +2082,47 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.004</v>
+        <v>-169.175</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.028</v>
+        <v>-164.628</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.053</v>
+        <v>-179.676</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.118</v>
+        <v>-169.962</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.05075</v>
+        <v>-170.86025</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04909429702114085</v>
+        <v>6.329963368772365</v>
       </c>
       <c r="J34" t="n">
-        <v>27.371</v>
+        <v>356.342</v>
       </c>
       <c r="K34" t="n">
-        <v>28.491</v>
+        <v>361.581</v>
       </c>
       <c r="L34" t="n">
-        <v>27.476</v>
+        <v>359.945</v>
       </c>
       <c r="M34" t="n">
-        <v>28.242</v>
+        <v>349.236</v>
       </c>
       <c r="N34" t="n">
-        <v>27.895</v>
+        <v>356.776</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5555063756009774</v>
+        <v>5.482412546802132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>WLlog_3</t>
+          <t>WLmultiquadratic_3</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -2131,47 +2131,47 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.026</v>
+        <v>-417.064</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.063</v>
+        <v>-406.597</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.09</v>
+        <v>-428.584</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.153</v>
+        <v>-418.722</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.08299999999999999</v>
+        <v>-417.74175</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05353503525729669</v>
+        <v>9.003334063001336</v>
       </c>
       <c r="J35" t="n">
-        <v>27.675</v>
+        <v>558.522</v>
       </c>
       <c r="K35" t="n">
-        <v>28.964</v>
+        <v>567.224</v>
       </c>
       <c r="L35" t="n">
-        <v>27.956</v>
+        <v>555.022</v>
       </c>
       <c r="M35" t="n">
-        <v>28.68</v>
+        <v>547.205</v>
       </c>
       <c r="N35" t="n">
-        <v>28.31875</v>
+        <v>556.99325</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6035590968027343</v>
+        <v>8.300622200574287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>WLlog_4</t>
+          <t>WLmultiquadratic_4</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -2180,47 +2180,47 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.11</v>
+        <v>-705.731</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.172</v>
+        <v>-691.111</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.21</v>
+        <v>-738.0890000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.26</v>
+        <v>-745.054</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.188</v>
+        <v>-719.99625</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06326663154196427</v>
+        <v>25.7752689138898</v>
       </c>
       <c r="J36" t="n">
-        <v>28.779</v>
+        <v>726.183</v>
       </c>
       <c r="K36" t="n">
-        <v>30.412</v>
+        <v>739.141</v>
       </c>
       <c r="L36" t="n">
-        <v>29.462</v>
+        <v>728.005</v>
       </c>
       <c r="M36" t="n">
-        <v>29.977</v>
+        <v>729.548</v>
       </c>
       <c r="N36" t="n">
-        <v>29.6575</v>
+        <v>730.7192500000001</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7026931525685065</v>
+        <v>5.780496424760289</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>WLlog_5</t>
+          <t>WLmultiquadratic_5</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
@@ -2229,47 +2229,47 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.378</v>
+        <v>-1089.807</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.483</v>
+        <v>-1069.848</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.552</v>
+        <v>-1152.271</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.578</v>
+        <v>-1231.197</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.49775</v>
+        <v>-1135.78075</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08933224501824635</v>
+        <v>72.65650308300003</v>
       </c>
       <c r="J37" t="n">
-        <v>32.068</v>
+        <v>902.179</v>
       </c>
       <c r="K37" t="n">
-        <v>34.21</v>
+        <v>919.397</v>
       </c>
       <c r="L37" t="n">
-        <v>33.363</v>
+        <v>909.393</v>
       </c>
       <c r="M37" t="n">
-        <v>33.552</v>
+        <v>937.581</v>
       </c>
       <c r="N37" t="n">
-        <v>33.29825</v>
+        <v>917.1375</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8969178241808642</v>
+        <v>15.34900686255196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>WLlog_6</t>
+          <t>WLmultiquadratic_6</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -2278,47 +2278,47 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1.525</v>
+        <v>-1577.458</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.267</v>
+        <v>-1565.581</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.961</v>
+        <v>-1679.063</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.867</v>
+        <v>-1766.5</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.905</v>
+        <v>-1647.1505</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3055181391232497</v>
+        <v>94.46928723664641</v>
       </c>
       <c r="J38" t="n">
-        <v>43.404</v>
+        <v>1085.264</v>
       </c>
       <c r="K38" t="n">
-        <v>50.781</v>
+        <v>1112.028</v>
       </c>
       <c r="L38" t="n">
-        <v>46.082</v>
+        <v>1097.611</v>
       </c>
       <c r="M38" t="n">
-        <v>45.224</v>
+        <v>1122.919</v>
       </c>
       <c r="N38" t="n">
-        <v>46.37275</v>
+        <v>1104.4555</v>
       </c>
       <c r="O38" t="n">
-        <v>3.143793183931368</v>
+        <v>16.46617179755722</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_2</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -2327,47 +2327,47 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-169.175</v>
+        <v>0.446</v>
       </c>
       <c r="E39" t="n">
-        <v>-164.628</v>
+        <v>0.665</v>
       </c>
       <c r="F39" t="n">
-        <v>-179.676</v>
+        <v>0.724</v>
       </c>
       <c r="G39" t="n">
-        <v>-169.962</v>
+        <v>0.732</v>
       </c>
       <c r="H39" t="n">
-        <v>-170.86025</v>
+        <v>0.64175</v>
       </c>
       <c r="I39" t="n">
-        <v>6.329963368772365</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="J39" t="n">
-        <v>356.342</v>
+        <v>20.332</v>
       </c>
       <c r="K39" t="n">
-        <v>361.581</v>
+        <v>16.254</v>
       </c>
       <c r="L39" t="n">
-        <v>359.945</v>
+        <v>14.07</v>
       </c>
       <c r="M39" t="n">
-        <v>349.236</v>
+        <v>13.83</v>
       </c>
       <c r="N39" t="n">
-        <v>356.776</v>
+        <v>16.1215</v>
       </c>
       <c r="O39" t="n">
-        <v>5.482412546802132</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_3</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -2376,47 +2376,47 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-417.064</v>
+        <v>0.4</v>
       </c>
       <c r="E40" t="n">
-        <v>-406.597</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>-428.584</v>
+        <v>0.781</v>
       </c>
       <c r="G40" t="n">
-        <v>-418.722</v>
+        <v>0.786</v>
       </c>
       <c r="H40" t="n">
-        <v>-417.74175</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>9.003334063001336</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="J40" t="n">
-        <v>558.522</v>
+        <v>21.161</v>
       </c>
       <c r="K40" t="n">
-        <v>567.224</v>
+        <v>15.603</v>
       </c>
       <c r="L40" t="n">
-        <v>555.022</v>
+        <v>12.527</v>
       </c>
       <c r="M40" t="n">
-        <v>547.205</v>
+        <v>12.357</v>
       </c>
       <c r="N40" t="n">
-        <v>556.99325</v>
+        <v>15.412</v>
       </c>
       <c r="O40" t="n">
-        <v>8.300622200574287</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_4</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -2425,47 +2425,47 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-705.731</v>
+        <v>0.408</v>
       </c>
       <c r="E41" t="n">
-        <v>-691.111</v>
+        <v>0.665</v>
       </c>
       <c r="F41" t="n">
-        <v>-738.0890000000001</v>
+        <v>0.766</v>
       </c>
       <c r="G41" t="n">
-        <v>-745.054</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>-719.99625</v>
+        <v>0.6617500000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>25.7752689138898</v>
+        <v>0.1794962859411489</v>
       </c>
       <c r="J41" t="n">
-        <v>726.183</v>
+        <v>21.019</v>
       </c>
       <c r="K41" t="n">
-        <v>739.141</v>
+        <v>16.263</v>
       </c>
       <c r="L41" t="n">
-        <v>728.005</v>
+        <v>12.945</v>
       </c>
       <c r="M41" t="n">
-        <v>729.548</v>
+        <v>11.709</v>
       </c>
       <c r="N41" t="n">
-        <v>730.7192500000001</v>
+        <v>15.484</v>
       </c>
       <c r="O41" t="n">
-        <v>5.780496424760289</v>
+        <v>4.160937875046922</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_5</t>
+          <t>WLpolynomial_5</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
@@ -2474,47 +2474,47 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1089.807</v>
+        <v>0.442</v>
       </c>
       <c r="E42" t="n">
-        <v>-1069.848</v>
+        <v>0.648</v>
       </c>
       <c r="F42" t="n">
-        <v>-1152.271</v>
+        <v>0.747</v>
       </c>
       <c r="G42" t="n">
-        <v>-1231.197</v>
+        <v>0.797</v>
       </c>
       <c r="H42" t="n">
-        <v>-1135.78075</v>
+        <v>0.6585000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>72.65650308300003</v>
+        <v>0.1570530695868969</v>
       </c>
       <c r="J42" t="n">
-        <v>902.179</v>
+        <v>20.411</v>
       </c>
       <c r="K42" t="n">
-        <v>919.397</v>
+        <v>16.666</v>
       </c>
       <c r="L42" t="n">
-        <v>909.393</v>
+        <v>13.457</v>
       </c>
       <c r="M42" t="n">
-        <v>937.581</v>
+        <v>12.032</v>
       </c>
       <c r="N42" t="n">
-        <v>917.1375</v>
+        <v>15.6415</v>
       </c>
       <c r="O42" t="n">
-        <v>15.34900686255196</v>
+        <v>3.723719511456254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_6</t>
+          <t>WLpolynomial_6</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
@@ -2523,47 +2523,47 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-1577.458</v>
+        <v>0.466</v>
       </c>
       <c r="E43" t="n">
-        <v>-1565.581</v>
+        <v>0.634</v>
       </c>
       <c r="F43" t="n">
-        <v>-1679.063</v>
+        <v>0.73</v>
       </c>
       <c r="G43" t="n">
-        <v>-1766.5</v>
+        <v>0.779</v>
       </c>
       <c r="H43" t="n">
-        <v>-1647.1505</v>
+        <v>0.65225</v>
       </c>
       <c r="I43" t="n">
-        <v>94.46928723664641</v>
+        <v>0.1380009057941287</v>
       </c>
       <c r="J43" t="n">
-        <v>1085.264</v>
+        <v>19.963</v>
       </c>
       <c r="K43" t="n">
-        <v>1112.028</v>
+        <v>17.008</v>
       </c>
       <c r="L43" t="n">
-        <v>1097.611</v>
+        <v>13.909</v>
       </c>
       <c r="M43" t="n">
-        <v>1122.919</v>
+        <v>12.556</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.4555</v>
+        <v>15.859</v>
       </c>
       <c r="O43" t="n">
-        <v>16.46617179755722</v>
+        <v>3.31035375753106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrationalquadratic_2</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -2572,47 +2572,47 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.446</v>
+        <v>-3.297</v>
       </c>
       <c r="E44" t="n">
-        <v>0.665</v>
+        <v>-3.567</v>
       </c>
       <c r="F44" t="n">
-        <v>0.724</v>
+        <v>-3.689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.732</v>
+        <v>-3.455</v>
       </c>
       <c r="H44" t="n">
-        <v>0.64175</v>
+        <v>-3.502</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1338764978129719</v>
+        <v>0.16676130646326</v>
       </c>
       <c r="J44" t="n">
-        <v>20.332</v>
+        <v>56.621</v>
       </c>
       <c r="K44" t="n">
-        <v>16.254</v>
+        <v>60.039</v>
       </c>
       <c r="L44" t="n">
-        <v>14.07</v>
+        <v>57.989</v>
       </c>
       <c r="M44" t="n">
-        <v>13.83</v>
+        <v>56.376</v>
       </c>
       <c r="N44" t="n">
-        <v>16.1215</v>
+        <v>57.75625</v>
       </c>
       <c r="O44" t="n">
-        <v>3.011394527457337</v>
+        <v>1.679186583835559</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrationalquadratic_3</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
@@ -2621,47 +2621,47 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>-6.549</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6919999999999999</v>
+        <v>-6.93</v>
       </c>
       <c r="F45" t="n">
-        <v>0.781</v>
+        <v>-7.421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.786</v>
+        <v>-6.911</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6647500000000001</v>
+        <v>-6.95275</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1817055768727715</v>
+        <v>0.3580189706333078</v>
       </c>
       <c r="J45" t="n">
-        <v>21.161</v>
+        <v>75.054</v>
       </c>
       <c r="K45" t="n">
-        <v>15.603</v>
+        <v>79.119</v>
       </c>
       <c r="L45" t="n">
-        <v>12.527</v>
+        <v>77.708</v>
       </c>
       <c r="M45" t="n">
-        <v>12.357</v>
+        <v>75.125</v>
       </c>
       <c r="N45" t="n">
-        <v>15.412</v>
+        <v>76.75149999999999</v>
       </c>
       <c r="O45" t="n">
-        <v>4.112733559730479</v>
+        <v>2.003909262749521</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLrationalquadratic_4</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -2670,47 +2670,47 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.408</v>
+        <v>-10.049</v>
       </c>
       <c r="E46" t="n">
-        <v>0.665</v>
+        <v>-10.483</v>
       </c>
       <c r="F46" t="n">
-        <v>0.766</v>
+        <v>-11.368</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8080000000000001</v>
+        <v>-10.64</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6617500000000001</v>
+        <v>-10.635</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1794962859411489</v>
+        <v>0.5488818937925842</v>
       </c>
       <c r="J46" t="n">
-        <v>21.019</v>
+        <v>90.797</v>
       </c>
       <c r="K46" t="n">
-        <v>16.263</v>
+        <v>95.206</v>
       </c>
       <c r="L46" t="n">
-        <v>12.945</v>
+        <v>94.175</v>
       </c>
       <c r="M46" t="n">
-        <v>11.709</v>
+        <v>91.128</v>
       </c>
       <c r="N46" t="n">
-        <v>15.484</v>
+        <v>92.8265</v>
       </c>
       <c r="O46" t="n">
-        <v>4.160937875046922</v>
+        <v>2.197289618294929</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLrationalquadratic_5</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -2719,47 +2719,47 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.442</v>
+        <v>-14.201</v>
       </c>
       <c r="E47" t="n">
-        <v>0.648</v>
+        <v>-14.669</v>
       </c>
       <c r="F47" t="n">
-        <v>0.747</v>
+        <v>-16.014</v>
       </c>
       <c r="G47" t="n">
-        <v>0.797</v>
+        <v>-15.067</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6585000000000001</v>
+        <v>-14.98775</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1570530695868969</v>
+        <v>0.7702914491714586</v>
       </c>
       <c r="J47" t="n">
-        <v>20.411</v>
+        <v>106.503</v>
       </c>
       <c r="K47" t="n">
-        <v>16.666</v>
+        <v>111.214</v>
       </c>
       <c r="L47" t="n">
-        <v>13.457</v>
+        <v>110.457</v>
       </c>
       <c r="M47" t="n">
-        <v>12.032</v>
+        <v>107.064</v>
       </c>
       <c r="N47" t="n">
-        <v>15.6415</v>
+        <v>108.8095</v>
       </c>
       <c r="O47" t="n">
-        <v>3.723719511456254</v>
+        <v>2.370835928528163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_6</t>
+          <t>WLrationalquadratic_6</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
@@ -2768,47 +2768,47 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.466</v>
+        <v>-18.959</v>
       </c>
       <c r="E48" t="n">
-        <v>0.634</v>
+        <v>-19.419</v>
       </c>
       <c r="F48" t="n">
-        <v>0.73</v>
+        <v>-21.29</v>
       </c>
       <c r="G48" t="n">
-        <v>0.779</v>
+        <v>-20.131</v>
       </c>
       <c r="H48" t="n">
-        <v>0.65225</v>
+        <v>-19.94975</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1380009057941287</v>
+        <v>1.015283663153636</v>
       </c>
       <c r="J48" t="n">
-        <v>19.963</v>
+        <v>122.036</v>
       </c>
       <c r="K48" t="n">
-        <v>17.008</v>
+        <v>126.957</v>
       </c>
       <c r="L48" t="n">
-        <v>13.909</v>
+        <v>126.426</v>
       </c>
       <c r="M48" t="n">
-        <v>12.556</v>
+        <v>122.781</v>
       </c>
       <c r="N48" t="n">
-        <v>15.859</v>
+        <v>124.55</v>
       </c>
       <c r="O48" t="n">
-        <v>3.31035375753106</v>
+        <v>2.500838659330102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>WLpower_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
@@ -2817,47 +2817,47 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.007</v>
+        <v>0.197</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.032</v>
+        <v>0.388</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.056</v>
+        <v>0.398</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.122</v>
+        <v>0.423</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.05425</v>
+        <v>0.3515</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04939888662712957</v>
+        <v>0.1040464639796407</v>
       </c>
       <c r="J49" t="n">
-        <v>27.405</v>
+        <v>24.481</v>
       </c>
       <c r="K49" t="n">
-        <v>28.547</v>
+        <v>21.988</v>
       </c>
       <c r="L49" t="n">
-        <v>27.523</v>
+        <v>20.777</v>
       </c>
       <c r="M49" t="n">
-        <v>28.298</v>
+        <v>20.286</v>
       </c>
       <c r="N49" t="n">
-        <v>27.94325</v>
+        <v>21.883</v>
       </c>
       <c r="O49" t="n">
-        <v>0.5647078153051064</v>
+        <v>1.873879576351337</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>WLpower_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
@@ -2866,47 +2866,47 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.067</v>
+        <v>0.187</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.129</v>
+        <v>0.375</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.161</v>
+        <v>0.395</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.215</v>
+        <v>0.419</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.143</v>
+        <v>0.344</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06186005711819757</v>
+        <v>0.106201067163502</v>
       </c>
       <c r="J50" t="n">
-        <v>28.216</v>
+        <v>24.635</v>
       </c>
       <c r="K50" t="n">
-        <v>29.852</v>
+        <v>22.217</v>
       </c>
       <c r="L50" t="n">
-        <v>28.854</v>
+        <v>20.833</v>
       </c>
       <c r="M50" t="n">
-        <v>29.44</v>
+        <v>20.353</v>
       </c>
       <c r="N50" t="n">
-        <v>29.0905</v>
+        <v>22.0095</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7124406408022121</v>
+        <v>1.920455761878762</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>WLpower_4</t>
+          <t>WLrbf_4</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
@@ -2915,47 +2915,47 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.527</v>
+        <v>0.248</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.745</v>
+        <v>0.429</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.79</v>
+        <v>0.458</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.784</v>
+        <v>0.478</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.7115</v>
+        <v>0.40325</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1246073834088494</v>
+        <v>0.1054367899106695</v>
       </c>
       <c r="J51" t="n">
-        <v>33.758</v>
+        <v>23.687</v>
       </c>
       <c r="K51" t="n">
-        <v>37.109</v>
+        <v>21.222</v>
       </c>
       <c r="L51" t="n">
-        <v>35.83</v>
+        <v>19.722</v>
       </c>
       <c r="M51" t="n">
-        <v>35.68</v>
+        <v>19.299</v>
       </c>
       <c r="N51" t="n">
-        <v>35.59425</v>
+        <v>20.9825</v>
       </c>
       <c r="O51" t="n">
-        <v>1.381932553829358</v>
+        <v>1.982818952905182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>WLpower_5</t>
+          <t>WLrbf_5</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
@@ -2964,47 +2964,47 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-5.662</v>
+        <v>0.323</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.420999999999999</v>
+        <v>0.494</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.697</v>
+        <v>0.515</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.245</v>
+        <v>0.549</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.25625</v>
+        <v>0.4702499999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>1.677762671933469</v>
+        <v>0.100748449119577</v>
       </c>
       <c r="J52" t="n">
-        <v>70.50700000000001</v>
+        <v>22.47</v>
       </c>
       <c r="K52" t="n">
-        <v>90.69799999999999</v>
+        <v>19.984</v>
       </c>
       <c r="L52" t="n">
-        <v>78.973</v>
+        <v>18.646</v>
       </c>
       <c r="M52" t="n">
-        <v>71.893</v>
+        <v>17.934</v>
       </c>
       <c r="N52" t="n">
-        <v>78.01775000000001</v>
+        <v>19.7585</v>
       </c>
       <c r="O52" t="n">
-        <v>9.230839086995283</v>
+        <v>1.997459970395735</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>WLpower_6</t>
+          <t>WLrbf_6</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -3013,47 +3013,47 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-30.07</v>
+        <v>0.372</v>
       </c>
       <c r="E53" t="n">
-        <v>-33.896</v>
+        <v>0.537</v>
       </c>
       <c r="F53" t="n">
-        <v>-40.252</v>
+        <v>0.576</v>
       </c>
       <c r="G53" t="n">
-        <v>-33.193</v>
+        <v>0.596</v>
       </c>
       <c r="H53" t="n">
-        <v>-34.35275</v>
+        <v>0.52025</v>
       </c>
       <c r="I53" t="n">
-        <v>4.269923447791542</v>
+        <v>0.1018246040994022</v>
       </c>
       <c r="J53" t="n">
-        <v>152.261</v>
+        <v>21.647</v>
       </c>
       <c r="K53" t="n">
-        <v>165.969</v>
+        <v>19.125</v>
       </c>
       <c r="L53" t="n">
-        <v>171.993</v>
+        <v>17.438</v>
       </c>
       <c r="M53" t="n">
-        <v>156.185</v>
+        <v>16.969</v>
       </c>
       <c r="N53" t="n">
-        <v>161.602</v>
+        <v>18.79475</v>
       </c>
       <c r="O53" t="n">
-        <v>9.011876238238811</v>
+        <v>2.114909671041925</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLsigmoidarctangent_2</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
@@ -3062,47 +3062,47 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.197</v>
+        <v>0.377</v>
       </c>
       <c r="E54" t="n">
-        <v>0.388</v>
+        <v>0.547</v>
       </c>
       <c r="F54" t="n">
-        <v>0.398</v>
+        <v>0.62</v>
       </c>
       <c r="G54" t="n">
-        <v>0.423</v>
+        <v>0.643</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3515</v>
+        <v>0.5467500000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1040464639796407</v>
+        <v>0.1203394504447038</v>
       </c>
       <c r="J54" t="n">
-        <v>24.481</v>
+        <v>21.564</v>
       </c>
       <c r="K54" t="n">
-        <v>21.988</v>
+        <v>18.911</v>
       </c>
       <c r="L54" t="n">
-        <v>20.777</v>
+        <v>16.498</v>
       </c>
       <c r="M54" t="n">
-        <v>20.286</v>
+        <v>15.966</v>
       </c>
       <c r="N54" t="n">
-        <v>21.883</v>
+        <v>18.23475</v>
       </c>
       <c r="O54" t="n">
-        <v>1.873879576351337</v>
+        <v>2.562859519495102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLsigmoidarctangent_3</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
@@ -3111,47 +3111,47 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.187</v>
+        <v>0.403</v>
       </c>
       <c r="E55" t="n">
-        <v>0.375</v>
+        <v>0.638</v>
       </c>
       <c r="F55" t="n">
-        <v>0.395</v>
+        <v>0.724</v>
       </c>
       <c r="G55" t="n">
-        <v>0.419</v>
+        <v>0.755</v>
       </c>
       <c r="H55" t="n">
-        <v>0.344</v>
+        <v>0.63</v>
       </c>
       <c r="I55" t="n">
-        <v>0.106201067163502</v>
+        <v>0.1592210203878035</v>
       </c>
       <c r="J55" t="n">
-        <v>24.635</v>
+        <v>21.113</v>
       </c>
       <c r="K55" t="n">
-        <v>22.217</v>
+        <v>16.911</v>
       </c>
       <c r="L55" t="n">
-        <v>20.833</v>
+        <v>14.056</v>
       </c>
       <c r="M55" t="n">
-        <v>20.353</v>
+        <v>13.216</v>
       </c>
       <c r="N55" t="n">
-        <v>22.0095</v>
+        <v>16.324</v>
       </c>
       <c r="O55" t="n">
-        <v>1.920455761878762</v>
+        <v>3.562891054560421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_4</t>
+          <t>WLsigmoidarctangent_4</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
@@ -3160,47 +3160,47 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.248</v>
+        <v>0.42</v>
       </c>
       <c r="E56" t="n">
-        <v>0.429</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.458</v>
+        <v>0.758</v>
       </c>
       <c r="G56" t="n">
-        <v>0.478</v>
+        <v>0.793</v>
       </c>
       <c r="H56" t="n">
-        <v>0.40325</v>
+        <v>0.6635</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1054367899106695</v>
+        <v>0.1686940030548409</v>
       </c>
       <c r="J56" t="n">
-        <v>23.687</v>
+        <v>20.808</v>
       </c>
       <c r="K56" t="n">
-        <v>21.222</v>
+        <v>15.822</v>
       </c>
       <c r="L56" t="n">
-        <v>19.722</v>
+        <v>13.173</v>
       </c>
       <c r="M56" t="n">
-        <v>19.299</v>
+        <v>12.144</v>
       </c>
       <c r="N56" t="n">
-        <v>20.9825</v>
+        <v>15.48675</v>
       </c>
       <c r="O56" t="n">
-        <v>1.982818952905182</v>
+        <v>3.871068360285052</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_5</t>
+          <t>WLsigmoidarctangent_5</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -3209,47 +3209,47 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.323</v>
+        <v>0.413</v>
       </c>
       <c r="E57" t="n">
-        <v>0.494</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.515</v>
+        <v>0.759</v>
       </c>
       <c r="G57" t="n">
-        <v>0.549</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4702499999999999</v>
+        <v>0.6667500000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>0.100748449119577</v>
+        <v>0.1765453199606266</v>
       </c>
       <c r="J57" t="n">
-        <v>22.47</v>
+        <v>20.931</v>
       </c>
       <c r="K57" t="n">
-        <v>19.984</v>
+        <v>15.748</v>
       </c>
       <c r="L57" t="n">
-        <v>18.646</v>
+        <v>13.159</v>
       </c>
       <c r="M57" t="n">
-        <v>17.934</v>
+        <v>11.688</v>
       </c>
       <c r="N57" t="n">
-        <v>19.7585</v>
+        <v>15.3815</v>
       </c>
       <c r="O57" t="n">
-        <v>1.997459970395735</v>
+        <v>4.062541117740635</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_6</t>
+          <t>WLsigmoidarctangent_6</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
@@ -3258,47 +3258,47 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.372</v>
+        <v>0.434</v>
       </c>
       <c r="E58" t="n">
-        <v>0.537</v>
+        <v>0.678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.576</v>
+        <v>0.771</v>
       </c>
       <c r="G58" t="n">
-        <v>0.596</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0.52025</v>
+        <v>0.6735</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1018246040994022</v>
+        <v>0.1691084464675454</v>
       </c>
       <c r="J58" t="n">
-        <v>21.647</v>
+        <v>20.542</v>
       </c>
       <c r="K58" t="n">
-        <v>19.125</v>
+        <v>15.937</v>
       </c>
       <c r="L58" t="n">
-        <v>17.438</v>
+        <v>12.812</v>
       </c>
       <c r="M58" t="n">
-        <v>16.969</v>
+        <v>11.619</v>
       </c>
       <c r="N58" t="n">
-        <v>18.79475</v>
+        <v>15.2275</v>
       </c>
       <c r="O58" t="n">
-        <v>2.114909671041925</v>
+        <v>3.983432899731922</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLsigmoidhyperbolictangent_2</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
@@ -3307,47 +3307,47 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.377</v>
+        <v>0.364</v>
       </c>
       <c r="E59" t="n">
-        <v>0.547</v>
+        <v>0.532</v>
       </c>
       <c r="F59" t="n">
-        <v>0.62</v>
+        <v>0.596</v>
       </c>
       <c r="G59" t="n">
-        <v>0.643</v>
+        <v>0.628</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5467500000000001</v>
+        <v>0.53</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1203394504447038</v>
+        <v>0.1176435293588219</v>
       </c>
       <c r="J59" t="n">
-        <v>21.564</v>
+        <v>21.785</v>
       </c>
       <c r="K59" t="n">
-        <v>18.911</v>
+        <v>19.211</v>
       </c>
       <c r="L59" t="n">
-        <v>16.498</v>
+        <v>17.031</v>
       </c>
       <c r="M59" t="n">
-        <v>15.966</v>
+        <v>16.291</v>
       </c>
       <c r="N59" t="n">
-        <v>18.23475</v>
+        <v>18.5795</v>
       </c>
       <c r="O59" t="n">
-        <v>2.562859519495102</v>
+        <v>2.470432283359871</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLsigmoidhyperbolictangent_3</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
@@ -3356,47 +3356,47 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.403</v>
+        <v>0.396</v>
       </c>
       <c r="E60" t="n">
-        <v>0.638</v>
+        <v>0.579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.724</v>
+        <v>0.642</v>
       </c>
       <c r="G60" t="n">
-        <v>0.755</v>
+        <v>0.664</v>
       </c>
       <c r="H60" t="n">
-        <v>0.63</v>
+        <v>0.57025</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1592210203878035</v>
+        <v>0.1216233941312279</v>
       </c>
       <c r="J60" t="n">
-        <v>21.113</v>
+        <v>21.229</v>
       </c>
       <c r="K60" t="n">
-        <v>16.911</v>
+        <v>18.239</v>
       </c>
       <c r="L60" t="n">
-        <v>14.056</v>
+        <v>16.026</v>
       </c>
       <c r="M60" t="n">
-        <v>13.216</v>
+        <v>15.49</v>
       </c>
       <c r="N60" t="n">
-        <v>16.324</v>
+        <v>17.746</v>
       </c>
       <c r="O60" t="n">
-        <v>3.562891054560421</v>
+        <v>2.609104188541858</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLsigmoidhyperbolictangent_4</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
@@ -3405,47 +3405,47 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="F61" t="n">
-        <v>0.758</v>
+        <v>0.753</v>
       </c>
       <c r="G61" t="n">
-        <v>0.793</v>
+        <v>0.787</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6635</v>
+        <v>0.6587499999999999</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1686940030548409</v>
+        <v>0.1669578290068084</v>
       </c>
       <c r="J61" t="n">
-        <v>20.808</v>
+        <v>20.845</v>
       </c>
       <c r="K61" t="n">
-        <v>15.822</v>
+        <v>15.97</v>
       </c>
       <c r="L61" t="n">
-        <v>13.173</v>
+        <v>13.316</v>
       </c>
       <c r="M61" t="n">
-        <v>12.144</v>
+        <v>12.335</v>
       </c>
       <c r="N61" t="n">
-        <v>15.48675</v>
+        <v>15.6165</v>
       </c>
       <c r="O61" t="n">
-        <v>3.871068360285052</v>
+        <v>3.808880719231482</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLsigmoidhyperbolictangent_5</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
@@ -3454,47 +3454,47 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.413</v>
+        <v>0.438</v>
       </c>
       <c r="E62" t="n">
         <v>0.6860000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="G62" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6667500000000001</v>
+        <v>0.672</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1765453199606266</v>
+        <v>0.1637090915821924</v>
       </c>
       <c r="J62" t="n">
-        <v>20.931</v>
+        <v>20.485</v>
       </c>
       <c r="K62" t="n">
-        <v>15.748</v>
+        <v>15.736</v>
       </c>
       <c r="L62" t="n">
-        <v>13.159</v>
+        <v>13.194</v>
       </c>
       <c r="M62" t="n">
-        <v>11.688</v>
+        <v>11.731</v>
       </c>
       <c r="N62" t="n">
-        <v>15.3815</v>
+        <v>15.2865</v>
       </c>
       <c r="O62" t="n">
-        <v>4.062541117740635</v>
+        <v>3.840424846289795</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_6</t>
+          <t>WLsigmoidhyperbolictangent_6</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
@@ -3503,47 +3503,47 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
       <c r="E63" t="n">
-        <v>0.678</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.771</v>
+        <v>0.754</v>
       </c>
       <c r="G63" t="n">
         <v>0.8110000000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6735</v>
+        <v>0.66925</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1691084464675454</v>
+        <v>0.168006696295118</v>
       </c>
       <c r="J63" t="n">
-        <v>20.542</v>
+        <v>20.622</v>
       </c>
       <c r="K63" t="n">
-        <v>15.937</v>
+        <v>15.837</v>
       </c>
       <c r="L63" t="n">
-        <v>12.812</v>
+        <v>13.285</v>
       </c>
       <c r="M63" t="n">
-        <v>11.619</v>
+        <v>11.61</v>
       </c>
       <c r="N63" t="n">
-        <v>15.2275</v>
+        <v>15.3385</v>
       </c>
       <c r="O63" t="n">
-        <v>3.983432899731922</v>
+        <v>3.927783471628751</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLsigmoidlogistic_2</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
@@ -3552,47 +3552,47 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.364</v>
+        <v>0.382</v>
       </c>
       <c r="E64" t="n">
-        <v>0.532</v>
+        <v>0.519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.596</v>
+        <v>0.623</v>
       </c>
       <c r="G64" t="n">
-        <v>0.628</v>
+        <v>0.633</v>
       </c>
       <c r="H64" t="n">
-        <v>0.53</v>
+        <v>0.53925</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1176435293588219</v>
+        <v>0.1168200182617117</v>
       </c>
       <c r="J64" t="n">
-        <v>21.785</v>
+        <v>21.479</v>
       </c>
       <c r="K64" t="n">
-        <v>19.211</v>
+        <v>19.487</v>
       </c>
       <c r="L64" t="n">
-        <v>17.031</v>
+        <v>16.448</v>
       </c>
       <c r="M64" t="n">
-        <v>16.291</v>
+        <v>16.185</v>
       </c>
       <c r="N64" t="n">
-        <v>18.5795</v>
+        <v>18.39975</v>
       </c>
       <c r="O64" t="n">
-        <v>2.470432283359871</v>
+        <v>2.541544068081449</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLsigmoidlogistic_3</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
@@ -3601,47 +3601,47 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.396</v>
+        <v>0.414</v>
       </c>
       <c r="E65" t="n">
-        <v>0.579</v>
+        <v>0.654</v>
       </c>
       <c r="F65" t="n">
-        <v>0.642</v>
+        <v>0.745</v>
       </c>
       <c r="G65" t="n">
-        <v>0.664</v>
+        <v>0.751</v>
       </c>
       <c r="H65" t="n">
-        <v>0.57025</v>
+        <v>0.641</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1216233941312279</v>
+        <v>0.1577064784126934</v>
       </c>
       <c r="J65" t="n">
-        <v>21.229</v>
+        <v>20.916</v>
       </c>
       <c r="K65" t="n">
-        <v>18.239</v>
+        <v>16.527</v>
       </c>
       <c r="L65" t="n">
-        <v>16.026</v>
+        <v>13.531</v>
       </c>
       <c r="M65" t="n">
-        <v>15.49</v>
+        <v>13.332</v>
       </c>
       <c r="N65" t="n">
-        <v>17.746</v>
+        <v>16.0765</v>
       </c>
       <c r="O65" t="n">
-        <v>2.609104188541858</v>
+        <v>3.541918547905922</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLsigmoidlogistic_4</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
@@ -3650,47 +3650,47 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="E66" t="n">
-        <v>0.677</v>
+        <v>0.678</v>
       </c>
       <c r="F66" t="n">
-        <v>0.753</v>
+        <v>0.759</v>
       </c>
       <c r="G66" t="n">
-        <v>0.787</v>
+        <v>0.776</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6587499999999999</v>
+        <v>0.6579999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1669578290068084</v>
+        <v>0.1649707044700159</v>
       </c>
       <c r="J66" t="n">
-        <v>20.845</v>
+        <v>20.823</v>
       </c>
       <c r="K66" t="n">
-        <v>15.97</v>
+        <v>15.944</v>
       </c>
       <c r="L66" t="n">
-        <v>13.316</v>
+        <v>13.152</v>
       </c>
       <c r="M66" t="n">
-        <v>12.335</v>
+        <v>12.64</v>
       </c>
       <c r="N66" t="n">
-        <v>15.6165</v>
+        <v>15.63975</v>
       </c>
       <c r="O66" t="n">
-        <v>3.808880719231482</v>
+        <v>3.748157269468114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLsigmoidlogistic_5</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
@@ -3699,47 +3699,47 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="F67" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.791</v>
       </c>
       <c r="H67" t="n">
-        <v>0.672</v>
+        <v>0.6677500000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1637090915821924</v>
+        <v>0.1580366518670062</v>
       </c>
       <c r="J67" t="n">
-        <v>20.485</v>
+        <v>20.425</v>
       </c>
       <c r="K67" t="n">
-        <v>15.736</v>
+        <v>15.881</v>
       </c>
       <c r="L67" t="n">
-        <v>13.194</v>
+        <v>13.164</v>
       </c>
       <c r="M67" t="n">
-        <v>11.731</v>
+        <v>12.221</v>
       </c>
       <c r="N67" t="n">
-        <v>15.2865</v>
+        <v>15.42275</v>
       </c>
       <c r="O67" t="n">
-        <v>3.840424846289795</v>
+        <v>3.678117849752325</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_6</t>
+          <t>WLsigmoidlogistic_6</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
@@ -3748,284 +3748,39 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.43</v>
+        <v>0.458</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="F68" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="H68" t="n">
-        <v>0.66925</v>
+        <v>0.6717500000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>0.168006696295118</v>
+        <v>0.150588567516484</v>
       </c>
       <c r="J68" t="n">
-        <v>20.622</v>
+        <v>20.11</v>
       </c>
       <c r="K68" t="n">
-        <v>15.837</v>
+        <v>15.957</v>
       </c>
       <c r="L68" t="n">
-        <v>13.285</v>
+        <v>13.143</v>
       </c>
       <c r="M68" t="n">
-        <v>11.61</v>
+        <v>12.151</v>
       </c>
       <c r="N68" t="n">
-        <v>15.3385</v>
+        <v>15.34025</v>
       </c>
       <c r="O68" t="n">
-        <v>3.927783471628751</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_2</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.53925</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.1168200182617117</v>
-      </c>
-      <c r="J69" t="n">
-        <v>21.479</v>
-      </c>
-      <c r="K69" t="n">
-        <v>19.487</v>
-      </c>
-      <c r="L69" t="n">
-        <v>16.448</v>
-      </c>
-      <c r="M69" t="n">
-        <v>16.185</v>
-      </c>
-      <c r="N69" t="n">
-        <v>18.39975</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2.541544068081449</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_3</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.1577064784126934</v>
-      </c>
-      <c r="J70" t="n">
-        <v>20.916</v>
-      </c>
-      <c r="K70" t="n">
-        <v>16.527</v>
-      </c>
-      <c r="L70" t="n">
-        <v>13.531</v>
-      </c>
-      <c r="M70" t="n">
-        <v>13.332</v>
-      </c>
-      <c r="N70" t="n">
-        <v>16.0765</v>
-      </c>
-      <c r="O70" t="n">
-        <v>3.541918547905922</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_4</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.6579999999999999</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.1649707044700159</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20.823</v>
-      </c>
-      <c r="K71" t="n">
-        <v>15.944</v>
-      </c>
-      <c r="L71" t="n">
-        <v>13.152</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="N71" t="n">
-        <v>15.63975</v>
-      </c>
-      <c r="O71" t="n">
-        <v>3.748157269468114</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_5</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.6677500000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.1580366518670062</v>
-      </c>
-      <c r="J72" t="n">
-        <v>20.425</v>
-      </c>
-      <c r="K72" t="n">
-        <v>15.881</v>
-      </c>
-      <c r="L72" t="n">
-        <v>13.164</v>
-      </c>
-      <c r="M72" t="n">
-        <v>12.221</v>
-      </c>
-      <c r="N72" t="n">
-        <v>15.42275</v>
-      </c>
-      <c r="O72" t="n">
-        <v>3.678117849752325</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_6</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.759</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.793</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.6717500000000001</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.150588567516484</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="K73" t="n">
-        <v>15.957</v>
-      </c>
-      <c r="L73" t="n">
-        <v>13.143</v>
-      </c>
-      <c r="M73" t="n">
-        <v>12.151</v>
-      </c>
-      <c r="N73" t="n">
-        <v>15.34025</v>
-      </c>
-      <c r="O73" t="n">
         <v>3.565114245481249</v>
       </c>
     </row>
@@ -4033,7 +3788,7 @@
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A73"/>
+    <mergeCell ref="A4:A68"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4045,7 +3800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5450,7 +5205,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>WLlog_2</t>
+          <t>WLmultiquadratic_2</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -5459,41 +5214,41 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.025</v>
+        <v>-159.216</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.032</v>
+        <v>-171.979</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.114</v>
+        <v>-156.502</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.057</v>
+        <v>-162.5656666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04948737212663449</v>
+        <v>8.264356135436891</v>
       </c>
       <c r="I34" t="n">
-        <v>25.23</v>
+        <v>315.364</v>
       </c>
       <c r="J34" t="n">
-        <v>27.065</v>
+        <v>350.383</v>
       </c>
       <c r="K34" t="n">
-        <v>27.965</v>
+        <v>332.518</v>
       </c>
       <c r="L34" t="n">
-        <v>26.75333333333333</v>
+        <v>332.7549999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>1.393882467546433</v>
+        <v>17.51070292706721</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>WLlog_3</t>
+          <t>WLmultiquadratic_3</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -5502,41 +5257,41 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.049</v>
+        <v>-409.151</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.063</v>
+        <v>-434.023</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.139</v>
+        <v>-388.551</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.08366666666666667</v>
+        <v>-410.575</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04842864166310401</v>
+        <v>22.76942089733511</v>
       </c>
       <c r="I35" t="n">
-        <v>25.519</v>
+        <v>504.58</v>
       </c>
       <c r="J35" t="n">
-        <v>27.469</v>
+        <v>555.651</v>
       </c>
       <c r="K35" t="n">
-        <v>28.283</v>
+        <v>522.944</v>
       </c>
       <c r="L35" t="n">
-        <v>27.09033333333333</v>
+        <v>527.7249999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>1.420375067837132</v>
+        <v>25.86900135297069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>WLlog_4</t>
+          <t>WLmultiquadratic_4</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -5545,41 +5300,41 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.124</v>
+        <v>-689.355</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.149</v>
+        <v>-742.357</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.227</v>
+        <v>-669.325</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-700.3456666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05372460640463859</v>
+        <v>37.73611428503643</v>
       </c>
       <c r="I36" t="n">
-        <v>26.42</v>
+        <v>654.628</v>
       </c>
       <c r="J36" t="n">
-        <v>28.558</v>
+        <v>726.348</v>
       </c>
       <c r="K36" t="n">
-        <v>29.347</v>
+        <v>685.987</v>
       </c>
       <c r="L36" t="n">
-        <v>28.10833333333333</v>
+        <v>688.9876666666668</v>
       </c>
       <c r="M36" t="n">
-        <v>1.514424753275425</v>
+        <v>35.95403454875864</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>WLlog_5</t>
+          <t>WLmultiquadratic_5</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
@@ -5588,41 +5343,41 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.355</v>
+        <v>-1055.191</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.401</v>
+        <v>-1148.153</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.485</v>
+        <v>-1047.066</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.4136666666666667</v>
+        <v>-1083.47</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0659191423892433</v>
+        <v>56.16423927197803</v>
       </c>
       <c r="I37" t="n">
-        <v>29.006</v>
+        <v>809.71</v>
       </c>
       <c r="J37" t="n">
-        <v>31.53</v>
+        <v>903.097</v>
       </c>
       <c r="K37" t="n">
-        <v>32.283</v>
+        <v>857.763</v>
       </c>
       <c r="L37" t="n">
-        <v>30.93966666666667</v>
+        <v>856.8566666666667</v>
       </c>
       <c r="M37" t="n">
-        <v>1.716406808811167</v>
+        <v>46.70009659875803</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>WLlog_6</t>
+          <t>WLmultiquadratic_6</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -5631,41 +5386,41 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1.218</v>
+        <v>-1500.206</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.439</v>
+        <v>-1661.644</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.585</v>
+        <v>-1527.05</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.414</v>
+        <v>-1562.966666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1847728335010317</v>
+        <v>86.50469449303513</v>
       </c>
       <c r="I38" t="n">
-        <v>37.105</v>
+        <v>965.336</v>
       </c>
       <c r="J38" t="n">
-        <v>41.607</v>
+        <v>1086.289</v>
       </c>
       <c r="K38" t="n">
-        <v>42.596</v>
+        <v>1035.718</v>
       </c>
       <c r="L38" t="n">
-        <v>40.436</v>
+        <v>1029.114333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>2.926807304897267</v>
+        <v>60.74630328121484</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_2</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -5674,41 +5429,41 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-159.216</v>
+        <v>0.652</v>
       </c>
       <c r="E39" t="n">
-        <v>-171.979</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-156.502</v>
+        <v>0.655</v>
       </c>
       <c r="G39" t="n">
-        <v>-162.5656666666667</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>8.264356135436891</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="I39" t="n">
-        <v>315.364</v>
+        <v>14.708</v>
       </c>
       <c r="J39" t="n">
-        <v>350.383</v>
+        <v>14.98</v>
       </c>
       <c r="K39" t="n">
-        <v>332.518</v>
+        <v>15.554</v>
       </c>
       <c r="L39" t="n">
-        <v>332.7549999999999</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="M39" t="n">
-        <v>17.51070292706721</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_3</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -5717,41 +5472,41 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-409.151</v>
+        <v>0.653</v>
       </c>
       <c r="E40" t="n">
-        <v>-434.023</v>
+        <v>0.667</v>
       </c>
       <c r="F40" t="n">
-        <v>-388.551</v>
+        <v>0.638</v>
       </c>
       <c r="G40" t="n">
-        <v>-410.575</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>22.76942089733511</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="I40" t="n">
-        <v>504.58</v>
+        <v>14.684</v>
       </c>
       <c r="J40" t="n">
-        <v>555.651</v>
+        <v>15.373</v>
       </c>
       <c r="K40" t="n">
-        <v>522.944</v>
+        <v>15.932</v>
       </c>
       <c r="L40" t="n">
-        <v>527.7249999999999</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="M40" t="n">
-        <v>25.86900135297069</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_4</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -5760,41 +5515,41 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-689.355</v>
+        <v>0.59</v>
       </c>
       <c r="E41" t="n">
-        <v>-742.357</v>
+        <v>0.656</v>
       </c>
       <c r="F41" t="n">
-        <v>-669.325</v>
+        <v>0.579</v>
       </c>
       <c r="G41" t="n">
-        <v>-700.3456666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>37.73611428503643</v>
+        <v>0.04164532786920205</v>
       </c>
       <c r="I41" t="n">
-        <v>654.628</v>
+        <v>15.945</v>
       </c>
       <c r="J41" t="n">
-        <v>726.348</v>
+        <v>15.623</v>
       </c>
       <c r="K41" t="n">
-        <v>685.987</v>
+        <v>17.187</v>
       </c>
       <c r="L41" t="n">
-        <v>688.9876666666668</v>
+        <v>16.25166666666667</v>
       </c>
       <c r="M41" t="n">
-        <v>35.95403454875864</v>
+        <v>0.8258676245823751</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_5</t>
+          <t>WLpolynomial_5</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
@@ -5803,41 +5558,41 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-1055.191</v>
+        <v>0.534</v>
       </c>
       <c r="E42" t="n">
-        <v>-1148.153</v>
+        <v>0.609</v>
       </c>
       <c r="F42" t="n">
-        <v>-1047.066</v>
+        <v>0.538</v>
       </c>
       <c r="G42" t="n">
-        <v>-1083.47</v>
+        <v>0.5603333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>56.16423927197803</v>
+        <v>0.04219399641339193</v>
       </c>
       <c r="I42" t="n">
-        <v>809.71</v>
+        <v>17.011</v>
       </c>
       <c r="J42" t="n">
-        <v>903.097</v>
+        <v>16.663</v>
       </c>
       <c r="K42" t="n">
-        <v>857.763</v>
+        <v>18.015</v>
       </c>
       <c r="L42" t="n">
-        <v>856.8566666666667</v>
+        <v>17.22966666666666</v>
       </c>
       <c r="M42" t="n">
-        <v>46.70009659875803</v>
+        <v>0.7020237412889494</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>WLmultiquadratic_6</t>
+          <t>WLpolynomial_6</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
@@ -5846,41 +5601,41 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-1500.206</v>
+        <v>0.499</v>
       </c>
       <c r="E43" t="n">
-        <v>-1661.644</v>
+        <v>0.548</v>
       </c>
       <c r="F43" t="n">
-        <v>-1527.05</v>
+        <v>0.503</v>
       </c>
       <c r="G43" t="n">
-        <v>-1562.966666666666</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>86.50469449303513</v>
+        <v>0.02720906711619005</v>
       </c>
       <c r="I43" t="n">
-        <v>965.336</v>
+        <v>17.64</v>
       </c>
       <c r="J43" t="n">
-        <v>1086.289</v>
+        <v>17.903</v>
       </c>
       <c r="K43" t="n">
-        <v>1035.718</v>
+        <v>18.682</v>
       </c>
       <c r="L43" t="n">
-        <v>1029.114333333333</v>
+        <v>18.075</v>
       </c>
       <c r="M43" t="n">
-        <v>60.74630328121484</v>
+        <v>0.5418754469432981</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrationalquadratic_2</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -5889,41 +5644,41 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.652</v>
+        <v>-1.389</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6840000000000001</v>
+        <v>-2.523</v>
       </c>
       <c r="F44" t="n">
-        <v>0.655</v>
+        <v>-2.418</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6636666666666667</v>
+        <v>-2.11</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01767295485574876</v>
+        <v>0.6266075326709695</v>
       </c>
       <c r="I44" t="n">
-        <v>14.708</v>
+        <v>38.507</v>
       </c>
       <c r="J44" t="n">
-        <v>14.98</v>
+        <v>50.004</v>
       </c>
       <c r="K44" t="n">
-        <v>15.554</v>
+        <v>48.986</v>
       </c>
       <c r="L44" t="n">
-        <v>15.08066666666667</v>
+        <v>45.83233333333333</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4318904182004196</v>
+        <v>6.364311615040021</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrationalquadratic_3</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
@@ -5932,41 +5687,41 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.653</v>
+        <v>-6.014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.667</v>
+        <v>-7.157</v>
       </c>
       <c r="F45" t="n">
-        <v>0.638</v>
+        <v>-6.617</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6526666666666667</v>
+        <v>-6.596</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01450287327853807</v>
+        <v>0.5717892968568054</v>
       </c>
       <c r="I45" t="n">
-        <v>14.684</v>
+        <v>65.98399999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>15.373</v>
+        <v>76.087</v>
       </c>
       <c r="K45" t="n">
-        <v>15.932</v>
+        <v>73.126</v>
       </c>
       <c r="L45" t="n">
-        <v>15.32966666666667</v>
+        <v>71.73233333333333</v>
       </c>
       <c r="M45" t="n">
-        <v>0.6251274536711166</v>
+        <v>5.193686776590728</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLrationalquadratic_4</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -5975,41 +5730,41 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.59</v>
+        <v>-9.298</v>
       </c>
       <c r="E46" t="n">
-        <v>0.656</v>
+        <v>-10.851</v>
       </c>
       <c r="F46" t="n">
-        <v>0.579</v>
+        <v>-10.185</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6083333333333333</v>
+        <v>-10.11133333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04164532786920205</v>
+        <v>0.7791163798389391</v>
       </c>
       <c r="I46" t="n">
-        <v>15.945</v>
+        <v>79.952</v>
       </c>
       <c r="J46" t="n">
-        <v>15.623</v>
+        <v>91.711</v>
       </c>
       <c r="K46" t="n">
-        <v>17.187</v>
+        <v>88.61199999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>16.25166666666667</v>
+        <v>86.75833333333333</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8258676245823751</v>
+        <v>6.094717412098229</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLrationalquadratic_5</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -6018,41 +5773,41 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.534</v>
+        <v>-13.134</v>
       </c>
       <c r="E47" t="n">
-        <v>0.609</v>
+        <v>-15.183</v>
       </c>
       <c r="F47" t="n">
-        <v>0.538</v>
+        <v>-14.426</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5603333333333333</v>
+        <v>-14.24766666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04219399641339193</v>
+        <v>1.036075447703174</v>
       </c>
       <c r="I47" t="n">
-        <v>17.011</v>
+        <v>93.669</v>
       </c>
       <c r="J47" t="n">
-        <v>16.663</v>
+        <v>107.17</v>
       </c>
       <c r="K47" t="n">
-        <v>18.015</v>
+        <v>104.064</v>
       </c>
       <c r="L47" t="n">
-        <v>17.22966666666666</v>
+        <v>101.6343333333333</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7020237412889494</v>
+        <v>7.070835193478445</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_6</t>
+          <t>WLrationalquadratic_6</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
@@ -6061,41 +5816,41 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.499</v>
+        <v>-17.525</v>
       </c>
       <c r="E48" t="n">
-        <v>0.548</v>
+        <v>-20.12</v>
       </c>
       <c r="F48" t="n">
-        <v>0.503</v>
+        <v>-19.239</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5166666666666667</v>
+        <v>-18.96133333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02720906711619005</v>
+        <v>1.3195947610283</v>
       </c>
       <c r="I48" t="n">
-        <v>17.64</v>
+        <v>107.234</v>
       </c>
       <c r="J48" t="n">
-        <v>17.903</v>
+        <v>122.431</v>
       </c>
       <c r="K48" t="n">
-        <v>18.682</v>
+        <v>119.198</v>
       </c>
       <c r="L48" t="n">
-        <v>18.075</v>
+        <v>116.2876666666667</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5418754469432981</v>
+        <v>8.005606306416357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>WLpower_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
@@ -6104,41 +5859,41 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.027</v>
+        <v>0.332</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.036</v>
+        <v>0.413</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.117</v>
+        <v>0.313</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.06</v>
+        <v>0.3526666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04956813492557493</v>
+        <v>0.05310681061157158</v>
       </c>
       <c r="I49" t="n">
-        <v>25.254</v>
+        <v>20.365</v>
       </c>
       <c r="J49" t="n">
-        <v>27.122</v>
+        <v>20.415</v>
       </c>
       <c r="K49" t="n">
-        <v>27.998</v>
+        <v>21.958</v>
       </c>
       <c r="L49" t="n">
-        <v>26.79133333333334</v>
+        <v>20.91266666666667</v>
       </c>
       <c r="M49" t="n">
-        <v>1.401566742375593</v>
+        <v>0.9056303513759535</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>WLpower_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
@@ -6147,41 +5902,41 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.091</v>
+        <v>0.364</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.099</v>
+        <v>0.342</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.187</v>
+        <v>0.321</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1256666666666667</v>
+        <v>0.3423333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05326662494783514</v>
+        <v>0.02150193789716017</v>
       </c>
       <c r="I50" t="n">
-        <v>26.023</v>
+        <v>19.873</v>
       </c>
       <c r="J50" t="n">
-        <v>27.934</v>
+        <v>21.612</v>
       </c>
       <c r="K50" t="n">
-        <v>28.869</v>
+        <v>21.84</v>
       </c>
       <c r="L50" t="n">
-        <v>27.60866666666666</v>
+        <v>21.10833333333333</v>
       </c>
       <c r="M50" t="n">
-        <v>1.450624118554953</v>
+        <v>1.075886766036896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>WLpower_4</t>
+          <t>WLrbf_4</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
@@ -6190,41 +5945,41 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.504</v>
+        <v>0.401</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.587</v>
+        <v>0.384</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.666</v>
+        <v>0.35</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.5856666666666667</v>
+        <v>0.3783333333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08100823003456709</v>
+        <v>0.02596792893808312</v>
       </c>
       <c r="I51" t="n">
-        <v>30.557</v>
+        <v>19.288</v>
       </c>
       <c r="J51" t="n">
-        <v>33.558</v>
+        <v>20.903</v>
       </c>
       <c r="K51" t="n">
-        <v>34.195</v>
+        <v>21.364</v>
       </c>
       <c r="L51" t="n">
-        <v>32.77</v>
+        <v>20.51833333333333</v>
       </c>
       <c r="M51" t="n">
-        <v>1.942799269096013</v>
+        <v>1.090146931992809</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>WLpower_5</t>
+          <t>WLrbf_5</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
@@ -6233,41 +5988,41 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-8.584</v>
+        <v>0.46</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.926</v>
+        <v>0.447</v>
       </c>
       <c r="F52" t="n">
-        <v>-6.318</v>
+        <v>0.391</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.609333333333334</v>
+        <v>0.4326666666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>2.304104453650775</v>
+        <v>0.03666515148384544</v>
       </c>
       <c r="I52" t="n">
-        <v>77.133</v>
+        <v>18.306</v>
       </c>
       <c r="J52" t="n">
-        <v>92</v>
+        <v>19.806</v>
       </c>
       <c r="K52" t="n">
-        <v>71.676</v>
+        <v>20.678</v>
       </c>
       <c r="L52" t="n">
-        <v>80.26966666666665</v>
+        <v>19.59666666666667</v>
       </c>
       <c r="M52" t="n">
-        <v>10.51880470078865</v>
+        <v>1.199775534561917</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>WLpower_6</t>
+          <t>WLrbf_6</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -6276,41 +6031,41 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-30.318</v>
+        <v>0.465</v>
       </c>
       <c r="E53" t="n">
-        <v>-38.241</v>
+        <v>0.509</v>
       </c>
       <c r="F53" t="n">
-        <v>-34.311</v>
+        <v>0.421</v>
       </c>
       <c r="G53" t="n">
-        <v>-34.29</v>
+        <v>0.465</v>
       </c>
       <c r="H53" t="n">
-        <v>3.961541745330976</v>
+        <v>0.04400000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>139.429</v>
+        <v>18.23</v>
       </c>
       <c r="J53" t="n">
-        <v>166.885</v>
+        <v>18.66</v>
       </c>
       <c r="K53" t="n">
-        <v>157.444</v>
+        <v>20.152</v>
       </c>
       <c r="L53" t="n">
-        <v>154.586</v>
+        <v>19.014</v>
       </c>
       <c r="M53" t="n">
-        <v>13.94934073711012</v>
+        <v>1.008716015536583</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLsigmoidarctangent_2</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
@@ -6319,41 +6074,41 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.332</v>
+        <v>0.545</v>
       </c>
       <c r="E54" t="n">
-        <v>0.413</v>
+        <v>0.602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.313</v>
+        <v>0.542</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3526666666666667</v>
+        <v>0.5630000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05310681061157158</v>
+        <v>0.0338082830087539</v>
       </c>
       <c r="I54" t="n">
-        <v>20.365</v>
+        <v>16.799</v>
       </c>
       <c r="J54" t="n">
-        <v>20.415</v>
+        <v>16.81</v>
       </c>
       <c r="K54" t="n">
-        <v>21.958</v>
+        <v>17.924</v>
       </c>
       <c r="L54" t="n">
-        <v>20.91266666666667</v>
+        <v>17.17766666666666</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9056303513759535</v>
+        <v>0.6463670267992742</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLsigmoidarctangent_3</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
@@ -6362,41 +6117,41 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.364</v>
+        <v>0.637</v>
       </c>
       <c r="E55" t="n">
-        <v>0.342</v>
+        <v>0.546</v>
       </c>
       <c r="F55" t="n">
-        <v>0.321</v>
+        <v>0.474</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3423333333333334</v>
+        <v>0.5523333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0.02150193789716017</v>
+        <v>0.08168435182660957</v>
       </c>
       <c r="I55" t="n">
-        <v>19.873</v>
+        <v>15.017</v>
       </c>
       <c r="J55" t="n">
-        <v>21.612</v>
+        <v>17.944</v>
       </c>
       <c r="K55" t="n">
-        <v>21.84</v>
+        <v>19.207</v>
       </c>
       <c r="L55" t="n">
-        <v>21.10833333333333</v>
+        <v>17.38933333333333</v>
       </c>
       <c r="M55" t="n">
-        <v>1.075886766036896</v>
+        <v>2.149364169547202</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_4</t>
+          <t>WLsigmoidarctangent_4</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
@@ -6405,41 +6160,41 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.401</v>
+        <v>0.634</v>
       </c>
       <c r="E56" t="n">
-        <v>0.384</v>
+        <v>0.669</v>
       </c>
       <c r="F56" t="n">
-        <v>0.35</v>
+        <v>0.615</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3783333333333334</v>
+        <v>0.6393333333333334</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02596792893808312</v>
+        <v>0.02739221300540237</v>
       </c>
       <c r="I56" t="n">
-        <v>19.288</v>
+        <v>15.083</v>
       </c>
       <c r="J56" t="n">
-        <v>20.903</v>
+        <v>15.329</v>
       </c>
       <c r="K56" t="n">
-        <v>21.364</v>
+        <v>16.443</v>
       </c>
       <c r="L56" t="n">
-        <v>20.51833333333333</v>
+        <v>15.61833333333333</v>
       </c>
       <c r="M56" t="n">
-        <v>1.090146931992809</v>
+        <v>0.7246967181748061</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_5</t>
+          <t>WLsigmoidarctangent_5</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
@@ -6448,41 +6203,41 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.46</v>
+        <v>0.607</v>
       </c>
       <c r="E57" t="n">
-        <v>0.447</v>
+        <v>0.697</v>
       </c>
       <c r="F57" t="n">
-        <v>0.391</v>
+        <v>0.597</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4326666666666667</v>
+        <v>0.6336666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>0.03666515148384544</v>
+        <v>0.05507570547286101</v>
       </c>
       <c r="I57" t="n">
-        <v>18.306</v>
+        <v>15.62</v>
       </c>
       <c r="J57" t="n">
-        <v>19.806</v>
+        <v>14.677</v>
       </c>
       <c r="K57" t="n">
-        <v>20.678</v>
+        <v>16.818</v>
       </c>
       <c r="L57" t="n">
-        <v>19.59666666666667</v>
+        <v>15.705</v>
       </c>
       <c r="M57" t="n">
-        <v>1.199775534561917</v>
+        <v>1.073027958629225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_6</t>
+          <t>WLsigmoidarctangent_6</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
@@ -6491,41 +6246,41 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.465</v>
+        <v>0.591</v>
       </c>
       <c r="E58" t="n">
-        <v>0.509</v>
+        <v>0.703</v>
       </c>
       <c r="F58" t="n">
-        <v>0.421</v>
+        <v>0.599</v>
       </c>
       <c r="G58" t="n">
-        <v>0.465</v>
+        <v>0.631</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04400000000000001</v>
+        <v>0.06248199740725322</v>
       </c>
       <c r="I58" t="n">
-        <v>18.23</v>
+        <v>15.941</v>
       </c>
       <c r="J58" t="n">
-        <v>18.66</v>
+        <v>14.525</v>
       </c>
       <c r="K58" t="n">
-        <v>20.152</v>
+        <v>16.775</v>
       </c>
       <c r="L58" t="n">
-        <v>19.014</v>
+        <v>15.747</v>
       </c>
       <c r="M58" t="n">
-        <v>1.008716015536583</v>
+        <v>1.137476153596197</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_2</t>
+          <t>WLsigmoidhyperbolictangent_2</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
@@ -6534,41 +6289,41 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="E59" t="n">
-        <v>0.602</v>
+        <v>0.586</v>
       </c>
       <c r="F59" t="n">
-        <v>0.542</v>
+        <v>0.525</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5630000000000001</v>
+        <v>0.5453333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0338082830087539</v>
+        <v>0.03521836642056714</v>
       </c>
       <c r="I59" t="n">
-        <v>16.799</v>
+        <v>17.167</v>
       </c>
       <c r="J59" t="n">
-        <v>16.81</v>
+        <v>17.137</v>
       </c>
       <c r="K59" t="n">
-        <v>17.924</v>
+        <v>18.263</v>
       </c>
       <c r="L59" t="n">
-        <v>17.17766666666666</v>
+        <v>17.52233333333334</v>
       </c>
       <c r="M59" t="n">
-        <v>0.6463670267992742</v>
+        <v>0.641611512781164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_3</t>
+          <t>WLsigmoidhyperbolictangent_3</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
@@ -6577,41 +6332,41 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.637</v>
+        <v>0.619</v>
       </c>
       <c r="E60" t="n">
-        <v>0.546</v>
+        <v>0.474</v>
       </c>
       <c r="F60" t="n">
-        <v>0.474</v>
+        <v>0.513</v>
       </c>
       <c r="G60" t="n">
-        <v>0.5523333333333333</v>
+        <v>0.5353333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08168435182660957</v>
+        <v>0.07503554713156514</v>
       </c>
       <c r="I60" t="n">
-        <v>15.017</v>
+        <v>15.375</v>
       </c>
       <c r="J60" t="n">
-        <v>17.944</v>
+        <v>19.33</v>
       </c>
       <c r="K60" t="n">
-        <v>19.207</v>
+        <v>18.494</v>
       </c>
       <c r="L60" t="n">
-        <v>17.38933333333333</v>
+        <v>17.733</v>
       </c>
       <c r="M60" t="n">
-        <v>2.149364169547202</v>
+        <v>2.084429658203893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_4</t>
+          <t>WLsigmoidhyperbolictangent_4</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
@@ -6620,41 +6375,41 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.634</v>
+        <v>0.652</v>
       </c>
       <c r="E61" t="n">
-        <v>0.669</v>
+        <v>0.648</v>
       </c>
       <c r="F61" t="n">
-        <v>0.615</v>
+        <v>0.611</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6393333333333334</v>
+        <v>0.637</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02739221300540237</v>
+        <v>0.02260530911091465</v>
       </c>
       <c r="I61" t="n">
-        <v>15.083</v>
+        <v>14.697</v>
       </c>
       <c r="J61" t="n">
-        <v>15.329</v>
+        <v>15.813</v>
       </c>
       <c r="K61" t="n">
-        <v>16.443</v>
+        <v>16.524</v>
       </c>
       <c r="L61" t="n">
-        <v>15.61833333333333</v>
+        <v>15.678</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7246967181748061</v>
+        <v>0.9209511387690454</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_5</t>
+          <t>WLsigmoidhyperbolictangent_5</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
@@ -6663,41 +6418,41 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.607</v>
+        <v>0.612</v>
       </c>
       <c r="E62" t="n">
-        <v>0.697</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.597</v>
+        <v>0.599</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6336666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0.05507570547286101</v>
+        <v>0.04864497233356527</v>
       </c>
       <c r="I62" t="n">
-        <v>15.62</v>
+        <v>15.524</v>
       </c>
       <c r="J62" t="n">
-        <v>14.677</v>
+        <v>14.854</v>
       </c>
       <c r="K62" t="n">
-        <v>16.818</v>
+        <v>16.783</v>
       </c>
       <c r="L62" t="n">
-        <v>15.705</v>
+        <v>15.72033333333333</v>
       </c>
       <c r="M62" t="n">
-        <v>1.073027958629225</v>
+        <v>0.9793724180991292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidarctangent_6</t>
+          <t>WLsigmoidhyperbolictangent_6</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
@@ -6706,41 +6461,41 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.591</v>
+        <v>0.599</v>
       </c>
       <c r="E63" t="n">
-        <v>0.703</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.599</v>
+        <v>0.583</v>
       </c>
       <c r="G63" t="n">
-        <v>0.631</v>
+        <v>0.624</v>
       </c>
       <c r="H63" t="n">
-        <v>0.06248199740725322</v>
+        <v>0.05771481612203229</v>
       </c>
       <c r="I63" t="n">
-        <v>15.941</v>
+        <v>15.77</v>
       </c>
       <c r="J63" t="n">
-        <v>14.525</v>
+        <v>14.843</v>
       </c>
       <c r="K63" t="n">
-        <v>16.775</v>
+        <v>17.1</v>
       </c>
       <c r="L63" t="n">
-        <v>15.747</v>
+        <v>15.90433333333333</v>
       </c>
       <c r="M63" t="n">
-        <v>1.137476153596197</v>
+        <v>1.134480644759237</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_2</t>
+          <t>WLsigmoidlogistic_2</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
@@ -6749,41 +6504,41 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.525</v>
+        <v>0.574</v>
       </c>
       <c r="E64" t="n">
-        <v>0.586</v>
+        <v>0.639</v>
       </c>
       <c r="F64" t="n">
-        <v>0.525</v>
+        <v>0.599</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5453333333333333</v>
+        <v>0.604</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03521836642056714</v>
+        <v>0.03278719262151003</v>
       </c>
       <c r="I64" t="n">
-        <v>17.167</v>
+        <v>16.254</v>
       </c>
       <c r="J64" t="n">
-        <v>17.137</v>
+        <v>16</v>
       </c>
       <c r="K64" t="n">
-        <v>18.263</v>
+        <v>16.768</v>
       </c>
       <c r="L64" t="n">
-        <v>17.52233333333334</v>
+        <v>16.34066666666667</v>
       </c>
       <c r="M64" t="n">
-        <v>0.641611512781164</v>
+        <v>0.3912663202133983</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_3</t>
+          <t>WLsigmoidlogistic_3</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
@@ -6792,41 +6547,41 @@
         </is>
       </c>
       <c r="D65" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.619</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.474</v>
-      </c>
       <c r="F65" t="n">
-        <v>0.513</v>
+        <v>0.649</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5353333333333333</v>
+        <v>0.6396666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07503554713156514</v>
+        <v>0.01792577287966502</v>
       </c>
       <c r="I65" t="n">
-        <v>15.375</v>
+        <v>14.723</v>
       </c>
       <c r="J65" t="n">
-        <v>19.33</v>
+        <v>16.451</v>
       </c>
       <c r="K65" t="n">
-        <v>18.494</v>
+        <v>15.704</v>
       </c>
       <c r="L65" t="n">
-        <v>17.733</v>
+        <v>15.626</v>
       </c>
       <c r="M65" t="n">
-        <v>2.084429658203893</v>
+        <v>0.8666366020426323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_4</t>
+          <t>WLsigmoidlogistic_4</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
@@ -6835,41 +6590,41 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.652</v>
+        <v>0.625</v>
       </c>
       <c r="E66" t="n">
-        <v>0.648</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.611</v>
+        <v>0.614</v>
       </c>
       <c r="G66" t="n">
-        <v>0.637</v>
+        <v>0.6433333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02260530911091465</v>
+        <v>0.04164532786920198</v>
       </c>
       <c r="I66" t="n">
-        <v>14.697</v>
+        <v>15.248</v>
       </c>
       <c r="J66" t="n">
-        <v>15.813</v>
+        <v>14.8</v>
       </c>
       <c r="K66" t="n">
-        <v>16.524</v>
+        <v>16.467</v>
       </c>
       <c r="L66" t="n">
-        <v>15.678</v>
+        <v>15.505</v>
       </c>
       <c r="M66" t="n">
-        <v>0.9209511387690454</v>
+        <v>0.8627044685174631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_5</t>
+          <t>WLsigmoidlogistic_5</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
@@ -6878,41 +6633,41 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.612</v>
+        <v>0.588</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>0.599</v>
+        <v>0.588</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.62</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04864497233356527</v>
+        <v>0.05542562584220413</v>
       </c>
       <c r="I67" t="n">
-        <v>15.524</v>
+        <v>15.992</v>
       </c>
       <c r="J67" t="n">
-        <v>14.854</v>
+        <v>14.98</v>
       </c>
       <c r="K67" t="n">
-        <v>16.783</v>
+        <v>17.008</v>
       </c>
       <c r="L67" t="n">
-        <v>15.72033333333333</v>
+        <v>15.99333333333333</v>
       </c>
       <c r="M67" t="n">
-        <v>0.9793724180991292</v>
+        <v>1.014000657461982</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_6</t>
+          <t>WLsigmoidlogistic_6</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
@@ -6921,248 +6676,33 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.599</v>
+        <v>0.555</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="F68" t="n">
-        <v>0.583</v>
+        <v>0.569</v>
       </c>
       <c r="G68" t="n">
-        <v>0.624</v>
+        <v>0.5923333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05771481612203229</v>
+        <v>0.05300314456080256</v>
       </c>
       <c r="I68" t="n">
-        <v>15.77</v>
+        <v>16.621</v>
       </c>
       <c r="J68" t="n">
-        <v>14.843</v>
+        <v>15.682</v>
       </c>
       <c r="K68" t="n">
-        <v>17.1</v>
+        <v>17.391</v>
       </c>
       <c r="L68" t="n">
-        <v>15.90433333333333</v>
+        <v>16.56466666666667</v>
       </c>
       <c r="M68" t="n">
-        <v>1.134480644759237</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_2</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.03278719262151003</v>
-      </c>
-      <c r="I69" t="n">
-        <v>16.254</v>
-      </c>
-      <c r="J69" t="n">
-        <v>16</v>
-      </c>
-      <c r="K69" t="n">
-        <v>16.768</v>
-      </c>
-      <c r="L69" t="n">
-        <v>16.34066666666667</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.3912663202133983</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_3</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.6396666666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.01792577287966502</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14.723</v>
-      </c>
-      <c r="J70" t="n">
-        <v>16.451</v>
-      </c>
-      <c r="K70" t="n">
-        <v>15.704</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.626</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8666366020426323</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_4</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.6433333333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.04164532786920198</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15.248</v>
-      </c>
-      <c r="J71" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K71" t="n">
-        <v>16.467</v>
-      </c>
-      <c r="L71" t="n">
-        <v>15.505</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8627044685174631</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_5</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.05542562584220413</v>
-      </c>
-      <c r="I72" t="n">
-        <v>15.992</v>
-      </c>
-      <c r="J72" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="K72" t="n">
-        <v>17.008</v>
-      </c>
-      <c r="L72" t="n">
-        <v>15.99333333333333</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.014000657461982</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>WLsigmoidlogistic_6</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.5923333333333334</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.05300314456080256</v>
-      </c>
-      <c r="I73" t="n">
-        <v>16.621</v>
-      </c>
-      <c r="J73" t="n">
-        <v>15.682</v>
-      </c>
-      <c r="K73" t="n">
-        <v>17.391</v>
-      </c>
-      <c r="L73" t="n">
-        <v>16.56466666666667</v>
-      </c>
-      <c r="M73" t="n">
         <v>0.8558915429733673</v>
       </c>
     </row>
@@ -7170,7 +6710,7 @@
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A73"/>
+    <mergeCell ref="A4:A68"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/main_text_scores.xlsx
+++ b/yield_prediction/results/main_text_scores.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,7 +5993,7 @@
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C114" s="1" t="inlineStr">
@@ -6002,47 +6002,47 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.33</v>
+        <v>0.364</v>
       </c>
       <c r="E114" t="n">
-        <v>0.497</v>
+        <v>0.532</v>
       </c>
       <c r="F114" t="n">
-        <v>0.544</v>
+        <v>0.596</v>
       </c>
       <c r="G114" t="n">
-        <v>0.571</v>
+        <v>0.628</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4855</v>
+        <v>0.53</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1080817591764062</v>
+        <v>0.1176435293588219</v>
       </c>
       <c r="J114" t="n">
-        <v>22.367</v>
+        <v>21.785</v>
       </c>
       <c r="K114" t="n">
-        <v>19.932</v>
+        <v>19.211</v>
       </c>
       <c r="L114" t="n">
-        <v>18.085</v>
+        <v>17.031</v>
       </c>
       <c r="M114" t="n">
-        <v>17.485</v>
+        <v>16.291</v>
       </c>
       <c r="N114" t="n">
-        <v>19.46725</v>
+        <v>18.5795</v>
       </c>
       <c r="O114" t="n">
-        <v>2.195789360723535</v>
+        <v>2.470432283359871</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
@@ -6051,47 +6051,47 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.259</v>
+        <v>0.33</v>
       </c>
       <c r="E115" t="n">
-        <v>0.431</v>
+        <v>0.497</v>
       </c>
       <c r="F115" t="n">
-        <v>0.452</v>
+        <v>0.544</v>
       </c>
       <c r="G115" t="n">
-        <v>0.463</v>
+        <v>0.571</v>
       </c>
       <c r="H115" t="n">
-        <v>0.40125</v>
+        <v>0.4855</v>
       </c>
       <c r="I115" t="n">
-        <v>0.09575794135910261</v>
+        <v>0.1080817591764062</v>
       </c>
       <c r="J115" t="n">
-        <v>23.52</v>
+        <v>22.367</v>
       </c>
       <c r="K115" t="n">
-        <v>21.191</v>
+        <v>19.932</v>
       </c>
       <c r="L115" t="n">
-        <v>19.823</v>
+        <v>18.085</v>
       </c>
       <c r="M115" t="n">
-        <v>19.569</v>
+        <v>17.485</v>
       </c>
       <c r="N115" t="n">
-        <v>21.02575</v>
+        <v>19.46725</v>
       </c>
       <c r="O115" t="n">
-        <v>1.808988552571114</v>
+        <v>2.195789360723535</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C116" s="1" t="inlineStr">
@@ -6100,47 +6100,47 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.348</v>
+        <v>0.239</v>
       </c>
       <c r="E116" t="n">
-        <v>0.521</v>
+        <v>0.379</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="G116" t="n">
-        <v>0.593</v>
+        <v>0.361</v>
       </c>
       <c r="H116" t="n">
-        <v>0.50725</v>
+        <v>0.336</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1102614317580419</v>
+        <v>0.06512551983157858</v>
       </c>
       <c r="J116" t="n">
-        <v>22.05</v>
+        <v>23.834</v>
       </c>
       <c r="K116" t="n">
-        <v>19.437</v>
+        <v>22.146</v>
       </c>
       <c r="L116" t="n">
-        <v>17.622</v>
+        <v>21.339</v>
       </c>
       <c r="M116" t="n">
-        <v>17.031</v>
+        <v>21.358</v>
       </c>
       <c r="N116" t="n">
-        <v>19.035</v>
+        <v>22.16925</v>
       </c>
       <c r="O116" t="n">
-        <v>2.255690138294709</v>
+        <v>1.171804128968091</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C117" s="1" t="inlineStr">
@@ -6149,47 +6149,47 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.274</v>
+        <v>0.259</v>
       </c>
       <c r="E117" t="n">
-        <v>0.451</v>
+        <v>0.431</v>
       </c>
       <c r="F117" t="n">
-        <v>0.475</v>
+        <v>0.452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.498</v>
+        <v>0.463</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4245</v>
+        <v>0.40125</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1021518477561713</v>
+        <v>0.09575794135910261</v>
       </c>
       <c r="J117" t="n">
-        <v>23.273</v>
+        <v>23.52</v>
       </c>
       <c r="K117" t="n">
-        <v>20.813</v>
+        <v>21.191</v>
       </c>
       <c r="L117" t="n">
-        <v>19.401</v>
+        <v>19.823</v>
       </c>
       <c r="M117" t="n">
-        <v>18.921</v>
+        <v>19.569</v>
       </c>
       <c r="N117" t="n">
-        <v>20.602</v>
+        <v>21.02575</v>
       </c>
       <c r="O117" t="n">
-        <v>1.953366666382257</v>
+        <v>1.808988552571114</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C118" s="1" t="inlineStr">
@@ -6198,47 +6198,47 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.405</v>
+        <v>0.396</v>
       </c>
       <c r="E118" t="n">
-        <v>0.64</v>
+        <v>0.579</v>
       </c>
       <c r="F118" t="n">
-        <v>0.739</v>
+        <v>0.642</v>
       </c>
       <c r="G118" t="n">
-        <v>0.755</v>
+        <v>0.664</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6347499999999999</v>
+        <v>0.57025</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1613905718022793</v>
+        <v>0.1216233941312279</v>
       </c>
       <c r="J118" t="n">
-        <v>21.072</v>
+        <v>21.229</v>
       </c>
       <c r="K118" t="n">
-        <v>16.846</v>
+        <v>18.239</v>
       </c>
       <c r="L118" t="n">
-        <v>13.672</v>
+        <v>16.026</v>
       </c>
       <c r="M118" t="n">
-        <v>13.226</v>
+        <v>15.49</v>
       </c>
       <c r="N118" t="n">
-        <v>16.204</v>
+        <v>17.746</v>
       </c>
       <c r="O118" t="n">
-        <v>3.623492606128328</v>
+        <v>2.609104188541858</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
@@ -6247,47 +6247,47 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.295</v>
+        <v>0.348</v>
       </c>
       <c r="E119" t="n">
-        <v>0.472</v>
+        <v>0.521</v>
       </c>
       <c r="F119" t="n">
-        <v>0.505</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>0.526</v>
+        <v>0.593</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4495</v>
+        <v>0.50725</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1053707739366092</v>
+        <v>0.1102614317580419</v>
       </c>
       <c r="J119" t="n">
-        <v>22.936</v>
+        <v>22.05</v>
       </c>
       <c r="K119" t="n">
-        <v>20.419</v>
+        <v>19.437</v>
       </c>
       <c r="L119" t="n">
-        <v>18.835</v>
+        <v>17.622</v>
       </c>
       <c r="M119" t="n">
-        <v>18.382</v>
+        <v>17.031</v>
       </c>
       <c r="N119" t="n">
-        <v>20.143</v>
+        <v>19.035</v>
       </c>
       <c r="O119" t="n">
-        <v>2.056616152810241</v>
+        <v>2.255690138294709</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
@@ -6296,47 +6296,47 @@
         </is>
       </c>
       <c r="D120" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.429</v>
       </c>
-      <c r="E120" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.778</v>
-      </c>
       <c r="H120" t="n">
-        <v>0.6575</v>
+        <v>0.38625</v>
       </c>
       <c r="I120" t="n">
-        <v>0.159002096422238</v>
+        <v>0.07503943407746798</v>
       </c>
       <c r="J120" t="n">
-        <v>20.644</v>
+        <v>23.276</v>
       </c>
       <c r="K120" t="n">
-        <v>16.123</v>
+        <v>21.283</v>
       </c>
       <c r="L120" t="n">
-        <v>13.342</v>
+        <v>20.468</v>
       </c>
       <c r="M120" t="n">
-        <v>12.598</v>
+        <v>20.189</v>
       </c>
       <c r="N120" t="n">
-        <v>15.67675</v>
+        <v>21.304</v>
       </c>
       <c r="O120" t="n">
-        <v>3.642456622940072</v>
+        <v>1.394195825556797</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C121" s="1" t="inlineStr">
@@ -6345,47 +6345,47 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.321</v>
+        <v>0.274</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5</v>
+        <v>0.451</v>
       </c>
       <c r="F121" t="n">
-        <v>0.519</v>
+        <v>0.475</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="H121" t="n">
-        <v>0.475</v>
+        <v>0.4245</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1056756042487259</v>
+        <v>0.1021518477561713</v>
       </c>
       <c r="J121" t="n">
-        <v>22.502</v>
+        <v>23.273</v>
       </c>
       <c r="K121" t="n">
-        <v>19.867</v>
+        <v>20.813</v>
       </c>
       <c r="L121" t="n">
-        <v>18.575</v>
+        <v>19.401</v>
       </c>
       <c r="M121" t="n">
-        <v>17.714</v>
+        <v>18.921</v>
       </c>
       <c r="N121" t="n">
-        <v>19.6645</v>
+        <v>20.602</v>
       </c>
       <c r="O121" t="n">
-        <v>2.088370417335009</v>
+        <v>1.953366666382257</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C122" s="1" t="inlineStr">
@@ -6394,47 +6394,47 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.439</v>
+        <v>0.418</v>
       </c>
       <c r="E122" t="n">
         <v>0.677</v>
       </c>
       <c r="F122" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="G122" t="n">
         <v>0.787</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6635</v>
+        <v>0.6587499999999999</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1565151749831306</v>
+        <v>0.1669578290068084</v>
       </c>
       <c r="J122" t="n">
-        <v>20.455</v>
+        <v>20.845</v>
       </c>
       <c r="K122" t="n">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="L122" t="n">
-        <v>13.357</v>
+        <v>13.316</v>
       </c>
       <c r="M122" t="n">
-        <v>12.328</v>
+        <v>12.335</v>
       </c>
       <c r="N122" t="n">
-        <v>15.53</v>
+        <v>15.6165</v>
       </c>
       <c r="O122" t="n">
-        <v>3.625504930351081</v>
+        <v>3.808880719231482</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C123" s="1" t="inlineStr">
@@ -6443,47 +6443,47 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.362</v>
+        <v>0.405</v>
       </c>
       <c r="E123" t="n">
-        <v>0.536</v>
+        <v>0.64</v>
       </c>
       <c r="F123" t="n">
-        <v>0.576</v>
+        <v>0.739</v>
       </c>
       <c r="G123" t="n">
-        <v>0.599</v>
+        <v>0.755</v>
       </c>
       <c r="H123" t="n">
-        <v>0.51825</v>
+        <v>0.6347499999999999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1073696884600118</v>
+        <v>0.1613905718022793</v>
       </c>
       <c r="J123" t="n">
-        <v>21.813</v>
+        <v>21.072</v>
       </c>
       <c r="K123" t="n">
-        <v>19.143</v>
+        <v>16.846</v>
       </c>
       <c r="L123" t="n">
-        <v>17.446</v>
+        <v>13.672</v>
       </c>
       <c r="M123" t="n">
-        <v>16.911</v>
+        <v>13.226</v>
       </c>
       <c r="N123" t="n">
-        <v>18.82825</v>
+        <v>16.204</v>
       </c>
       <c r="O123" t="n">
-        <v>2.205618790725178</v>
+        <v>3.623492606128328</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_2_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C124" s="1" t="inlineStr">
@@ -6492,47 +6492,47 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.382</v>
+        <v>0.307</v>
       </c>
       <c r="E124" t="n">
-        <v>0.519</v>
+        <v>0.453</v>
       </c>
       <c r="F124" t="n">
-        <v>0.623</v>
+        <v>0.454</v>
       </c>
       <c r="G124" t="n">
-        <v>0.633</v>
+        <v>0.456</v>
       </c>
       <c r="H124" t="n">
-        <v>0.53925</v>
+        <v>0.4175</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1168200182617117</v>
+        <v>0.07367722397955379</v>
       </c>
       <c r="J124" t="n">
-        <v>21.479</v>
+        <v>22.741</v>
       </c>
       <c r="K124" t="n">
-        <v>19.487</v>
+        <v>20.782</v>
       </c>
       <c r="L124" t="n">
-        <v>16.448</v>
+        <v>19.791</v>
       </c>
       <c r="M124" t="n">
-        <v>16.185</v>
+        <v>19.697</v>
       </c>
       <c r="N124" t="n">
-        <v>18.39975</v>
+        <v>20.75275</v>
       </c>
       <c r="O124" t="n">
-        <v>2.541544068081449</v>
+        <v>1.413454957424065</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_2_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C125" s="1" t="inlineStr">
@@ -6541,47 +6541,47 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.359</v>
+        <v>0.295</v>
       </c>
       <c r="E125" t="n">
-        <v>0.518</v>
+        <v>0.472</v>
       </c>
       <c r="F125" t="n">
-        <v>0.588</v>
+        <v>0.505</v>
       </c>
       <c r="G125" t="n">
-        <v>0.61</v>
+        <v>0.526</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5187499999999999</v>
+        <v>0.4495</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1134941261328826</v>
+        <v>0.1053707739366092</v>
       </c>
       <c r="J125" t="n">
-        <v>21.878</v>
+        <v>22.936</v>
       </c>
       <c r="K125" t="n">
-        <v>19.513</v>
+        <v>20.419</v>
       </c>
       <c r="L125" t="n">
-        <v>17.185</v>
+        <v>18.835</v>
       </c>
       <c r="M125" t="n">
-        <v>16.681</v>
+        <v>18.382</v>
       </c>
       <c r="N125" t="n">
-        <v>18.81425</v>
+        <v>20.143</v>
       </c>
       <c r="O125" t="n">
-        <v>2.38607255757238</v>
+        <v>2.056616152810241</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_3_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C126" s="1" t="inlineStr">
@@ -6590,47 +6590,47 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.414</v>
+        <v>0.438</v>
       </c>
       <c r="E126" t="n">
-        <v>0.654</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>0.745</v>
+        <v>0.757</v>
       </c>
       <c r="G126" t="n">
-        <v>0.751</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0.641</v>
+        <v>0.672</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1577064784126934</v>
+        <v>0.1637090915821924</v>
       </c>
       <c r="J126" t="n">
-        <v>20.916</v>
+        <v>20.485</v>
       </c>
       <c r="K126" t="n">
-        <v>16.527</v>
+        <v>15.736</v>
       </c>
       <c r="L126" t="n">
-        <v>13.531</v>
+        <v>13.194</v>
       </c>
       <c r="M126" t="n">
-        <v>13.332</v>
+        <v>11.731</v>
       </c>
       <c r="N126" t="n">
-        <v>16.0765</v>
+        <v>15.2865</v>
       </c>
       <c r="O126" t="n">
-        <v>3.541918547905922</v>
+        <v>3.840424846289795</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_3_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C127" s="1" t="inlineStr">
@@ -6639,47 +6639,47 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.381</v>
+        <v>0.429</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.671</v>
       </c>
       <c r="F127" t="n">
-        <v>0.628</v>
+        <v>0.752</v>
       </c>
       <c r="G127" t="n">
-        <v>0.636</v>
+        <v>0.778</v>
       </c>
       <c r="H127" t="n">
-        <v>0.551</v>
+        <v>0.6575</v>
       </c>
       <c r="I127" t="n">
-        <v>0.118487692750485</v>
+        <v>0.159002096422238</v>
       </c>
       <c r="J127" t="n">
-        <v>21.492</v>
+        <v>20.644</v>
       </c>
       <c r="K127" t="n">
-        <v>18.656</v>
+        <v>16.123</v>
       </c>
       <c r="L127" t="n">
-        <v>16.342</v>
+        <v>13.342</v>
       </c>
       <c r="M127" t="n">
-        <v>16.106</v>
+        <v>12.598</v>
       </c>
       <c r="N127" t="n">
-        <v>18.149</v>
+        <v>15.67675</v>
       </c>
       <c r="O127" t="n">
-        <v>2.508106589973135</v>
+        <v>3.642456622940072</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_4_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C128" s="1" t="inlineStr">
@@ -6688,47 +6688,47 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.419</v>
+        <v>0.337</v>
       </c>
       <c r="E128" t="n">
-        <v>0.678</v>
+        <v>0.475</v>
       </c>
       <c r="F128" t="n">
-        <v>0.759</v>
+        <v>0.385</v>
       </c>
       <c r="G128" t="n">
-        <v>0.776</v>
+        <v>0.416</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6579999999999999</v>
+        <v>0.40325</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1649707044700159</v>
+        <v>0.05782949074650405</v>
       </c>
       <c r="J128" t="n">
-        <v>20.823</v>
+        <v>22.234</v>
       </c>
       <c r="K128" t="n">
-        <v>15.944</v>
+        <v>20.354</v>
       </c>
       <c r="L128" t="n">
-        <v>13.152</v>
+        <v>20.994</v>
       </c>
       <c r="M128" t="n">
-        <v>12.64</v>
+        <v>20.407</v>
       </c>
       <c r="N128" t="n">
-        <v>15.63975</v>
+        <v>20.99725</v>
       </c>
       <c r="O128" t="n">
-        <v>3.748157269468114</v>
+        <v>0.874018830842144</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_4_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C129" s="1" t="inlineStr">
@@ -6737,47 +6737,47 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.421</v>
+        <v>0.321</v>
       </c>
       <c r="E129" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F129" t="n">
-        <v>0.748</v>
+        <v>0.519</v>
       </c>
       <c r="G129" t="n">
-        <v>0.777</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>0.654</v>
+        <v>0.475</v>
       </c>
       <c r="I129" t="n">
-        <v>0.1617714437099453</v>
+        <v>0.1056756042487259</v>
       </c>
       <c r="J129" t="n">
-        <v>20.782</v>
+        <v>22.502</v>
       </c>
       <c r="K129" t="n">
-        <v>16.129</v>
+        <v>19.867</v>
       </c>
       <c r="L129" t="n">
-        <v>13.455</v>
+        <v>18.575</v>
       </c>
       <c r="M129" t="n">
-        <v>12.607</v>
+        <v>17.714</v>
       </c>
       <c r="N129" t="n">
-        <v>15.74325</v>
+        <v>19.6645</v>
       </c>
       <c r="O129" t="n">
-        <v>3.679218972825619</v>
+        <v>2.088370417335009</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_5_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C130" s="1" t="inlineStr">
@@ -6786,47 +6786,47 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.441</v>
+        <v>0.43</v>
       </c>
       <c r="E130" t="n">
-        <v>0.681</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="G130" t="n">
-        <v>0.791</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>0.6677500000000001</v>
+        <v>0.66925</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1580366518670062</v>
+        <v>0.168006696295118</v>
       </c>
       <c r="J130" t="n">
-        <v>20.425</v>
+        <v>20.622</v>
       </c>
       <c r="K130" t="n">
-        <v>15.881</v>
+        <v>15.837</v>
       </c>
       <c r="L130" t="n">
-        <v>13.164</v>
+        <v>13.285</v>
       </c>
       <c r="M130" t="n">
-        <v>12.221</v>
+        <v>11.61</v>
       </c>
       <c r="N130" t="n">
-        <v>15.42275</v>
+        <v>15.3385</v>
       </c>
       <c r="O130" t="n">
-        <v>3.678117849752325</v>
+        <v>3.927783471628751</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_5_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
@@ -6835,47 +6835,47 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.448</v>
+        <v>0.439</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="F131" t="n">
-        <v>0.767</v>
+        <v>0.751</v>
       </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>0.787</v>
       </c>
       <c r="H131" t="n">
-        <v>0.675</v>
+        <v>0.6635</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1588689187139301</v>
+        <v>0.1565151749831306</v>
       </c>
       <c r="J131" t="n">
-        <v>20.304</v>
+        <v>20.455</v>
       </c>
       <c r="K131" t="n">
-        <v>15.779</v>
+        <v>15.98</v>
       </c>
       <c r="L131" t="n">
-        <v>12.938</v>
+        <v>13.357</v>
       </c>
       <c r="M131" t="n">
-        <v>11.959</v>
+        <v>12.328</v>
       </c>
       <c r="N131" t="n">
-        <v>15.245</v>
+        <v>15.53</v>
       </c>
       <c r="O131" t="n">
-        <v>3.741598677927212</v>
+        <v>3.625504930351081</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_6_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C132" s="1" t="inlineStr">
@@ -6884,88 +6884,578 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.458</v>
+        <v>0.413</v>
       </c>
       <c r="E132" t="n">
-        <v>0.677</v>
+        <v>0.669</v>
       </c>
       <c r="F132" t="n">
-        <v>0.759</v>
+        <v>0.748</v>
       </c>
       <c r="G132" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6717500000000001</v>
+        <v>0.6555</v>
       </c>
       <c r="I132" t="n">
-        <v>0.150588567516484</v>
+        <v>0.1694864793034143</v>
       </c>
       <c r="J132" t="n">
-        <v>20.11</v>
+        <v>20.933</v>
       </c>
       <c r="K132" t="n">
-        <v>15.957</v>
+        <v>16.161</v>
       </c>
       <c r="L132" t="n">
-        <v>13.143</v>
+        <v>13.445</v>
       </c>
       <c r="M132" t="n">
-        <v>12.151</v>
+        <v>12.184</v>
       </c>
       <c r="N132" t="n">
-        <v>15.34025</v>
+        <v>15.68075</v>
       </c>
       <c r="O132" t="n">
-        <v>3.565114245481249</v>
+        <v>3.874816501031586</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="inlineStr">
         <is>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_1</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.51825</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.1073696884600118</v>
+      </c>
+      <c r="J133" t="n">
+        <v>21.813</v>
+      </c>
+      <c r="K133" t="n">
+        <v>19.143</v>
+      </c>
+      <c r="L133" t="n">
+        <v>17.446</v>
+      </c>
+      <c r="M133" t="n">
+        <v>16.911</v>
+      </c>
+      <c r="N133" t="n">
+        <v>18.82825</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2.205618790725178</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_2_scale_1</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.53925</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.1168200182617117</v>
+      </c>
+      <c r="J134" t="n">
+        <v>21.479</v>
+      </c>
+      <c r="K134" t="n">
+        <v>19.487</v>
+      </c>
+      <c r="L134" t="n">
+        <v>16.448</v>
+      </c>
+      <c r="M134" t="n">
+        <v>16.185</v>
+      </c>
+      <c r="N134" t="n">
+        <v>18.39975</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2.541544068081449</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_2_scale_2</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.5187499999999999</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.1134941261328826</v>
+      </c>
+      <c r="J135" t="n">
+        <v>21.878</v>
+      </c>
+      <c r="K135" t="n">
+        <v>19.513</v>
+      </c>
+      <c r="L135" t="n">
+        <v>17.185</v>
+      </c>
+      <c r="M135" t="n">
+        <v>16.681</v>
+      </c>
+      <c r="N135" t="n">
+        <v>18.81425</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2.38607255757238</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_3_scale_1</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.1577064784126934</v>
+      </c>
+      <c r="J136" t="n">
+        <v>20.916</v>
+      </c>
+      <c r="K136" t="n">
+        <v>16.527</v>
+      </c>
+      <c r="L136" t="n">
+        <v>13.531</v>
+      </c>
+      <c r="M136" t="n">
+        <v>13.332</v>
+      </c>
+      <c r="N136" t="n">
+        <v>16.0765</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3.541918547905922</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_3_scale_2</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.118487692750485</v>
+      </c>
+      <c r="J137" t="n">
+        <v>21.492</v>
+      </c>
+      <c r="K137" t="n">
+        <v>18.656</v>
+      </c>
+      <c r="L137" t="n">
+        <v>16.342</v>
+      </c>
+      <c r="M137" t="n">
+        <v>16.106</v>
+      </c>
+      <c r="N137" t="n">
+        <v>18.149</v>
+      </c>
+      <c r="O137" t="n">
+        <v>2.508106589973135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_4_scale_1</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.6579999999999999</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.1649707044700159</v>
+      </c>
+      <c r="J138" t="n">
+        <v>20.823</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15.944</v>
+      </c>
+      <c r="L138" t="n">
+        <v>13.152</v>
+      </c>
+      <c r="M138" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="N138" t="n">
+        <v>15.63975</v>
+      </c>
+      <c r="O138" t="n">
+        <v>3.748157269468114</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_4_scale_2</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.1617714437099453</v>
+      </c>
+      <c r="J139" t="n">
+        <v>20.782</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16.129</v>
+      </c>
+      <c r="L139" t="n">
+        <v>13.455</v>
+      </c>
+      <c r="M139" t="n">
+        <v>12.607</v>
+      </c>
+      <c r="N139" t="n">
+        <v>15.74325</v>
+      </c>
+      <c r="O139" t="n">
+        <v>3.679218972825619</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_5_scale_1</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.6677500000000001</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.1580366518670062</v>
+      </c>
+      <c r="J140" t="n">
+        <v>20.425</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15.881</v>
+      </c>
+      <c r="L140" t="n">
+        <v>13.164</v>
+      </c>
+      <c r="M140" t="n">
+        <v>12.221</v>
+      </c>
+      <c r="N140" t="n">
+        <v>15.42275</v>
+      </c>
+      <c r="O140" t="n">
+        <v>3.678117849752325</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_5_scale_2</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.1588689187139301</v>
+      </c>
+      <c r="J141" t="n">
+        <v>20.304</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15.779</v>
+      </c>
+      <c r="L141" t="n">
+        <v>12.938</v>
+      </c>
+      <c r="M141" t="n">
+        <v>11.959</v>
+      </c>
+      <c r="N141" t="n">
+        <v>15.245</v>
+      </c>
+      <c r="O141" t="n">
+        <v>3.741598677927212</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_6_scale_1</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.6717500000000001</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.150588567516484</v>
+      </c>
+      <c r="J142" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15.957</v>
+      </c>
+      <c r="L142" t="n">
+        <v>13.143</v>
+      </c>
+      <c r="M142" t="n">
+        <v>12.151</v>
+      </c>
+      <c r="N142" t="n">
+        <v>15.34025</v>
+      </c>
+      <c r="O142" t="n">
+        <v>3.565114245481249</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
           <t>WLsigmoidlogistic_iterations_6_scale_2</t>
         </is>
       </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>0.437</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E143" t="n">
         <v>0.6840000000000001</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F143" t="n">
         <v>0.766</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G143" t="n">
         <v>0.805</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H143" t="n">
         <v>0.673</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I143" t="n">
         <v>0.16521702898511</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J143" t="n">
         <v>20.494</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K143" t="n">
         <v>15.782</v>
       </c>
-      <c r="L133" t="n">
+      <c r="L143" t="n">
         <v>12.949</v>
       </c>
-      <c r="M133" t="n">
+      <c r="M143" t="n">
         <v>11.798</v>
       </c>
-      <c r="N133" t="n">
+      <c r="N143" t="n">
         <v>15.25575</v>
       </c>
-      <c r="O133" t="n">
+      <c r="O143" t="n">
         <v>3.872696422821357</v>
       </c>
     </row>
@@ -6973,7 +7463,7 @@
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:O1"/>
-    <mergeCell ref="A4:A133"/>
+    <mergeCell ref="A4:A143"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -6985,7 +7475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11830,7 +12320,7 @@
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C114" s="1" t="inlineStr">
@@ -11839,41 +12329,41 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.449</v>
+        <v>0.525</v>
       </c>
       <c r="E114" t="n">
-        <v>0.521</v>
+        <v>0.586</v>
       </c>
       <c r="F114" t="n">
-        <v>0.443</v>
+        <v>0.525</v>
       </c>
       <c r="G114" t="n">
-        <v>0.471</v>
+        <v>0.5453333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0.04340506882842141</v>
+        <v>0.03521836642056714</v>
       </c>
       <c r="I114" t="n">
-        <v>18.486</v>
+        <v>17.167</v>
       </c>
       <c r="J114" t="n">
-        <v>18.439</v>
+        <v>17.137</v>
       </c>
       <c r="K114" t="n">
-        <v>19.771</v>
+        <v>18.263</v>
       </c>
       <c r="L114" t="n">
-        <v>18.89866666666667</v>
+        <v>17.52233333333334</v>
       </c>
       <c r="M114" t="n">
-        <v>0.7558282432757681</v>
+        <v>0.641611512781164</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
@@ -11882,41 +12372,41 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.362</v>
+        <v>0.449</v>
       </c>
       <c r="E115" t="n">
-        <v>0.477</v>
+        <v>0.521</v>
       </c>
       <c r="F115" t="n">
-        <v>0.32</v>
+        <v>0.443</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3863333333333333</v>
+        <v>0.471</v>
       </c>
       <c r="H115" t="n">
-        <v>0.08127935367197091</v>
+        <v>0.04340506882842141</v>
       </c>
       <c r="I115" t="n">
-        <v>19.898</v>
+        <v>18.486</v>
       </c>
       <c r="J115" t="n">
-        <v>19.269</v>
+        <v>18.439</v>
       </c>
       <c r="K115" t="n">
-        <v>21.855</v>
+        <v>19.771</v>
       </c>
       <c r="L115" t="n">
-        <v>20.34066666666666</v>
+        <v>18.89866666666667</v>
       </c>
       <c r="M115" t="n">
-        <v>1.348634247427128</v>
+        <v>0.7558282432757681</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C116" s="1" t="inlineStr">
@@ -11925,41 +12415,41 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.476</v>
+        <v>0.275</v>
       </c>
       <c r="E116" t="n">
-        <v>0.263</v>
+        <v>0.49</v>
       </c>
       <c r="F116" t="n">
-        <v>0.444</v>
+        <v>0.242</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3943333333333334</v>
+        <v>0.3356666666666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0.1148578832006464</v>
+        <v>0.1346712045440054</v>
       </c>
       <c r="I116" t="n">
-        <v>18.035</v>
+        <v>21.216</v>
       </c>
       <c r="J116" t="n">
-        <v>22.871</v>
+        <v>19.032</v>
       </c>
       <c r="K116" t="n">
-        <v>19.764</v>
+        <v>23.069</v>
       </c>
       <c r="L116" t="n">
-        <v>20.22333333333333</v>
+        <v>21.10566666666667</v>
       </c>
       <c r="M116" t="n">
-        <v>2.450502873561533</v>
+        <v>2.02076033545132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_2_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C117" s="1" t="inlineStr">
@@ -11968,41 +12458,41 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="E117" t="n">
-        <v>0.441</v>
+        <v>0.477</v>
       </c>
       <c r="F117" t="n">
-        <v>0.344</v>
+        <v>0.32</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3816666666666667</v>
+        <v>0.3863333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0.05200320502943385</v>
+        <v>0.08127935367197091</v>
       </c>
       <c r="I117" t="n">
-        <v>19.939</v>
+        <v>19.898</v>
       </c>
       <c r="J117" t="n">
-        <v>19.916</v>
+        <v>19.269</v>
       </c>
       <c r="K117" t="n">
-        <v>21.468</v>
+        <v>21.855</v>
       </c>
       <c r="L117" t="n">
-        <v>20.441</v>
+        <v>20.34066666666666</v>
       </c>
       <c r="M117" t="n">
-        <v>0.8894824337782055</v>
+        <v>1.348634247427128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C118" s="1" t="inlineStr">
@@ -12011,41 +12501,41 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="E118" t="n">
-        <v>0.57</v>
+        <v>0.474</v>
       </c>
       <c r="F118" t="n">
-        <v>0.334</v>
+        <v>0.513</v>
       </c>
       <c r="G118" t="n">
-        <v>0.508</v>
+        <v>0.5353333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>0.1527481587450402</v>
+        <v>0.07503554713156514</v>
       </c>
       <c r="I118" t="n">
-        <v>15.359</v>
+        <v>15.375</v>
       </c>
       <c r="J118" t="n">
-        <v>17.47</v>
+        <v>19.33</v>
       </c>
       <c r="K118" t="n">
-        <v>21.626</v>
+        <v>18.494</v>
       </c>
       <c r="L118" t="n">
-        <v>18.15166666666667</v>
+        <v>17.733</v>
       </c>
       <c r="M118" t="n">
-        <v>3.188624206979138</v>
+        <v>2.084429658203893</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
@@ -12054,41 +12544,41 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.385</v>
+        <v>0.476</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.137</v>
+        <v>0.263</v>
       </c>
       <c r="F119" t="n">
-        <v>0.354</v>
+        <v>0.444</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2006666666666667</v>
+        <v>0.3943333333333334</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2928384082277005</v>
+        <v>0.1148578832006464</v>
       </c>
       <c r="I119" t="n">
-        <v>19.543</v>
+        <v>18.035</v>
       </c>
       <c r="J119" t="n">
-        <v>28.408</v>
+        <v>22.871</v>
       </c>
       <c r="K119" t="n">
-        <v>21.296</v>
+        <v>19.764</v>
       </c>
       <c r="L119" t="n">
-        <v>23.08233333333333</v>
+        <v>20.22333333333333</v>
       </c>
       <c r="M119" t="n">
-        <v>4.694709398177202</v>
+        <v>2.450502873561533</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
@@ -12097,41 +12587,41 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.612</v>
+        <v>0.323</v>
       </c>
       <c r="E120" t="n">
-        <v>0.665</v>
+        <v>0.076</v>
       </c>
       <c r="F120" t="n">
-        <v>0.595</v>
+        <v>0.279</v>
       </c>
       <c r="G120" t="n">
-        <v>0.624</v>
+        <v>0.226</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03651027252705739</v>
+        <v>0.1317535578267244</v>
       </c>
       <c r="I120" t="n">
-        <v>15.519</v>
+        <v>20.504</v>
       </c>
       <c r="J120" t="n">
-        <v>15.408</v>
+        <v>25.609</v>
       </c>
       <c r="K120" t="n">
-        <v>16.865</v>
+        <v>22.49</v>
       </c>
       <c r="L120" t="n">
-        <v>15.93066666666667</v>
+        <v>22.86766666666667</v>
       </c>
       <c r="M120" t="n">
-        <v>0.8110575400878363</v>
+        <v>2.573369451387293</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_3_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C121" s="1" t="inlineStr">
@@ -12140,41 +12630,41 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.028</v>
+        <v>0.36</v>
       </c>
       <c r="E121" t="n">
-        <v>0.222</v>
+        <v>0.441</v>
       </c>
       <c r="F121" t="n">
-        <v>0.376</v>
+        <v>0.344</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2086666666666667</v>
+        <v>0.3816666666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0.1743827208565497</v>
+        <v>0.05200320502943385</v>
       </c>
       <c r="I121" t="n">
-        <v>24.563</v>
+        <v>19.939</v>
       </c>
       <c r="J121" t="n">
-        <v>23.505</v>
+        <v>19.916</v>
       </c>
       <c r="K121" t="n">
-        <v>20.938</v>
+        <v>21.468</v>
       </c>
       <c r="L121" t="n">
-        <v>23.002</v>
+        <v>20.441</v>
       </c>
       <c r="M121" t="n">
-        <v>1.864111852867204</v>
+        <v>0.8894824337782055</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C122" s="1" t="inlineStr">
@@ -12183,41 +12673,41 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.596</v>
+        <v>0.652</v>
       </c>
       <c r="E122" t="n">
-        <v>0.694</v>
+        <v>0.648</v>
       </c>
       <c r="F122" t="n">
-        <v>0.599</v>
+        <v>0.611</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6296666666666666</v>
+        <v>0.637</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0557344896211792</v>
+        <v>0.02260530911091465</v>
       </c>
       <c r="I122" t="n">
-        <v>15.844</v>
+        <v>14.697</v>
       </c>
       <c r="J122" t="n">
-        <v>14.734</v>
+        <v>15.813</v>
       </c>
       <c r="K122" t="n">
-        <v>16.778</v>
+        <v>16.524</v>
       </c>
       <c r="L122" t="n">
-        <v>15.78533333333333</v>
+        <v>15.678</v>
       </c>
       <c r="M122" t="n">
-        <v>1.023262103927108</v>
+        <v>0.9209511387690454</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C123" s="1" t="inlineStr">
@@ -12226,41 +12716,41 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="E123" t="n">
-        <v>0.429</v>
+        <v>0.57</v>
       </c>
       <c r="F123" t="n">
-        <v>0.39</v>
+        <v>0.334</v>
       </c>
       <c r="G123" t="n">
-        <v>0.46</v>
+        <v>0.508</v>
       </c>
       <c r="H123" t="n">
-        <v>0.08961584681293819</v>
+        <v>0.1527481587450402</v>
       </c>
       <c r="I123" t="n">
-        <v>16.5</v>
+        <v>15.359</v>
       </c>
       <c r="J123" t="n">
-        <v>20.131</v>
+        <v>17.47</v>
       </c>
       <c r="K123" t="n">
-        <v>20.69</v>
+        <v>21.626</v>
       </c>
       <c r="L123" t="n">
-        <v>19.107</v>
+        <v>18.15166666666667</v>
       </c>
       <c r="M123" t="n">
-        <v>2.274963076623443</v>
+        <v>3.188624206979138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_2_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C124" s="1" t="inlineStr">
@@ -12269,41 +12759,41 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.574</v>
+        <v>0.256</v>
       </c>
       <c r="E124" t="n">
-        <v>0.639</v>
+        <v>0.236</v>
       </c>
       <c r="F124" t="n">
-        <v>0.599</v>
+        <v>0.292</v>
       </c>
       <c r="G124" t="n">
-        <v>0.604</v>
+        <v>0.2613333333333334</v>
       </c>
       <c r="H124" t="n">
-        <v>0.03278719262151003</v>
+        <v>0.02837839553839034</v>
       </c>
       <c r="I124" t="n">
-        <v>16.254</v>
+        <v>21.493</v>
       </c>
       <c r="J124" t="n">
-        <v>16</v>
+        <v>23.293</v>
       </c>
       <c r="K124" t="n">
-        <v>16.768</v>
+        <v>22.291</v>
       </c>
       <c r="L124" t="n">
-        <v>16.34066666666667</v>
+        <v>22.359</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3912663202133983</v>
+        <v>0.9019246088227112</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_2_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_4_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C125" s="1" t="inlineStr">
@@ -12312,41 +12802,41 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.486</v>
+        <v>0.385</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5570000000000001</v>
+        <v>-0.137</v>
       </c>
       <c r="F125" t="n">
-        <v>0.509</v>
+        <v>0.354</v>
       </c>
       <c r="G125" t="n">
-        <v>0.5173333333333333</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="H125" t="n">
-        <v>0.03622614157391504</v>
+        <v>0.2928384082277005</v>
       </c>
       <c r="I125" t="n">
-        <v>17.868</v>
+        <v>19.543</v>
       </c>
       <c r="J125" t="n">
-        <v>17.724</v>
+        <v>28.408</v>
       </c>
       <c r="K125" t="n">
-        <v>18.567</v>
+        <v>21.296</v>
       </c>
       <c r="L125" t="n">
-        <v>18.053</v>
+        <v>23.08233333333333</v>
       </c>
       <c r="M125" t="n">
-        <v>0.4509223880004188</v>
+        <v>4.694709398177202</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_3_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C126" s="1" t="inlineStr">
@@ -12355,41 +12845,41 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.651</v>
+        <v>0.612</v>
       </c>
       <c r="E126" t="n">
-        <v>0.619</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.649</v>
+        <v>0.599</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6396666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>0.01792577287966502</v>
+        <v>0.04864497233356527</v>
       </c>
       <c r="I126" t="n">
-        <v>14.723</v>
+        <v>15.524</v>
       </c>
       <c r="J126" t="n">
-        <v>16.451</v>
+        <v>14.854</v>
       </c>
       <c r="K126" t="n">
-        <v>15.704</v>
+        <v>16.783</v>
       </c>
       <c r="L126" t="n">
-        <v>15.626</v>
+        <v>15.72033333333333</v>
       </c>
       <c r="M126" t="n">
-        <v>0.8666366020426323</v>
+        <v>0.9793724180991292</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_3_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C127" s="1" t="inlineStr">
@@ -12398,41 +12888,41 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.521</v>
+        <v>0.612</v>
       </c>
       <c r="E127" t="n">
-        <v>0.413</v>
+        <v>0.665</v>
       </c>
       <c r="F127" t="n">
-        <v>0.502</v>
+        <v>0.595</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4786666666666666</v>
+        <v>0.624</v>
       </c>
       <c r="H127" t="n">
-        <v>0.05765703195043373</v>
+        <v>0.03651027252705739</v>
       </c>
       <c r="I127" t="n">
-        <v>17.246</v>
+        <v>15.519</v>
       </c>
       <c r="J127" t="n">
-        <v>20.41</v>
+        <v>15.408</v>
       </c>
       <c r="K127" t="n">
-        <v>18.702</v>
+        <v>16.865</v>
       </c>
       <c r="L127" t="n">
-        <v>18.786</v>
+        <v>15.93066666666667</v>
       </c>
       <c r="M127" t="n">
-        <v>1.583671683146479</v>
+        <v>0.8110575400878363</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_4_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C128" s="1" t="inlineStr">
@@ -12441,41 +12931,41 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.625</v>
+        <v>0.52</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="F128" t="n">
-        <v>0.614</v>
+        <v>0.306</v>
       </c>
       <c r="G128" t="n">
-        <v>0.6433333333333333</v>
+        <v>0.3986666666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>0.04164532786920198</v>
+        <v>0.1098423112162765</v>
       </c>
       <c r="I128" t="n">
-        <v>15.248</v>
+        <v>17.254</v>
       </c>
       <c r="J128" t="n">
-        <v>14.8</v>
+        <v>21.154</v>
       </c>
       <c r="K128" t="n">
-        <v>16.467</v>
+        <v>22.07</v>
       </c>
       <c r="L128" t="n">
-        <v>15.505</v>
+        <v>20.15933333333334</v>
       </c>
       <c r="M128" t="n">
-        <v>0.8627044685174631</v>
+        <v>2.557437258924123</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_4_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_5_scale_2_bias_1</t>
         </is>
       </c>
       <c r="C129" s="1" t="inlineStr">
@@ -12484,41 +12974,41 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.643</v>
+        <v>0.028</v>
       </c>
       <c r="E129" t="n">
-        <v>0.657</v>
+        <v>0.222</v>
       </c>
       <c r="F129" t="n">
-        <v>0.615</v>
+        <v>0.376</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6383333333333333</v>
+        <v>0.2086666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0.02138535324312727</v>
+        <v>0.1743827208565497</v>
       </c>
       <c r="I129" t="n">
-        <v>14.878</v>
+        <v>24.563</v>
       </c>
       <c r="J129" t="n">
-        <v>15.592</v>
+        <v>23.505</v>
       </c>
       <c r="K129" t="n">
-        <v>16.45</v>
+        <v>20.938</v>
       </c>
       <c r="L129" t="n">
-        <v>15.64</v>
+        <v>23.002</v>
       </c>
       <c r="M129" t="n">
-        <v>0.7870984690621621</v>
+        <v>1.864111852867204</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_5_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_0</t>
         </is>
       </c>
       <c r="C130" s="1" t="inlineStr">
@@ -12527,41 +13017,41 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.588</v>
+        <v>0.599</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.588</v>
+        <v>0.583</v>
       </c>
       <c r="G130" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="H130" t="n">
-        <v>0.05542562584220413</v>
+        <v>0.05771481612203229</v>
       </c>
       <c r="I130" t="n">
-        <v>15.992</v>
+        <v>15.77</v>
       </c>
       <c r="J130" t="n">
-        <v>14.98</v>
+        <v>14.843</v>
       </c>
       <c r="K130" t="n">
-        <v>17.008</v>
+        <v>17.1</v>
       </c>
       <c r="L130" t="n">
-        <v>15.99333333333333</v>
+        <v>15.90433333333333</v>
       </c>
       <c r="M130" t="n">
-        <v>1.014000657461982</v>
+        <v>1.134480644759237</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_5_scale_2</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_1_bias_1</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
@@ -12570,41 +13060,41 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.617</v>
+        <v>0.596</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697</v>
+        <v>0.694</v>
       </c>
       <c r="F131" t="n">
-        <v>0.604</v>
+        <v>0.599</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6393333333333333</v>
+        <v>0.6296666666666666</v>
       </c>
       <c r="H131" t="n">
-        <v>0.05036202272877184</v>
+        <v>0.0557344896211792</v>
       </c>
       <c r="I131" t="n">
-        <v>15.421</v>
+        <v>15.844</v>
       </c>
       <c r="J131" t="n">
-        <v>14.667</v>
+        <v>14.734</v>
       </c>
       <c r="K131" t="n">
-        <v>16.666</v>
+        <v>16.778</v>
       </c>
       <c r="L131" t="n">
-        <v>15.58466666666667</v>
+        <v>15.78533333333333</v>
       </c>
       <c r="M131" t="n">
-        <v>1.009500041274558</v>
+        <v>1.023262103927108</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="inlineStr">
         <is>
-          <t>WLsigmoidlogistic_iterations_6_scale_1</t>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_0</t>
         </is>
       </c>
       <c r="C132" s="1" t="inlineStr">
@@ -12613,76 +13103,506 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.555</v>
+        <v>0.607</v>
       </c>
       <c r="E132" t="n">
-        <v>0.653</v>
+        <v>0.593</v>
       </c>
       <c r="F132" t="n">
-        <v>0.569</v>
+        <v>0.509</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5923333333333334</v>
+        <v>0.5696666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>0.05300314456080256</v>
+        <v>0.05300314456080254</v>
       </c>
       <c r="I132" t="n">
-        <v>16.621</v>
+        <v>15.628</v>
       </c>
       <c r="J132" t="n">
-        <v>15.682</v>
+        <v>16.986</v>
       </c>
       <c r="K132" t="n">
-        <v>17.391</v>
+        <v>18.568</v>
       </c>
       <c r="L132" t="n">
-        <v>16.56466666666667</v>
+        <v>17.06066666666667</v>
       </c>
       <c r="M132" t="n">
-        <v>0.8558915429733673</v>
+        <v>1.4714215348884</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="inlineStr">
         <is>
+          <t>WLsigmoidhyperbolictangent_iterations_6_scale_2_bias_1</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.08961584681293819</v>
+      </c>
+      <c r="I133" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20.131</v>
+      </c>
+      <c r="K133" t="n">
+        <v>20.69</v>
+      </c>
+      <c r="L133" t="n">
+        <v>19.107</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2.274963076623443</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_2_scale_1</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.03278719262151003</v>
+      </c>
+      <c r="I134" t="n">
+        <v>16.254</v>
+      </c>
+      <c r="J134" t="n">
+        <v>16</v>
+      </c>
+      <c r="K134" t="n">
+        <v>16.768</v>
+      </c>
+      <c r="L134" t="n">
+        <v>16.34066666666667</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.3912663202133983</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_2_scale_2</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5173333333333333</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.03622614157391504</v>
+      </c>
+      <c r="I135" t="n">
+        <v>17.868</v>
+      </c>
+      <c r="J135" t="n">
+        <v>17.724</v>
+      </c>
+      <c r="K135" t="n">
+        <v>18.567</v>
+      </c>
+      <c r="L135" t="n">
+        <v>18.053</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.4509223880004188</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_3_scale_1</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.6396666666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.01792577287966502</v>
+      </c>
+      <c r="I136" t="n">
+        <v>14.723</v>
+      </c>
+      <c r="J136" t="n">
+        <v>16.451</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15.704</v>
+      </c>
+      <c r="L136" t="n">
+        <v>15.626</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.8666366020426323</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_3_scale_2</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.4786666666666666</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.05765703195043373</v>
+      </c>
+      <c r="I137" t="n">
+        <v>17.246</v>
+      </c>
+      <c r="J137" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="K137" t="n">
+        <v>18.702</v>
+      </c>
+      <c r="L137" t="n">
+        <v>18.786</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.583671683146479</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_4_scale_1</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.6433333333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.04164532786920198</v>
+      </c>
+      <c r="I138" t="n">
+        <v>15.248</v>
+      </c>
+      <c r="J138" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>16.467</v>
+      </c>
+      <c r="L138" t="n">
+        <v>15.505</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.8627044685174631</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_4_scale_2</t>
+        </is>
+      </c>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.6383333333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.02138535324312727</v>
+      </c>
+      <c r="I139" t="n">
+        <v>14.878</v>
+      </c>
+      <c r="J139" t="n">
+        <v>15.592</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="L139" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.7870984690621621</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_5_scale_1</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.05542562584220413</v>
+      </c>
+      <c r="I140" t="n">
+        <v>15.992</v>
+      </c>
+      <c r="J140" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="K140" t="n">
+        <v>17.008</v>
+      </c>
+      <c r="L140" t="n">
+        <v>15.99333333333333</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.014000657461982</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_5_scale_2</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.6393333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.05036202272877184</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15.421</v>
+      </c>
+      <c r="J141" t="n">
+        <v>14.667</v>
+      </c>
+      <c r="K141" t="n">
+        <v>16.666</v>
+      </c>
+      <c r="L141" t="n">
+        <v>15.58466666666667</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.009500041274558</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>WLsigmoidlogistic_iterations_6_scale_1</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5923333333333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.05300314456080256</v>
+      </c>
+      <c r="I142" t="n">
+        <v>16.621</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15.682</v>
+      </c>
+      <c r="K142" t="n">
+        <v>17.391</v>
+      </c>
+      <c r="L142" t="n">
+        <v>16.56466666666667</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.8558915429733673</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
           <t>WLsigmoidlogistic_iterations_6_scale_2</t>
         </is>
       </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>0.582</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E143" t="n">
         <v>0.706</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F143" t="n">
         <v>0.598</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G143" t="n">
         <v>0.6286666666666666</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H143" t="n">
         <v>0.06744874597302261</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I143" t="n">
         <v>16.099</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J143" t="n">
         <v>14.453</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K143" t="n">
         <v>16.804</v>
       </c>
-      <c r="L133" t="n">
+      <c r="L143" t="n">
         <v>15.78533333333333</v>
       </c>
-      <c r="M133" t="n">
+      <c r="M143" t="n">
         <v>1.206478484405475</v>
       </c>
     </row>
@@ -12690,7 +13610,7 @@
   <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A4:A133"/>
+    <mergeCell ref="A4:A143"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
